--- a/Data/Human Voluntary Data.xlsx
+++ b/Data/Human Voluntary Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorda\OneDrive - University of Tennessee\VPC\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EABC22-AC73-45A3-9992-3C48F6AFF625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB73A48-61C8-48A8-8CA9-107896962FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{BB102C53-C3E1-4D54-83D1-542FA604C574}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$458</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$458</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5045" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5080" uniqueCount="84">
   <si>
     <t>Time</t>
   </si>
@@ -284,10 +284,13 @@
     <t>yamagata/16/88</t>
   </si>
   <si>
-    <t>Normal</t>
+    <t>H3N2</t>
   </si>
   <si>
-    <t>H3N2</t>
+    <t>AltCon</t>
+  </si>
+  <si>
+    <t>Human</t>
   </si>
 </sst>
 </file>
@@ -344,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -420,20 +423,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -456,18 +450,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77C534B-1212-4161-8C68-A242F4FEFD13}">
-  <dimension ref="A1:R480"/>
+  <dimension ref="A1:S458"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,7 +803,7 @@
     <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -868,8 +858,11 @@
       <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -916,10 +909,10 @@
         <v>17</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -966,10 +959,10 @@
         <v>18</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1.5</v>
       </c>
@@ -1015,11 +1008,14 @@
       <c r="Q4" s="5">
         <v>17</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S4" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1.5</v>
       </c>
@@ -1065,11 +1061,14 @@
       <c r="Q5" s="8">
         <v>18</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S5" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -1116,10 +1115,10 @@
         <v>17</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -1166,10 +1165,10 @@
         <v>18</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2.5</v>
       </c>
@@ -1215,11 +1214,14 @@
       <c r="Q8" s="5">
         <v>17</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S8" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2.5</v>
       </c>
@@ -1265,11 +1267,14 @@
       <c r="Q9" s="5">
         <v>18</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S9" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>3</v>
       </c>
@@ -1316,10 +1321,10 @@
         <v>17</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -1366,10 +1371,10 @@
         <v>18</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3.5</v>
       </c>
@@ -1415,11 +1420,14 @@
       <c r="Q12" s="5">
         <v>17</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="R12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S12" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>3.5</v>
       </c>
@@ -1465,11 +1473,14 @@
       <c r="Q13" s="8">
         <v>18</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S13" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>4</v>
       </c>
@@ -1516,10 +1527,10 @@
         <v>17</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>4</v>
       </c>
@@ -1566,10 +1577,10 @@
         <v>18</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>5</v>
       </c>
@@ -1616,7 +1627,7 @@
         <v>17</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1666,7 +1677,7 @@
         <v>18</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -1716,7 +1727,7 @@
         <v>17</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -1766,7 +1777,7 @@
         <v>18</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -1816,7 +1827,7 @@
         <v>17</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -1866,7 +1877,7 @@
         <v>18</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -1917,8 +1928,8 @@
       <c r="Q22" s="5">
         <v>8</v>
       </c>
-      <c r="R22" s="6" t="s">
-        <v>26</v>
+      <c r="R22" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -1969,8 +1980,8 @@
       <c r="Q23" s="5">
         <v>8</v>
       </c>
-      <c r="R23" s="6" t="s">
-        <v>26</v>
+      <c r="R23" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2021,8 +2032,8 @@
       <c r="Q24" s="5">
         <v>8</v>
       </c>
-      <c r="R24" s="6" t="s">
-        <v>26</v>
+      <c r="R24" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -2073,8 +2084,8 @@
       <c r="Q25" s="5">
         <v>8</v>
       </c>
-      <c r="R25" s="6" t="s">
-        <v>26</v>
+      <c r="R25" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2125,8 +2136,8 @@
       <c r="Q26" s="5">
         <v>8</v>
       </c>
-      <c r="R26" s="6" t="s">
-        <v>26</v>
+      <c r="R26" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -2177,8 +2188,8 @@
       <c r="Q27" s="5">
         <v>8</v>
       </c>
-      <c r="R27" s="6" t="s">
-        <v>26</v>
+      <c r="R27" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -2229,8 +2240,8 @@
       <c r="Q28" s="5">
         <v>8</v>
       </c>
-      <c r="R28" s="6" t="s">
-        <v>26</v>
+      <c r="R28" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -2281,8 +2292,8 @@
       <c r="Q29" s="5">
         <v>8</v>
       </c>
-      <c r="R29" s="6" t="s">
-        <v>26</v>
+      <c r="R29" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -2333,8 +2344,8 @@
       <c r="Q30" s="5">
         <v>8</v>
       </c>
-      <c r="R30" s="6" t="s">
-        <v>26</v>
+      <c r="R30" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -2385,8 +2396,8 @@
       <c r="Q31" s="5">
         <v>8</v>
       </c>
-      <c r="R31" s="6" t="s">
-        <v>26</v>
+      <c r="R31" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -2437,8 +2448,8 @@
       <c r="Q32" s="5">
         <v>8</v>
       </c>
-      <c r="R32" s="6" t="s">
-        <v>26</v>
+      <c r="R32" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -2489,8 +2500,8 @@
       <c r="Q33" s="5">
         <v>8</v>
       </c>
-      <c r="R33" s="6" t="s">
-        <v>26</v>
+      <c r="R33" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -2541,8 +2552,8 @@
       <c r="Q34" s="5">
         <v>8</v>
       </c>
-      <c r="R34" s="6" t="s">
-        <v>26</v>
+      <c r="R34" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -2592,7 +2603,7 @@
         <v>8</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -2642,7 +2653,7 @@
         <v>8</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -2692,7 +2703,7 @@
         <v>8</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -2742,7 +2753,7 @@
         <v>8</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -2792,7 +2803,7 @@
         <v>8</v>
       </c>
       <c r="R39" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -2842,7 +2853,7 @@
         <v>8</v>
       </c>
       <c r="R40" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -2885,14 +2896,14 @@
       <c r="O41" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P41" s="23" t="s">
+      <c r="P41" s="18" t="s">
         <v>25</v>
       </c>
       <c r="Q41" s="5">
         <v>8</v>
       </c>
       <c r="R41" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -2937,14 +2948,14 @@
       <c r="O42" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P42" s="23" t="s">
+      <c r="P42" s="18" t="s">
         <v>25</v>
       </c>
       <c r="Q42" s="5">
         <v>8</v>
       </c>
-      <c r="R42" s="6" t="s">
-        <v>26</v>
+      <c r="R42" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -2995,8 +3006,8 @@
       <c r="Q43" s="5">
         <v>8</v>
       </c>
-      <c r="R43" s="6" t="s">
-        <v>26</v>
+      <c r="R43" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -3048,7 +3059,7 @@
         <v>8</v>
       </c>
       <c r="R44" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -3099,8 +3110,8 @@
       <c r="Q45" s="5">
         <v>8</v>
       </c>
-      <c r="R45" s="6" t="s">
-        <v>26</v>
+      <c r="R45" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -3151,8 +3162,8 @@
       <c r="Q46" s="5">
         <v>8</v>
       </c>
-      <c r="R46" s="6" t="s">
-        <v>26</v>
+      <c r="R46" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -3204,7 +3215,7 @@
         <v>8</v>
       </c>
       <c r="R47" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -3256,7 +3267,7 @@
         <v>8</v>
       </c>
       <c r="R48" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -3308,7 +3319,7 @@
         <v>8</v>
       </c>
       <c r="R49" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -3360,7 +3371,7 @@
         <v>8</v>
       </c>
       <c r="R50" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -3412,7 +3423,7 @@
         <v>8</v>
       </c>
       <c r="R51" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -3463,8 +3474,8 @@
       <c r="Q52" s="5">
         <v>8</v>
       </c>
-      <c r="R52" s="6" t="s">
-        <v>26</v>
+      <c r="R52" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -3516,7 +3527,7 @@
         <v>8</v>
       </c>
       <c r="R53" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -3568,7 +3579,7 @@
         <v>8</v>
       </c>
       <c r="R54" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -3619,8 +3630,8 @@
       <c r="Q55" s="5">
         <v>8</v>
       </c>
-      <c r="R55" s="6" t="s">
-        <v>26</v>
+      <c r="R55" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -3671,8 +3682,8 @@
       <c r="Q56" s="5">
         <v>8</v>
       </c>
-      <c r="R56" s="6" t="s">
-        <v>26</v>
+      <c r="R56" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -3723,8 +3734,8 @@
       <c r="Q57" s="5">
         <v>8</v>
       </c>
-      <c r="R57" s="6" t="s">
-        <v>26</v>
+      <c r="R57" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -3775,8 +3786,8 @@
       <c r="Q58" s="5">
         <v>8</v>
       </c>
-      <c r="R58" s="6" t="s">
-        <v>26</v>
+      <c r="R58" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -3828,7 +3839,7 @@
         <v>8</v>
       </c>
       <c r="R59" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -3879,8 +3890,8 @@
       <c r="Q60" s="5">
         <v>8</v>
       </c>
-      <c r="R60" s="6" t="s">
-        <v>26</v>
+      <c r="R60" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -3931,8 +3942,8 @@
       <c r="Q61" s="5">
         <v>8</v>
       </c>
-      <c r="R61" s="6" t="s">
-        <v>26</v>
+      <c r="R61" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -3984,7 +3995,7 @@
         <v>8</v>
       </c>
       <c r="R62" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -4036,7 +4047,7 @@
         <v>8</v>
       </c>
       <c r="R63" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -4090,7 +4101,7 @@
         <v>8</v>
       </c>
       <c r="R64" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -4144,7 +4155,7 @@
         <v>8</v>
       </c>
       <c r="R65" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
@@ -4198,7 +4209,7 @@
         <v>8</v>
       </c>
       <c r="R66" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
@@ -4252,7 +4263,7 @@
         <v>8</v>
       </c>
       <c r="R67" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -4306,7 +4317,7 @@
         <v>8</v>
       </c>
       <c r="R68" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
@@ -4360,7 +4371,7 @@
         <v>8</v>
       </c>
       <c r="R69" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
@@ -4414,7 +4425,7 @@
         <v>8</v>
       </c>
       <c r="R70" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -4468,7 +4479,7 @@
         <v>8</v>
       </c>
       <c r="R71" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
@@ -4519,8 +4530,8 @@
       <c r="Q72" s="5">
         <v>8</v>
       </c>
-      <c r="R72" s="6" t="s">
-        <v>26</v>
+      <c r="R72" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
@@ -4571,8 +4582,8 @@
       <c r="Q73" s="5">
         <v>8</v>
       </c>
-      <c r="R73" s="6" t="s">
-        <v>26</v>
+      <c r="R73" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
@@ -4624,7 +4635,7 @@
         <v>8</v>
       </c>
       <c r="R74" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
@@ -4675,8 +4686,8 @@
       <c r="Q75" s="5">
         <v>8</v>
       </c>
-      <c r="R75" s="6" t="s">
-        <v>26</v>
+      <c r="R75" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
@@ -4727,8 +4738,8 @@
       <c r="Q76" s="5">
         <v>8</v>
       </c>
-      <c r="R76" s="6" t="s">
-        <v>26</v>
+      <c r="R76" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
@@ -4780,7 +4791,7 @@
         <v>8</v>
       </c>
       <c r="R77" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -4832,7 +4843,7 @@
         <v>8</v>
       </c>
       <c r="R78" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
@@ -4883,8 +4894,8 @@
       <c r="Q79" s="5">
         <v>8</v>
       </c>
-      <c r="R79" s="6" t="s">
-        <v>26</v>
+      <c r="R79" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -4929,14 +4940,14 @@
       <c r="O80" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P80" s="23" t="s">
+      <c r="P80" s="18" t="s">
         <v>25</v>
       </c>
       <c r="Q80" s="5">
         <v>8</v>
       </c>
-      <c r="R80" s="6" t="s">
-        <v>26</v>
+      <c r="R80" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
@@ -4981,14 +4992,14 @@
       <c r="O81" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="P81" s="22" t="s">
+      <c r="P81" t="s">
         <v>25</v>
       </c>
       <c r="Q81" s="8">
         <v>8</v>
       </c>
       <c r="R81" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
@@ -5039,8 +5050,8 @@
       <c r="Q82" s="5">
         <v>8</v>
       </c>
-      <c r="R82" s="6" t="s">
-        <v>26</v>
+      <c r="R82" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
@@ -5091,8 +5102,8 @@
       <c r="Q83" s="5">
         <v>8</v>
       </c>
-      <c r="R83" s="6" t="s">
-        <v>26</v>
+      <c r="R83" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
@@ -5144,7 +5155,7 @@
         <v>8</v>
       </c>
       <c r="R84" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
@@ -5196,7 +5207,7 @@
         <v>8</v>
       </c>
       <c r="R85" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
@@ -5248,7 +5259,7 @@
         <v>8</v>
       </c>
       <c r="R86" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
@@ -5300,7 +5311,7 @@
         <v>8</v>
       </c>
       <c r="R87" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
@@ -5351,8 +5362,8 @@
       <c r="Q88" s="5">
         <v>8</v>
       </c>
-      <c r="R88" s="6" t="s">
-        <v>26</v>
+      <c r="R88" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
@@ -5404,7 +5415,7 @@
         <v>8</v>
       </c>
       <c r="R89" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
@@ -5456,7 +5467,7 @@
         <v>8</v>
       </c>
       <c r="R90" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
@@ -5507,8 +5518,8 @@
       <c r="Q91" s="5">
         <v>8</v>
       </c>
-      <c r="R91" s="6" t="s">
-        <v>26</v>
+      <c r="R91" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
@@ -5559,8 +5570,8 @@
       <c r="Q92" s="5">
         <v>8</v>
       </c>
-      <c r="R92" s="6" t="s">
-        <v>26</v>
+      <c r="R92" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
@@ -5612,7 +5623,7 @@
         <v>8</v>
       </c>
       <c r="R93" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
@@ -5664,7 +5675,7 @@
         <v>8</v>
       </c>
       <c r="R94" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
@@ -5716,7 +5727,7 @@
         <v>8</v>
       </c>
       <c r="R95" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
@@ -5768,7 +5779,7 @@
         <v>8</v>
       </c>
       <c r="R96" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
@@ -5820,7 +5831,7 @@
         <v>8</v>
       </c>
       <c r="R97" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
@@ -5872,7 +5883,7 @@
         <v>8</v>
       </c>
       <c r="R98" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
@@ -5924,7 +5935,7 @@
         <v>8</v>
       </c>
       <c r="R99" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
@@ -5976,7 +5987,7 @@
         <v>8</v>
       </c>
       <c r="R100" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
@@ -6027,8 +6038,8 @@
       <c r="Q101" s="5">
         <v>8</v>
       </c>
-      <c r="R101" s="6" t="s">
-        <v>26</v>
+      <c r="R101" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
@@ -6080,7 +6091,7 @@
         <v>8</v>
       </c>
       <c r="R102" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
@@ -6132,7 +6143,7 @@
         <v>8</v>
       </c>
       <c r="R103" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
@@ -6183,8 +6194,8 @@
       <c r="Q104" s="5">
         <v>8</v>
       </c>
-      <c r="R104" s="6" t="s">
-        <v>26</v>
+      <c r="R104" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
@@ -6236,7 +6247,7 @@
         <v>8</v>
       </c>
       <c r="R105" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
@@ -6288,7 +6299,7 @@
         <v>8</v>
       </c>
       <c r="R106" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
@@ -6339,8 +6350,8 @@
       <c r="Q107" s="5">
         <v>8</v>
       </c>
-      <c r="R107" s="6" t="s">
-        <v>26</v>
+      <c r="R107" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
@@ -6391,8 +6402,8 @@
       <c r="Q108" s="5">
         <v>8</v>
       </c>
-      <c r="R108" s="6" t="s">
-        <v>26</v>
+      <c r="R108" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
@@ -6446,7 +6457,7 @@
         <v>8</v>
       </c>
       <c r="R109" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
@@ -6500,7 +6511,7 @@
         <v>8</v>
       </c>
       <c r="R110" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
@@ -6554,7 +6565,7 @@
         <v>8</v>
       </c>
       <c r="R111" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
@@ -6608,7 +6619,7 @@
         <v>8</v>
       </c>
       <c r="R112" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
@@ -6662,7 +6673,7 @@
         <v>8</v>
       </c>
       <c r="R113" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
@@ -6716,7 +6727,7 @@
         <v>8</v>
       </c>
       <c r="R114" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
@@ -6770,7 +6781,7 @@
         <v>8</v>
       </c>
       <c r="R115" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
@@ -6824,7 +6835,7 @@
         <v>8</v>
       </c>
       <c r="R116" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
@@ -6876,7 +6887,7 @@
         <v>8</v>
       </c>
       <c r="R117" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
@@ -6928,7 +6939,7 @@
         <v>8</v>
       </c>
       <c r="R118" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
@@ -6979,8 +6990,8 @@
       <c r="Q119" s="5">
         <v>8</v>
       </c>
-      <c r="R119" s="6" t="s">
-        <v>26</v>
+      <c r="R119" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
@@ -7032,7 +7043,7 @@
         <v>8</v>
       </c>
       <c r="R120" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
@@ -7084,7 +7095,7 @@
         <v>8</v>
       </c>
       <c r="R121" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
@@ -7135,8 +7146,8 @@
       <c r="Q122" s="5">
         <v>8</v>
       </c>
-      <c r="R122" s="6" t="s">
-        <v>26</v>
+      <c r="R122" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
@@ -7187,8 +7198,8 @@
       <c r="Q123" s="5">
         <v>8</v>
       </c>
-      <c r="R123" s="6" t="s">
-        <v>26</v>
+      <c r="R123" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
@@ -7242,7 +7253,7 @@
         <v>8</v>
       </c>
       <c r="R124" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
@@ -7296,7 +7307,7 @@
         <v>8</v>
       </c>
       <c r="R125" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
@@ -7350,7 +7361,7 @@
         <v>8</v>
       </c>
       <c r="R126" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
@@ -7404,7 +7415,7 @@
         <v>8</v>
       </c>
       <c r="R127" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
@@ -7458,7 +7469,7 @@
         <v>8</v>
       </c>
       <c r="R128" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
@@ -7512,7 +7523,7 @@
         <v>8</v>
       </c>
       <c r="R129" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
@@ -7566,7 +7577,7 @@
         <v>8</v>
       </c>
       <c r="R130" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
@@ -7620,7 +7631,7 @@
         <v>8</v>
       </c>
       <c r="R131" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
@@ -7674,7 +7685,7 @@
         <v>8</v>
       </c>
       <c r="R132" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
@@ -7728,7 +7739,7 @@
         <v>8</v>
       </c>
       <c r="R133" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
@@ -7782,7 +7793,7 @@
         <v>8</v>
       </c>
       <c r="R134" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
@@ -7836,7 +7847,7 @@
         <v>8</v>
       </c>
       <c r="R135" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
@@ -7890,7 +7901,7 @@
         <v>8</v>
       </c>
       <c r="R136" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
@@ -7944,7 +7955,7 @@
         <v>8</v>
       </c>
       <c r="R137" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
@@ -7998,7 +8009,7 @@
         <v>8</v>
       </c>
       <c r="R138" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
@@ -8052,7 +8063,7 @@
         <v>8</v>
       </c>
       <c r="R139" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
@@ -8104,7 +8115,7 @@
         <v>8</v>
       </c>
       <c r="R140" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
@@ -8156,7 +8167,7 @@
         <v>8</v>
       </c>
       <c r="R141" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
@@ -8208,7 +8219,7 @@
         <v>8</v>
       </c>
       <c r="R142" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
@@ -8260,7 +8271,7 @@
         <v>8</v>
       </c>
       <c r="R143" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
@@ -8312,7 +8323,7 @@
         <v>8</v>
       </c>
       <c r="R144" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
@@ -8364,7 +8375,7 @@
         <v>8</v>
       </c>
       <c r="R145" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
@@ -8416,7 +8427,7 @@
         <v>8</v>
       </c>
       <c r="R146" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
@@ -8466,7 +8477,7 @@
         <v>16</v>
       </c>
       <c r="R147" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
@@ -8516,7 +8527,7 @@
         <v>16</v>
       </c>
       <c r="R148" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
@@ -8566,7 +8577,7 @@
         <v>16</v>
       </c>
       <c r="R149" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
@@ -8616,7 +8627,7 @@
         <v>16</v>
       </c>
       <c r="R150" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
@@ -8666,7 +8677,7 @@
         <v>16</v>
       </c>
       <c r="R151" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
@@ -8716,7 +8727,7 @@
         <v>16</v>
       </c>
       <c r="R152" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
@@ -8765,8 +8776,8 @@
       <c r="Q153" s="5">
         <v>19</v>
       </c>
-      <c r="R153" s="6" t="s">
-        <v>26</v>
+      <c r="R153" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
@@ -8816,7 +8827,7 @@
         <v>19</v>
       </c>
       <c r="R154" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
@@ -8865,8 +8876,8 @@
       <c r="Q155" s="5">
         <v>19</v>
       </c>
-      <c r="R155" s="6" t="s">
-        <v>26</v>
+      <c r="R155" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
@@ -8915,8 +8926,8 @@
       <c r="Q156" s="5">
         <v>19</v>
       </c>
-      <c r="R156" s="6" t="s">
-        <v>26</v>
+      <c r="R156" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
@@ -8965,8 +8976,8 @@
       <c r="Q157" s="5">
         <v>19</v>
       </c>
-      <c r="R157" s="6" t="s">
-        <v>26</v>
+      <c r="R157" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
@@ -9015,8 +9026,8 @@
       <c r="Q158" s="5">
         <v>19</v>
       </c>
-      <c r="R158" s="6" t="s">
-        <v>26</v>
+      <c r="R158" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
@@ -9066,7 +9077,7 @@
         <v>19</v>
       </c>
       <c r="R159" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
@@ -9116,10 +9127,10 @@
         <v>19</v>
       </c>
       <c r="R160" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <v>1</v>
       </c>
@@ -9166,10 +9177,10 @@
         <v>19</v>
       </c>
       <c r="R161" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>1.5</v>
       </c>
@@ -9215,11 +9226,14 @@
       <c r="Q162" s="5">
         <v>19</v>
       </c>
-      <c r="R162" s="6" t="s">
+      <c r="R162" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S162" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
         <v>2</v>
       </c>
@@ -9266,10 +9280,10 @@
         <v>19</v>
       </c>
       <c r="R163" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>2</v>
       </c>
@@ -9315,11 +9329,11 @@
       <c r="Q164" s="5">
         <v>19</v>
       </c>
-      <c r="R164" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R164" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>2.5</v>
       </c>
@@ -9365,11 +9379,14 @@
       <c r="Q165" s="5">
         <v>19</v>
       </c>
-      <c r="R165" s="6" t="s">
+      <c r="R165" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S165" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>3</v>
       </c>
@@ -9415,11 +9432,11 @@
       <c r="Q166" s="5">
         <v>19</v>
       </c>
-      <c r="R166" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R166" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
         <v>3</v>
       </c>
@@ -9466,10 +9483,10 @@
         <v>19</v>
       </c>
       <c r="R167" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <v>4</v>
       </c>
@@ -9516,10 +9533,10 @@
         <v>19</v>
       </c>
       <c r="R168" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <v>4</v>
       </c>
@@ -9566,10 +9583,10 @@
         <v>19</v>
       </c>
       <c r="R169" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <v>5</v>
       </c>
@@ -9616,10 +9633,10 @@
         <v>19</v>
       </c>
       <c r="R170" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <v>6</v>
       </c>
@@ -9666,10 +9683,10 @@
         <v>19</v>
       </c>
       <c r="R171" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>7</v>
       </c>
@@ -9715,11 +9732,11 @@
       <c r="Q172" s="5">
         <v>19</v>
       </c>
-      <c r="R172" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R172" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <v>8</v>
       </c>
@@ -9766,10 +9783,10 @@
         <v>19</v>
       </c>
       <c r="R173" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>0</v>
       </c>
@@ -9815,11 +9832,11 @@
       <c r="Q174" s="5">
         <v>19</v>
       </c>
-      <c r="R174" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R174" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>1</v>
       </c>
@@ -9865,11 +9882,11 @@
       <c r="Q175" s="5">
         <v>19</v>
       </c>
-      <c r="R175" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R175" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <v>2</v>
       </c>
@@ -9916,7 +9933,7 @@
         <v>19</v>
       </c>
       <c r="R176" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
@@ -9965,8 +9982,8 @@
       <c r="Q177" s="5">
         <v>19</v>
       </c>
-      <c r="R177" s="6" t="s">
-        <v>26</v>
+      <c r="R177" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
@@ -10015,8 +10032,8 @@
       <c r="Q178" s="5">
         <v>19</v>
       </c>
-      <c r="R178" s="6" t="s">
-        <v>26</v>
+      <c r="R178" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
@@ -10065,8 +10082,8 @@
       <c r="Q179" s="5">
         <v>19</v>
       </c>
-      <c r="R179" s="6" t="s">
-        <v>26</v>
+      <c r="R179" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
@@ -10115,8 +10132,8 @@
       <c r="Q180" s="5">
         <v>19</v>
       </c>
-      <c r="R180" s="6" t="s">
-        <v>26</v>
+      <c r="R180" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
@@ -10166,7 +10183,7 @@
         <v>19</v>
       </c>
       <c r="R181" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
@@ -10216,7 +10233,7 @@
         <v>19</v>
       </c>
       <c r="R182" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
@@ -10268,7 +10285,7 @@
         <v>19</v>
       </c>
       <c r="R183" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
@@ -10319,8 +10336,8 @@
       <c r="Q184" s="5">
         <v>19</v>
       </c>
-      <c r="R184" s="6" t="s">
-        <v>26</v>
+      <c r="R184" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
@@ -10372,7 +10389,7 @@
         <v>19</v>
       </c>
       <c r="R185" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
@@ -10423,8 +10440,8 @@
       <c r="Q186" s="5">
         <v>19</v>
       </c>
-      <c r="R186" s="6" t="s">
-        <v>26</v>
+      <c r="R186" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.25">
@@ -10476,7 +10493,7 @@
         <v>19</v>
       </c>
       <c r="R187" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
@@ -10527,8 +10544,8 @@
       <c r="Q188" s="5">
         <v>19</v>
       </c>
-      <c r="R188" s="6" t="s">
-        <v>26</v>
+      <c r="R188" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
@@ -10580,7 +10597,7 @@
         <v>19</v>
       </c>
       <c r="R189" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
@@ -10631,8 +10648,8 @@
       <c r="Q190" s="5">
         <v>19</v>
       </c>
-      <c r="R190" s="6" t="s">
-        <v>26</v>
+      <c r="R190" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.25">
@@ -10684,7 +10701,7 @@
         <v>19</v>
       </c>
       <c r="R191" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
@@ -10732,7 +10749,7 @@
         <v>19</v>
       </c>
       <c r="R192" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
@@ -10779,8 +10796,8 @@
       <c r="Q193" s="5">
         <v>19</v>
       </c>
-      <c r="R193" s="6" t="s">
-        <v>26</v>
+      <c r="R193" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
@@ -10828,7 +10845,7 @@
         <v>19</v>
       </c>
       <c r="R194" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
@@ -10875,8 +10892,8 @@
       <c r="Q195" s="5">
         <v>19</v>
       </c>
-      <c r="R195" s="6" t="s">
-        <v>26</v>
+      <c r="R195" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
@@ -10924,7 +10941,7 @@
         <v>19</v>
       </c>
       <c r="R196" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
@@ -10971,8 +10988,8 @@
       <c r="Q197" s="5">
         <v>19</v>
       </c>
-      <c r="R197" s="6" t="s">
-        <v>26</v>
+      <c r="R197" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
@@ -11020,7 +11037,7 @@
         <v>19</v>
       </c>
       <c r="R198" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
@@ -11067,8 +11084,8 @@
       <c r="Q199" s="5">
         <v>19</v>
       </c>
-      <c r="R199" s="6" t="s">
-        <v>26</v>
+      <c r="R199" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
@@ -11116,7 +11133,7 @@
         <v>19</v>
       </c>
       <c r="R200" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
@@ -11167,8 +11184,8 @@
       <c r="Q201" s="5">
         <v>19</v>
       </c>
-      <c r="R201" s="6" t="s">
-        <v>26</v>
+      <c r="R201" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.25">
@@ -11220,7 +11237,7 @@
         <v>19</v>
       </c>
       <c r="R202" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.25">
@@ -11271,8 +11288,8 @@
       <c r="Q203" s="5">
         <v>19</v>
       </c>
-      <c r="R203" s="6" t="s">
-        <v>26</v>
+      <c r="R203" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
@@ -11324,7 +11341,7 @@
         <v>19</v>
       </c>
       <c r="R204" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.25">
@@ -11375,8 +11392,8 @@
       <c r="Q205" s="5">
         <v>19</v>
       </c>
-      <c r="R205" s="6" t="s">
-        <v>26</v>
+      <c r="R205" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
@@ -11428,7 +11445,7 @@
         <v>19</v>
       </c>
       <c r="R206" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.25">
@@ -11479,8 +11496,8 @@
       <c r="Q207" s="5">
         <v>19</v>
       </c>
-      <c r="R207" s="6" t="s">
-        <v>26</v>
+      <c r="R207" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.25">
@@ -11532,10 +11549,10 @@
         <v>19</v>
       </c>
       <c r="R208" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>8</v>
       </c>
@@ -11583,11 +11600,11 @@
       <c r="Q209" s="5">
         <v>19</v>
       </c>
-      <c r="R209" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R209" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
         <v>1</v>
       </c>
@@ -11634,10 +11651,10 @@
         <v>19</v>
       </c>
       <c r="R210" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>1.5</v>
       </c>
@@ -11683,11 +11700,14 @@
       <c r="Q211" s="5">
         <v>19</v>
       </c>
-      <c r="R211" s="6" t="s">
+      <c r="R211" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S211" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" s="7">
         <v>2</v>
       </c>
@@ -11734,10 +11754,10 @@
         <v>19</v>
       </c>
       <c r="R212" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>2</v>
       </c>
@@ -11783,11 +11803,11 @@
       <c r="Q213" s="5">
         <v>19</v>
       </c>
-      <c r="R213" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R213" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" s="7">
         <v>2.5</v>
       </c>
@@ -11833,11 +11853,14 @@
       <c r="Q214" s="8">
         <v>19</v>
       </c>
-      <c r="R214" s="6" t="s">
+      <c r="R214" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S214" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>3</v>
       </c>
@@ -11883,11 +11906,11 @@
       <c r="Q215" s="5">
         <v>19</v>
       </c>
-      <c r="R215" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R215" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="7">
         <v>3</v>
       </c>
@@ -11934,10 +11957,10 @@
         <v>19</v>
       </c>
       <c r="R216" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>4</v>
       </c>
@@ -11983,11 +12006,11 @@
       <c r="Q217" s="5">
         <v>19</v>
       </c>
-      <c r="R217" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R217" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="7">
         <v>4</v>
       </c>
@@ -12034,10 +12057,10 @@
         <v>19</v>
       </c>
       <c r="R218" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="7">
         <v>5</v>
       </c>
@@ -12084,10 +12107,10 @@
         <v>19</v>
       </c>
       <c r="R219" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" s="7">
         <v>6</v>
       </c>
@@ -12134,10 +12157,10 @@
         <v>19</v>
       </c>
       <c r="R220" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>7</v>
       </c>
@@ -12183,11 +12206,11 @@
       <c r="Q221" s="5">
         <v>19</v>
       </c>
-      <c r="R221" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R221" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>8</v>
       </c>
@@ -12233,11 +12256,11 @@
       <c r="Q222" s="5">
         <v>19</v>
       </c>
-      <c r="R222" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R222" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>0</v>
       </c>
@@ -12285,11 +12308,11 @@
       <c r="Q223" s="5">
         <v>19</v>
       </c>
-      <c r="R223" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R223" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
         <v>1</v>
       </c>
@@ -12338,7 +12361,7 @@
         <v>19</v>
       </c>
       <c r="R224" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
@@ -12389,8 +12412,8 @@
       <c r="Q225" s="5">
         <v>19</v>
       </c>
-      <c r="R225" s="6" t="s">
-        <v>26</v>
+      <c r="R225" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.25">
@@ -12442,7 +12465,7 @@
         <v>19</v>
       </c>
       <c r="R226" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
@@ -12493,8 +12516,8 @@
       <c r="Q227" s="5">
         <v>19</v>
       </c>
-      <c r="R227" s="6" t="s">
-        <v>26</v>
+      <c r="R227" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
@@ -12546,7 +12569,7 @@
         <v>19</v>
       </c>
       <c r="R228" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.25">
@@ -12597,8 +12620,8 @@
       <c r="Q229" s="5">
         <v>19</v>
       </c>
-      <c r="R229" s="6" t="s">
-        <v>26</v>
+      <c r="R229" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
@@ -12650,7 +12673,7 @@
         <v>19</v>
       </c>
       <c r="R230" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.25">
@@ -12701,8 +12724,8 @@
       <c r="Q231" s="5">
         <v>19</v>
       </c>
-      <c r="R231" s="6" t="s">
-        <v>26</v>
+      <c r="R231" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.25">
@@ -12754,7 +12777,7 @@
         <v>19</v>
       </c>
       <c r="R232" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.25">
@@ -12805,8 +12828,8 @@
       <c r="Q233" s="5">
         <v>19</v>
       </c>
-      <c r="R233" s="6" t="s">
-        <v>26</v>
+      <c r="R233" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.25">
@@ -12858,7 +12881,7 @@
         <v>19</v>
       </c>
       <c r="R234" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.25">
@@ -12909,8 +12932,8 @@
       <c r="Q235" s="5">
         <v>19</v>
       </c>
-      <c r="R235" s="6" t="s">
-        <v>26</v>
+      <c r="R235" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.25">
@@ -12962,7 +12985,7 @@
         <v>19</v>
       </c>
       <c r="R236" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.25">
@@ -13013,8 +13036,8 @@
       <c r="Q237" s="5">
         <v>19</v>
       </c>
-      <c r="R237" s="6" t="s">
-        <v>26</v>
+      <c r="R237" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.25">
@@ -13066,7 +13089,7 @@
         <v>19</v>
       </c>
       <c r="R238" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.25">
@@ -13117,8 +13140,8 @@
       <c r="Q239" s="5">
         <v>19</v>
       </c>
-      <c r="R239" s="6" t="s">
-        <v>26</v>
+      <c r="R239" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.25">
@@ -13170,10 +13193,10 @@
         <v>19</v>
       </c>
       <c r="R240" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="7">
         <v>1</v>
       </c>
@@ -13220,10 +13243,10 @@
         <v>19</v>
       </c>
       <c r="R241" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>2</v>
       </c>
@@ -13270,10 +13293,10 @@
         <v>19</v>
       </c>
       <c r="R242" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>3</v>
       </c>
@@ -13320,10 +13343,10 @@
         <v>19</v>
       </c>
       <c r="R243" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="7">
         <v>4</v>
       </c>
@@ -13370,10 +13393,10 @@
         <v>19</v>
       </c>
       <c r="R244" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="7">
         <v>5</v>
       </c>
@@ -13420,10 +13443,10 @@
         <v>19</v>
       </c>
       <c r="R245" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" s="7">
         <v>6</v>
       </c>
@@ -13470,10 +13493,10 @@
         <v>19</v>
       </c>
       <c r="R246" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" s="7">
         <v>7</v>
       </c>
@@ -13520,10 +13543,10 @@
         <v>19</v>
       </c>
       <c r="R247" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>8</v>
       </c>
@@ -13533,7 +13556,7 @@
       <c r="C248" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D248" s="23">
+      <c r="D248" s="18">
         <v>1.4273915652085054</v>
       </c>
       <c r="E248" s="5">
@@ -13570,10 +13593,10 @@
         <v>19</v>
       </c>
       <c r="R248" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" s="7">
         <v>0</v>
       </c>
@@ -13583,7 +13606,7 @@
       <c r="C249" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D249" s="22">
+      <c r="D249">
         <v>0.14754098360655699</v>
       </c>
       <c r="E249" s="8">
@@ -13619,11 +13642,14 @@
       <c r="Q249" s="8">
         <v>13</v>
       </c>
-      <c r="R249" s="6" t="s">
+      <c r="R249" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S249" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>2</v>
       </c>
@@ -13633,7 +13659,7 @@
       <c r="C250" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D250" s="23">
+      <c r="D250" s="18">
         <v>0.13442622950819599</v>
       </c>
       <c r="E250" s="5">
@@ -13669,11 +13695,14 @@
       <c r="Q250" s="5">
         <v>13</v>
       </c>
-      <c r="R250" s="6" t="s">
+      <c r="R250" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S250" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>3.5</v>
       </c>
@@ -13683,7 +13712,7 @@
       <c r="C251" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D251" s="23">
+      <c r="D251" s="18">
         <v>0.50491803278688496</v>
       </c>
       <c r="E251" s="5">
@@ -13719,11 +13748,14 @@
       <c r="Q251" s="5">
         <v>13</v>
       </c>
-      <c r="R251" s="6" t="s">
+      <c r="R251" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S251" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>7.5</v>
       </c>
@@ -13733,7 +13765,7 @@
       <c r="C252" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D252" s="23">
+      <c r="D252" s="18">
         <v>0.124590163934426</v>
       </c>
       <c r="E252" s="5">
@@ -13769,11 +13801,14 @@
       <c r="Q252" s="5">
         <v>13</v>
       </c>
-      <c r="R252" s="6" t="s">
+      <c r="R252" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S252" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" s="7">
         <v>2</v>
       </c>
@@ -13783,7 +13818,7 @@
       <c r="C253" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D253" s="22">
+      <c r="D253">
         <v>3.5801104972375599</v>
       </c>
       <c r="E253" s="8">
@@ -13819,11 +13854,14 @@
       <c r="Q253" s="8">
         <v>13</v>
       </c>
-      <c r="R253" s="6" t="s">
+      <c r="R253" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S253" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>3.5</v>
       </c>
@@ -13833,7 +13871,7 @@
       <c r="C254" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D254" s="23">
+      <c r="D254" s="18">
         <v>10.2762430939226</v>
       </c>
       <c r="E254" s="5">
@@ -13869,11 +13907,14 @@
       <c r="Q254" s="5">
         <v>13</v>
       </c>
-      <c r="R254" s="6" t="s">
+      <c r="R254" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S254" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>7.5</v>
       </c>
@@ -13883,7 +13924,7 @@
       <c r="C255" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D255" s="23">
+      <c r="D255" s="18">
         <v>1.98895027624309</v>
       </c>
       <c r="E255" s="5">
@@ -13919,11 +13960,14 @@
       <c r="Q255" s="5">
         <v>13</v>
       </c>
-      <c r="R255" s="6" t="s">
+      <c r="R255" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S255" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>2</v>
       </c>
@@ -13933,7 +13977,7 @@
       <c r="C256" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D256" s="23">
+      <c r="D256" s="18">
         <v>0.18032786885245899</v>
       </c>
       <c r="E256" s="5">
@@ -13969,11 +14013,14 @@
       <c r="Q256" s="5">
         <v>13</v>
       </c>
-      <c r="R256" s="6" t="s">
+      <c r="R256" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S256" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>3.5</v>
       </c>
@@ -13983,7 +14030,7 @@
       <c r="C257" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D257" s="23">
+      <c r="D257" s="18">
         <v>0.47213114754098301</v>
       </c>
       <c r="E257" s="5">
@@ -14019,11 +14066,14 @@
       <c r="Q257" s="5">
         <v>13</v>
       </c>
-      <c r="R257" s="6" t="s">
+      <c r="R257" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S257" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" s="7">
         <v>7.5</v>
       </c>
@@ -14033,7 +14083,7 @@
       <c r="C258" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D258" s="22">
+      <c r="D258">
         <v>0.17704918032786801</v>
       </c>
       <c r="E258" s="8">
@@ -14069,11 +14119,14 @@
       <c r="Q258" s="8">
         <v>13</v>
       </c>
-      <c r="R258" s="6" t="s">
+      <c r="R258" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S258" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" s="7">
         <v>0</v>
       </c>
@@ -14088,7 +14141,7 @@
       </c>
       <c r="E259" s="8"/>
       <c r="F259" s="8">
-        <f>14*3</f>
+        <f t="shared" ref="F259:F283" si="0">14*3</f>
         <v>42</v>
       </c>
       <c r="G259" s="5">
@@ -14123,10 +14176,10 @@
         <v>12</v>
       </c>
       <c r="R259" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" s="7">
         <v>0</v>
       </c>
@@ -14141,7 +14194,7 @@
       </c>
       <c r="E260" s="8"/>
       <c r="F260" s="8">
-        <f>14*3</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G260" s="5">
@@ -14176,10 +14229,10 @@
         <v>13</v>
       </c>
       <c r="R260" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" s="7">
         <v>0.5</v>
       </c>
@@ -14194,7 +14247,7 @@
       </c>
       <c r="E261" s="8"/>
       <c r="F261" s="8">
-        <f>14*3</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G261" s="5">
@@ -14228,11 +14281,14 @@
       <c r="Q261" s="8">
         <v>12</v>
       </c>
-      <c r="R261" s="6" t="s">
+      <c r="R261" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S261" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" s="7">
         <v>0.5</v>
       </c>
@@ -14247,7 +14303,7 @@
       </c>
       <c r="E262" s="8"/>
       <c r="F262" s="8">
-        <f>14*3</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G262" s="5">
@@ -14281,11 +14337,14 @@
       <c r="Q262" s="8">
         <v>13</v>
       </c>
-      <c r="R262" s="6" t="s">
+      <c r="R262" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S262" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" s="7">
         <v>1</v>
       </c>
@@ -14300,7 +14359,7 @@
       </c>
       <c r="E263" s="8"/>
       <c r="F263" s="8">
-        <f>14*3</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G263" s="5">
@@ -14335,10 +14394,10 @@
         <v>12</v>
       </c>
       <c r="R263" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" s="7">
         <v>1</v>
       </c>
@@ -14353,7 +14412,7 @@
       </c>
       <c r="E264" s="8"/>
       <c r="F264" s="8">
-        <f>14*3</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G264" s="5">
@@ -14388,10 +14447,10 @@
         <v>13</v>
       </c>
       <c r="R264" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" s="16">
         <v>1.5</v>
       </c>
@@ -14406,7 +14465,7 @@
       </c>
       <c r="E265" s="17"/>
       <c r="F265" s="8">
-        <f>14*3</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G265" s="5">
@@ -14419,7 +14478,7 @@
       <c r="J265" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K265" s="24" t="s">
+      <c r="K265" s="20" t="s">
         <v>32</v>
       </c>
       <c r="L265" s="17" t="s">
@@ -14440,11 +14499,14 @@
       <c r="Q265" s="17">
         <v>12</v>
       </c>
-      <c r="R265" s="29" t="s">
+      <c r="R265" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S265" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" s="7">
         <v>1.5</v>
       </c>
@@ -14459,7 +14521,7 @@
       </c>
       <c r="E266" s="8"/>
       <c r="F266" s="8">
-        <f>14*3</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G266" s="5">
@@ -14493,11 +14555,14 @@
       <c r="Q266" s="8">
         <v>13</v>
       </c>
-      <c r="R266" s="6" t="s">
+      <c r="R266" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S266" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" s="7">
         <v>2</v>
       </c>
@@ -14512,7 +14577,7 @@
       </c>
       <c r="E267" s="8"/>
       <c r="F267" s="8">
-        <f>14*3</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G267" s="5">
@@ -14547,10 +14612,10 @@
         <v>12</v>
       </c>
       <c r="R267" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" s="7">
         <v>2</v>
       </c>
@@ -14565,7 +14630,7 @@
       </c>
       <c r="E268" s="8"/>
       <c r="F268" s="8">
-        <f>14*3</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G268" s="5">
@@ -14600,10 +14665,10 @@
         <v>13</v>
       </c>
       <c r="R268" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" s="7">
         <v>2.5</v>
       </c>
@@ -14618,7 +14683,7 @@
       </c>
       <c r="E269" s="8"/>
       <c r="F269" s="8">
-        <f>14*3</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G269" s="5">
@@ -14652,11 +14717,14 @@
       <c r="Q269" s="8">
         <v>12</v>
       </c>
-      <c r="R269" s="6" t="s">
+      <c r="R269" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S269" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" s="7">
         <v>2.5</v>
       </c>
@@ -14671,7 +14739,7 @@
       </c>
       <c r="E270" s="8"/>
       <c r="F270" s="8">
-        <f>14*3</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G270" s="5">
@@ -14705,11 +14773,14 @@
       <c r="Q270" s="8">
         <v>13</v>
       </c>
-      <c r="R270" s="6" t="s">
+      <c r="R270" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S270" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" s="7">
         <v>3</v>
       </c>
@@ -14724,7 +14795,7 @@
       </c>
       <c r="E271" s="8"/>
       <c r="F271" s="8">
-        <f>14*3</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G271" s="5">
@@ -14759,10 +14830,10 @@
         <v>12</v>
       </c>
       <c r="R271" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" s="7">
         <v>3</v>
       </c>
@@ -14777,7 +14848,7 @@
       </c>
       <c r="E272" s="8"/>
       <c r="F272" s="8">
-        <f>14*3</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G272" s="5">
@@ -14812,10 +14883,10 @@
         <v>13</v>
       </c>
       <c r="R272" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" s="7">
         <v>3.5</v>
       </c>
@@ -14830,7 +14901,7 @@
       </c>
       <c r="E273" s="8"/>
       <c r="F273" s="8">
-        <f>14*3</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G273" s="5">
@@ -14864,11 +14935,14 @@
       <c r="Q273" s="8">
         <v>12</v>
       </c>
-      <c r="R273" s="6" t="s">
+      <c r="R273" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S273" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" s="7">
         <v>3.5</v>
       </c>
@@ -14883,7 +14957,7 @@
       </c>
       <c r="E274" s="8"/>
       <c r="F274" s="8">
-        <f>14*3</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G274" s="5">
@@ -14917,11 +14991,14 @@
       <c r="Q274" s="8">
         <v>13</v>
       </c>
-      <c r="R274" s="6" t="s">
+      <c r="R274" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S274" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" s="7">
         <v>4</v>
       </c>
@@ -14936,7 +15013,7 @@
       </c>
       <c r="E275" s="8"/>
       <c r="F275" s="8">
-        <f>14*3</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G275" s="5">
@@ -14971,10 +15048,10 @@
         <v>12</v>
       </c>
       <c r="R275" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" s="7">
         <v>4</v>
       </c>
@@ -14989,7 +15066,7 @@
       </c>
       <c r="E276" s="8"/>
       <c r="F276" s="8">
-        <f>14*3</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G276" s="5">
@@ -15024,10 +15101,10 @@
         <v>13</v>
       </c>
       <c r="R276" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" s="7">
         <v>4.5</v>
       </c>
@@ -15042,7 +15119,7 @@
       </c>
       <c r="E277" s="8"/>
       <c r="F277" s="8">
-        <f>14*3</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G277" s="5">
@@ -15076,11 +15153,14 @@
       <c r="Q277" s="8">
         <v>12</v>
       </c>
-      <c r="R277" s="6" t="s">
+      <c r="R277" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S277" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" s="7">
         <v>4.5</v>
       </c>
@@ -15095,7 +15175,7 @@
       </c>
       <c r="E278" s="8"/>
       <c r="F278" s="8">
-        <f>14*3</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G278" s="5">
@@ -15129,11 +15209,14 @@
       <c r="Q278" s="8">
         <v>13</v>
       </c>
-      <c r="R278" s="6" t="s">
+      <c r="R278" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S278" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" s="7">
         <v>5</v>
       </c>
@@ -15148,7 +15231,7 @@
       </c>
       <c r="E279" s="8"/>
       <c r="F279" s="8">
-        <f>14*3</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G279" s="5">
@@ -15183,10 +15266,10 @@
         <v>12</v>
       </c>
       <c r="R279" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" s="7">
         <v>5</v>
       </c>
@@ -15201,7 +15284,7 @@
       </c>
       <c r="E280" s="8"/>
       <c r="F280" s="8">
-        <f>14*3</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G280" s="5">
@@ -15236,10 +15319,10 @@
         <v>13</v>
       </c>
       <c r="R280" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" s="7">
         <v>5.5</v>
       </c>
@@ -15254,7 +15337,7 @@
       </c>
       <c r="E281" s="8"/>
       <c r="F281" s="8">
-        <f>14*3</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G281" s="5">
@@ -15288,11 +15371,14 @@
       <c r="Q281" s="8">
         <v>12</v>
       </c>
-      <c r="R281" s="6" t="s">
+      <c r="R281" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S281" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" s="7">
         <v>5.5</v>
       </c>
@@ -15307,7 +15393,7 @@
       </c>
       <c r="E282" s="8"/>
       <c r="F282" s="8">
-        <f>14*3</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G282" s="5">
@@ -15341,11 +15427,14 @@
       <c r="Q282" s="8">
         <v>13</v>
       </c>
-      <c r="R282" s="6" t="s">
+      <c r="R282" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S282" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" s="16">
         <v>6</v>
       </c>
@@ -15360,7 +15449,7 @@
       </c>
       <c r="E283" s="17"/>
       <c r="F283" s="8">
-        <f>14*3</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G283" s="5">
@@ -15373,7 +15462,7 @@
       <c r="J283" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K283" s="24" t="s">
+      <c r="K283" s="20" t="s">
         <v>32</v>
       </c>
       <c r="L283" s="17" t="s">
@@ -15394,36 +15483,36 @@
       <c r="Q283" s="17">
         <v>13</v>
       </c>
-      <c r="R283" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A284" s="23">
+      <c r="R283" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A284" s="18">
         <v>0.5</v>
       </c>
-      <c r="B284" s="23" t="s">
+      <c r="B284" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C284" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D284" s="26">
+      <c r="C284" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D284" s="22">
         <v>175.15440042841843</v>
       </c>
-      <c r="E284" s="26">
+      <c r="E284" s="22">
         <v>2.2434210526315801</v>
       </c>
-      <c r="F284" s="26"/>
+      <c r="F284" s="22"/>
       <c r="G284" s="5"/>
-      <c r="H284" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I284" s="26"/>
-      <c r="J284" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K284" s="23" t="s">
+      <c r="H284" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I284" s="22"/>
+      <c r="J284" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K284" s="18" t="s">
         <v>32</v>
       </c>
       <c r="L284" s="5" t="s">
@@ -15444,36 +15533,39 @@
       <c r="Q284" s="5">
         <v>13</v>
       </c>
-      <c r="R284" s="6" t="s">
+      <c r="R284" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S284" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A285" s="23">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A285" s="18">
         <v>1</v>
       </c>
-      <c r="B285" s="23" t="s">
+      <c r="B285" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C285" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D285" s="26">
+      <c r="C285" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D285" s="22">
         <v>17252.105499420511</v>
       </c>
-      <c r="E285" s="26">
+      <c r="E285" s="22">
         <v>4.2368421052631602</v>
       </c>
-      <c r="F285" s="26"/>
+      <c r="F285" s="22"/>
       <c r="G285" s="5"/>
-      <c r="H285" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I285" s="26"/>
-      <c r="J285" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K285" s="23" t="s">
+      <c r="H285" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I285" s="22"/>
+      <c r="J285" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K285" s="18" t="s">
         <v>32</v>
       </c>
       <c r="L285" s="5" t="s">
@@ -15495,35 +15587,35 @@
         <v>13</v>
       </c>
       <c r="R285" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A286" s="23">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A286" s="18">
         <v>1.5</v>
       </c>
-      <c r="B286" s="23" t="s">
+      <c r="B286" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C286" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D286" s="26">
+      <c r="C286" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D286" s="22">
         <v>2198.3926488622665</v>
       </c>
-      <c r="E286" s="26">
+      <c r="E286" s="22">
         <v>3.3421052631578898</v>
       </c>
-      <c r="F286" s="26"/>
+      <c r="F286" s="22"/>
       <c r="G286" s="5"/>
-      <c r="H286" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I286" s="26"/>
-      <c r="J286" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K286" s="23" t="s">
+      <c r="H286" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I286" s="22"/>
+      <c r="J286" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K286" s="18" t="s">
         <v>32</v>
       </c>
       <c r="L286" s="5" t="s">
@@ -15544,36 +15636,39 @@
       <c r="Q286" s="5">
         <v>13</v>
       </c>
-      <c r="R286" s="6" t="s">
+      <c r="R286" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S286" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A287" s="22">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A287">
         <v>2</v>
       </c>
-      <c r="B287" s="22" t="s">
+      <c r="B287" t="s">
         <v>35</v>
       </c>
       <c r="C287" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D287" s="25">
+      <c r="D287" s="21">
         <v>3516.0304825896446</v>
       </c>
-      <c r="E287" s="25">
+      <c r="E287" s="21">
         <v>3.54605263157895</v>
       </c>
-      <c r="F287" s="25"/>
+      <c r="F287" s="21"/>
       <c r="G287" s="5"/>
       <c r="H287" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I287" s="25"/>
+      <c r="I287" s="21"/>
       <c r="J287" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K287" s="22" t="s">
+      <c r="K287" t="s">
         <v>32</v>
       </c>
       <c r="L287" s="8" t="s">
@@ -15595,35 +15690,35 @@
         <v>13</v>
       </c>
       <c r="R287" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A288" s="22">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A288">
         <v>3</v>
       </c>
-      <c r="B288" s="22" t="s">
+      <c r="B288" t="s">
         <v>35</v>
       </c>
       <c r="C288" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D288" s="25">
+      <c r="D288" s="21">
         <v>311.47346385956928</v>
       </c>
-      <c r="E288" s="25">
+      <c r="E288" s="21">
         <v>2.4934210526315801</v>
       </c>
-      <c r="F288" s="25"/>
+      <c r="F288" s="21"/>
       <c r="G288" s="5"/>
       <c r="H288" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I288" s="25"/>
+      <c r="I288" s="21"/>
       <c r="J288" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K288" s="22" t="s">
+      <c r="K288" t="s">
         <v>32</v>
       </c>
       <c r="L288" s="8" t="s">
@@ -15645,35 +15740,35 @@
         <v>13</v>
       </c>
       <c r="R288" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="289" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A289" s="23">
+      <c r="A289" s="18">
         <v>4</v>
       </c>
-      <c r="B289" s="23" t="s">
+      <c r="B289" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C289" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D289" s="26">
+      <c r="C289" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D289" s="22">
         <v>6.3479219593504732</v>
       </c>
-      <c r="E289" s="26">
+      <c r="E289" s="22">
         <v>0.80263157894736803</v>
       </c>
-      <c r="F289" s="26"/>
+      <c r="F289" s="22"/>
       <c r="G289" s="5"/>
-      <c r="H289" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I289" s="26"/>
-      <c r="J289" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K289" s="23" t="s">
+      <c r="H289" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I289" s="22"/>
+      <c r="J289" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K289" s="18" t="s">
         <v>32</v>
       </c>
       <c r="L289" s="5" t="s">
@@ -15695,35 +15790,35 @@
         <v>13</v>
       </c>
       <c r="R289" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="290" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A290" s="23">
+      <c r="A290" s="18">
         <v>5</v>
       </c>
-      <c r="B290" s="23" t="s">
+      <c r="B290" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C290" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D290" s="26">
+      <c r="C290" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D290" s="22">
         <v>1.0307608019778607</v>
       </c>
-      <c r="E290" s="26">
+      <c r="E290" s="22">
         <v>1.3157894736842399E-2</v>
       </c>
-      <c r="F290" s="26"/>
+      <c r="F290" s="22"/>
       <c r="G290" s="5"/>
-      <c r="H290" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I290" s="26"/>
-      <c r="J290" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K290" s="23" t="s">
+      <c r="H290" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I290" s="22"/>
+      <c r="J290" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K290" s="18" t="s">
         <v>32</v>
       </c>
       <c r="L290" s="5" t="s">
@@ -15745,37 +15840,36 @@
         <v>13</v>
       </c>
       <c r="R290" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="291" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A291" s="22">
+      <c r="A291">
         <v>1</v>
       </c>
-      <c r="B291" s="22" t="s">
+      <c r="B291" t="s">
         <v>56</v>
       </c>
       <c r="C291" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D291" s="25">
+      <c r="D291" s="21">
         <v>118.07204923512499</v>
       </c>
-      <c r="E291" s="22">
+      <c r="E291">
         <v>2.07214710083425</v>
       </c>
-      <c r="F291" s="22"/>
       <c r="G291" s="5"/>
       <c r="H291" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I291" s="25">
+      <c r="I291" s="21">
         <v>21.2852921217588</v>
       </c>
       <c r="J291" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K291" s="22" t="s">
+      <c r="K291" t="s">
         <v>52</v>
       </c>
       <c r="L291" s="8" t="s">
@@ -15797,37 +15891,37 @@
         <v>19</v>
       </c>
       <c r="R291" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="292" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A292" s="23">
+      <c r="A292" s="18">
         <v>2</v>
       </c>
-      <c r="B292" s="23" t="s">
+      <c r="B292" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C292" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D292" s="26">
+      <c r="C292" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D292" s="22">
         <v>123.758666014627</v>
       </c>
-      <c r="E292" s="23">
+      <c r="E292" s="18">
         <v>2.0925756194889131</v>
       </c>
-      <c r="F292" s="23"/>
+      <c r="F292" s="18"/>
       <c r="G292" s="5"/>
-      <c r="H292" s="24" t="s">
+      <c r="H292" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I292" s="26">
+      <c r="I292" s="22">
         <v>26.82698671399816</v>
       </c>
-      <c r="J292" s="24" t="s">
+      <c r="J292" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K292" s="23" t="s">
+      <c r="K292" s="18" t="s">
         <v>52</v>
       </c>
       <c r="L292" s="5" t="s">
@@ -15848,38 +15942,37 @@
       <c r="Q292" s="12">
         <v>19</v>
       </c>
-      <c r="R292" s="6" t="s">
-        <v>26</v>
+      <c r="R292" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="293" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A293" s="22">
+      <c r="A293">
         <v>4</v>
       </c>
-      <c r="B293" s="22" t="s">
+      <c r="B293" t="s">
         <v>56</v>
       </c>
       <c r="C293" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D293" s="25">
+      <c r="D293" s="21">
         <v>148.054207625337</v>
       </c>
-      <c r="E293" s="22">
+      <c r="E293">
         <v>2.1704207543291636</v>
       </c>
-      <c r="F293" s="22"/>
       <c r="G293" s="5"/>
       <c r="H293" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I293" s="25">
+      <c r="I293" s="21">
         <v>35.112388720612998</v>
       </c>
       <c r="J293" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K293" s="22" t="s">
+      <c r="K293" t="s">
         <v>52</v>
       </c>
       <c r="L293" s="8" t="s">
@@ -15901,37 +15994,36 @@
         <v>19</v>
       </c>
       <c r="R293" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="294" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A294" s="22">
+      <c r="A294">
         <v>6</v>
       </c>
-      <c r="B294" s="22" t="s">
+      <c r="B294" t="s">
         <v>56</v>
       </c>
       <c r="C294" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D294" s="25">
+      <c r="D294" s="21">
         <v>77.196896046409904</v>
       </c>
-      <c r="E294" s="22">
+      <c r="E294">
         <v>1.8875998384572792</v>
       </c>
-      <c r="F294" s="22"/>
       <c r="G294" s="5"/>
       <c r="H294" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I294" s="25">
+      <c r="I294" s="21">
         <v>21.321881262283398</v>
       </c>
       <c r="J294" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K294" s="22" t="s">
+      <c r="K294" t="s">
         <v>52</v>
       </c>
       <c r="L294" s="8" t="s">
@@ -15953,37 +16045,37 @@
         <v>19</v>
       </c>
       <c r="R294" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="295" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A295" s="23">
+      <c r="A295" s="18">
         <v>1</v>
       </c>
-      <c r="B295" s="23" t="s">
+      <c r="B295" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C295" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D295" s="26">
+      <c r="C295" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D295" s="22">
         <v>75.635055682209199</v>
       </c>
-      <c r="E295" s="23">
+      <c r="E295" s="18">
         <v>1.8787231309594017</v>
       </c>
-      <c r="F295" s="23"/>
+      <c r="F295" s="18"/>
       <c r="G295" s="5"/>
-      <c r="H295" s="24" t="s">
+      <c r="H295" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I295" s="26">
+      <c r="I295" s="22">
         <v>15.757508422690851</v>
       </c>
-      <c r="J295" s="24" t="s">
+      <c r="J295" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K295" s="23" t="s">
+      <c r="K295" s="18" t="s">
         <v>52</v>
       </c>
       <c r="L295" s="5" t="s">
@@ -16004,38 +16096,37 @@
       <c r="Q295" s="12">
         <v>19</v>
       </c>
-      <c r="R295" s="6" t="s">
-        <v>26</v>
+      <c r="R295" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="296" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A296" s="22">
+      <c r="A296">
         <v>2</v>
       </c>
-      <c r="B296" s="22" t="s">
+      <c r="B296" t="s">
         <v>55</v>
       </c>
       <c r="C296" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D296" s="25">
+      <c r="D296" s="21">
         <v>82.796437317302505</v>
       </c>
-      <c r="E296" s="22">
+      <c r="E296">
         <v>1.9180116497471442</v>
       </c>
-      <c r="F296" s="22"/>
       <c r="G296" s="5"/>
       <c r="H296" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I296" s="25">
+      <c r="I296" s="21">
         <v>17.972747384382195</v>
       </c>
       <c r="J296" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K296" s="22" t="s">
+      <c r="K296" t="s">
         <v>52</v>
       </c>
       <c r="L296" s="8" t="s">
@@ -16057,37 +16148,37 @@
         <v>19</v>
       </c>
       <c r="R296" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="297" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A297" s="23">
+      <c r="A297" s="18">
         <v>4</v>
       </c>
-      <c r="B297" s="23" t="s">
+      <c r="B297" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C297" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D297" s="26">
+      <c r="C297" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D297" s="22">
         <v>58.413795610742298</v>
       </c>
-      <c r="E297" s="23">
+      <c r="E297" s="18">
         <v>1.7665154267369445</v>
       </c>
-      <c r="F297" s="23"/>
+      <c r="F297" s="18"/>
       <c r="G297" s="5"/>
-      <c r="H297" s="23" t="s">
+      <c r="H297" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I297" s="26">
+      <c r="I297" s="22">
         <v>26.321783894602554</v>
       </c>
-      <c r="J297" s="24" t="s">
+      <c r="J297" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K297" s="23" t="s">
+      <c r="K297" s="18" t="s">
         <v>52</v>
       </c>
       <c r="L297" s="5" t="s">
@@ -16108,38 +16199,38 @@
       <c r="Q297" s="12">
         <v>19</v>
       </c>
-      <c r="R297" s="6" t="s">
-        <v>26</v>
+      <c r="R297" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="298" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A298" s="23">
+      <c r="A298" s="18">
         <v>6</v>
       </c>
-      <c r="B298" s="23" t="s">
+      <c r="B298" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C298" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D298" s="26">
+      <c r="C298" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D298" s="22">
         <v>42.755650804294902</v>
       </c>
-      <c r="E298" s="23">
+      <c r="E298" s="18">
         <v>1.6309935214254174</v>
       </c>
-      <c r="F298" s="23"/>
+      <c r="F298" s="18"/>
       <c r="G298" s="5"/>
-      <c r="H298" s="23" t="s">
+      <c r="H298" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I298" s="26">
+      <c r="I298" s="22">
         <v>9.7644502933558499</v>
       </c>
-      <c r="J298" s="24" t="s">
+      <c r="J298" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K298" s="23" t="s">
+      <c r="K298" s="18" t="s">
         <v>52</v>
       </c>
       <c r="L298" s="5" t="s">
@@ -16160,38 +16251,38 @@
       <c r="Q298" s="12">
         <v>19</v>
       </c>
-      <c r="R298" s="6" t="s">
-        <v>26</v>
+      <c r="R298" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="299" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A299" s="23">
+      <c r="A299" s="18">
         <v>1</v>
       </c>
-      <c r="B299" s="23" t="s">
+      <c r="B299" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C299" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D299" s="26">
+      <c r="C299" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D299" s="22">
         <v>6.8423660881887196</v>
       </c>
-      <c r="E299" s="23">
+      <c r="E299" s="18">
         <v>0.83520630659662332</v>
       </c>
-      <c r="F299" s="23"/>
+      <c r="F299" s="18"/>
       <c r="G299" s="5"/>
-      <c r="H299" s="23" t="s">
+      <c r="H299" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I299" s="26">
+      <c r="I299" s="22">
         <v>2.0974303761534703</v>
       </c>
-      <c r="J299" s="24" t="s">
+      <c r="J299" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K299" s="23" t="s">
+      <c r="K299" s="18" t="s">
         <v>52</v>
       </c>
       <c r="L299" s="5" t="s">
@@ -16212,38 +16303,37 @@
       <c r="Q299" s="12">
         <v>19</v>
       </c>
-      <c r="R299" s="6" t="s">
-        <v>26</v>
+      <c r="R299" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="300" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A300" s="22">
+      <c r="A300">
         <v>2</v>
       </c>
-      <c r="B300" s="22" t="s">
+      <c r="B300" t="s">
         <v>45</v>
       </c>
       <c r="C300" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D300" s="25">
+      <c r="D300" s="21">
         <v>9.3941701268086195</v>
       </c>
-      <c r="E300" s="22">
+      <c r="E300">
         <v>0.97285842091697461</v>
       </c>
-      <c r="F300" s="22"/>
       <c r="G300" s="5"/>
-      <c r="H300" s="22" t="s">
+      <c r="H300" t="s">
         <v>51</v>
       </c>
-      <c r="I300" s="25">
+      <c r="I300" s="21">
         <v>3.4772305528508349</v>
       </c>
       <c r="J300" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K300" s="22" t="s">
+      <c r="K300" t="s">
         <v>52</v>
       </c>
       <c r="L300" s="8" t="s">
@@ -16265,37 +16355,37 @@
         <v>19</v>
       </c>
       <c r="R300" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="301" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A301" s="23">
+      <c r="A301" s="18">
         <v>4</v>
       </c>
-      <c r="B301" s="23" t="s">
+      <c r="B301" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C301" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D301" s="26">
+      <c r="C301" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D301" s="22">
         <v>9.8252761755833298</v>
       </c>
-      <c r="E301" s="23">
+      <c r="E301" s="18">
         <v>0.99234476666539417</v>
       </c>
-      <c r="F301" s="23"/>
+      <c r="F301" s="18"/>
       <c r="G301" s="5"/>
-      <c r="H301" s="23" t="s">
+      <c r="H301" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I301" s="26">
+      <c r="I301" s="22">
         <v>5.1163372300766152</v>
       </c>
-      <c r="J301" s="24" t="s">
+      <c r="J301" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K301" s="23" t="s">
+      <c r="K301" s="18" t="s">
         <v>52</v>
       </c>
       <c r="L301" s="5" t="s">
@@ -16316,38 +16406,38 @@
       <c r="Q301" s="12">
         <v>19</v>
       </c>
-      <c r="R301" s="6" t="s">
-        <v>26</v>
+      <c r="R301" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="302" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A302" s="23">
+      <c r="A302" s="18">
         <v>6</v>
       </c>
-      <c r="B302" s="23" t="s">
+      <c r="B302" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C302" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D302" s="26">
+      <c r="C302" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D302" s="22">
         <v>9.8003988685868197</v>
       </c>
-      <c r="E302" s="23">
+      <c r="E302" s="18">
         <v>0.99124375149873178</v>
       </c>
-      <c r="F302" s="23"/>
+      <c r="F302" s="18"/>
       <c r="G302" s="5"/>
-      <c r="H302" s="23" t="s">
+      <c r="H302" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I302" s="26">
+      <c r="I302" s="22">
         <v>6.8019778771129547</v>
       </c>
-      <c r="J302" s="24" t="s">
+      <c r="J302" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K302" s="23" t="s">
+      <c r="K302" s="18" t="s">
         <v>52</v>
       </c>
       <c r="L302" s="5" t="s">
@@ -16368,38 +16458,37 @@
       <c r="Q302" s="12">
         <v>19</v>
       </c>
-      <c r="R302" s="6" t="s">
-        <v>26</v>
+      <c r="R302" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="303" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A303" s="22">
+      <c r="A303">
         <v>1</v>
       </c>
-      <c r="B303" s="22" t="s">
+      <c r="B303" t="s">
         <v>46</v>
       </c>
       <c r="C303" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D303" s="25">
+      <c r="D303" s="21">
         <v>20.705481978054301</v>
       </c>
-      <c r="E303" s="22">
+      <c r="E303">
         <v>1.3160853443758567</v>
       </c>
-      <c r="F303" s="22"/>
       <c r="G303" s="5"/>
-      <c r="H303" s="22" t="s">
+      <c r="H303" t="s">
         <v>51</v>
       </c>
-      <c r="I303" s="25">
+      <c r="I303" s="21">
         <v>5.7559788463076993</v>
       </c>
       <c r="J303" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K303" s="22" t="s">
+      <c r="K303" t="s">
         <v>52</v>
       </c>
       <c r="L303" s="8" t="s">
@@ -16421,37 +16510,37 @@
         <v>19</v>
       </c>
       <c r="R303" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="304" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A304" s="23">
+      <c r="A304" s="18">
         <v>2</v>
       </c>
-      <c r="B304" s="23" t="s">
+      <c r="B304" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C304" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D304" s="26">
+      <c r="C304" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D304" s="22">
         <v>21.0116782026506</v>
       </c>
-      <c r="E304" s="23">
+      <c r="E304" s="18">
         <v>1.3224607408897178</v>
       </c>
-      <c r="F304" s="23"/>
+      <c r="F304" s="18"/>
       <c r="G304" s="5"/>
-      <c r="H304" s="23" t="s">
+      <c r="H304" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I304" s="26">
+      <c r="I304" s="22">
         <v>7.2415925343224492</v>
       </c>
-      <c r="J304" s="24" t="s">
+      <c r="J304" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="K304" s="23" t="s">
+      <c r="K304" s="18" t="s">
         <v>52</v>
       </c>
       <c r="L304" s="5" t="s">
@@ -16472,38 +16561,37 @@
       <c r="Q304" s="12">
         <v>19</v>
       </c>
-      <c r="R304" s="6" t="s">
-        <v>26</v>
+      <c r="R304" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="305" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A305" s="22">
+      <c r="A305">
         <v>4</v>
       </c>
-      <c r="B305" s="22" t="s">
+      <c r="B305" t="s">
         <v>46</v>
       </c>
       <c r="C305" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D305" s="25">
+      <c r="D305" s="21">
         <v>37.063317684243202</v>
       </c>
-      <c r="E305" s="22">
+      <c r="E305">
         <v>1.5689442921407151</v>
       </c>
-      <c r="F305" s="22"/>
       <c r="G305" s="5"/>
-      <c r="H305" s="22" t="s">
+      <c r="H305" t="s">
         <v>51</v>
       </c>
-      <c r="I305" s="25">
+      <c r="I305" s="21">
         <v>9.5026487397292012</v>
       </c>
       <c r="J305" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K305" s="22" t="s">
+      <c r="K305" t="s">
         <v>52</v>
       </c>
       <c r="L305" s="8" t="s">
@@ -16525,37 +16613,36 @@
         <v>19</v>
       </c>
       <c r="R305" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="306" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A306" s="22">
+      <c r="A306">
         <v>6</v>
       </c>
-      <c r="B306" s="22" t="s">
+      <c r="B306" t="s">
         <v>46</v>
       </c>
       <c r="C306" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D306" s="25">
+      <c r="D306" s="21">
         <v>26.3850601922267</v>
       </c>
-      <c r="E306" s="22">
+      <c r="E306">
         <v>1.4213580892700912</v>
       </c>
-      <c r="F306" s="22"/>
       <c r="G306" s="5"/>
-      <c r="H306" s="22" t="s">
+      <c r="H306" t="s">
         <v>51</v>
       </c>
-      <c r="I306" s="25">
+      <c r="I306" s="21">
         <v>7.1754356747933983</v>
       </c>
       <c r="J306" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K306" s="22" t="s">
+      <c r="K306" t="s">
         <v>52</v>
       </c>
       <c r="L306" s="8" t="s">
@@ -16577,7 +16664,7 @@
         <v>19</v>
       </c>
       <c r="R306" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="307" spans="1:18" x14ac:dyDescent="0.25">
@@ -16608,7 +16695,7 @@
       <c r="J307" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K307" s="22" t="s">
+      <c r="K307" t="s">
         <v>52</v>
       </c>
       <c r="L307" s="8" t="s">
@@ -16630,7 +16717,7 @@
         <v>20</v>
       </c>
       <c r="R307" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="308" spans="1:18" x14ac:dyDescent="0.25">
@@ -16661,7 +16748,7 @@
       <c r="J308" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K308" s="22" t="s">
+      <c r="K308" t="s">
         <v>52</v>
       </c>
       <c r="L308" s="8" t="s">
@@ -16683,7 +16770,7 @@
         <v>20</v>
       </c>
       <c r="R308" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="309" spans="1:18" x14ac:dyDescent="0.25">
@@ -16714,7 +16801,7 @@
       <c r="J309" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K309" s="22" t="s">
+      <c r="K309" t="s">
         <v>52</v>
       </c>
       <c r="L309" s="8" t="s">
@@ -16736,7 +16823,7 @@
         <v>20</v>
       </c>
       <c r="R309" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="310" spans="1:18" x14ac:dyDescent="0.25">
@@ -16767,7 +16854,7 @@
       <c r="J310" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K310" s="22" t="s">
+      <c r="K310" t="s">
         <v>52</v>
       </c>
       <c r="L310" s="8" t="s">
@@ -16789,7 +16876,7 @@
         <v>20</v>
       </c>
       <c r="R310" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="311" spans="1:18" x14ac:dyDescent="0.25">
@@ -16820,7 +16907,7 @@
       <c r="J311" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K311" s="22" t="s">
+      <c r="K311" t="s">
         <v>52</v>
       </c>
       <c r="L311" s="8" t="s">
@@ -16842,7 +16929,7 @@
         <v>20</v>
       </c>
       <c r="R311" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="312" spans="1:18" x14ac:dyDescent="0.25">
@@ -16873,7 +16960,7 @@
       <c r="J312" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K312" s="22" t="s">
+      <c r="K312" t="s">
         <v>52</v>
       </c>
       <c r="L312" s="8" t="s">
@@ -16895,7 +16982,7 @@
         <v>20</v>
       </c>
       <c r="R312" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="313" spans="1:18" x14ac:dyDescent="0.25">
@@ -16926,7 +17013,7 @@
       <c r="J313" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K313" s="22" t="s">
+      <c r="K313" t="s">
         <v>52</v>
       </c>
       <c r="L313" s="8" t="s">
@@ -16948,7 +17035,7 @@
         <v>20</v>
       </c>
       <c r="R313" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="314" spans="1:18" x14ac:dyDescent="0.25">
@@ -16979,7 +17066,7 @@
       <c r="J314" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K314" s="22" t="s">
+      <c r="K314" t="s">
         <v>52</v>
       </c>
       <c r="L314" s="8" t="s">
@@ -17001,7 +17088,7 @@
         <v>20</v>
       </c>
       <c r="R314" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="315" spans="1:18" x14ac:dyDescent="0.25">
@@ -17032,7 +17119,7 @@
       <c r="J315" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K315" s="22" t="s">
+      <c r="K315" t="s">
         <v>52</v>
       </c>
       <c r="L315" s="8" t="s">
@@ -17054,7 +17141,7 @@
         <v>20</v>
       </c>
       <c r="R315" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="316" spans="1:18" x14ac:dyDescent="0.25">
@@ -17085,7 +17172,7 @@
       <c r="J316" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K316" s="22" t="s">
+      <c r="K316" t="s">
         <v>52</v>
       </c>
       <c r="L316" s="8" t="s">
@@ -17107,7 +17194,7 @@
         <v>20</v>
       </c>
       <c r="R316" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="317" spans="1:18" x14ac:dyDescent="0.25">
@@ -17138,7 +17225,7 @@
       <c r="J317" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K317" s="22" t="s">
+      <c r="K317" t="s">
         <v>52</v>
       </c>
       <c r="L317" s="8" t="s">
@@ -17160,7 +17247,7 @@
         <v>20</v>
       </c>
       <c r="R317" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="318" spans="1:18" x14ac:dyDescent="0.25">
@@ -17191,7 +17278,7 @@
       <c r="J318" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K318" s="22" t="s">
+      <c r="K318" t="s">
         <v>52</v>
       </c>
       <c r="L318" s="8" t="s">
@@ -17213,37 +17300,37 @@
         <v>20</v>
       </c>
       <c r="R318" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="319" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A319" s="23">
+      <c r="A319" s="18">
         <v>1</v>
       </c>
-      <c r="B319" s="23" t="s">
+      <c r="B319" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C319" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D319" s="26">
+      <c r="C319" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D319" s="22">
         <v>160.8773852430167</v>
       </c>
-      <c r="E319" s="26">
+      <c r="E319" s="22">
         <v>2.2064949990123699</v>
       </c>
-      <c r="F319" s="26"/>
+      <c r="F319" s="22"/>
       <c r="G319" s="5"/>
-      <c r="H319" s="23" t="s">
+      <c r="H319" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I319" s="26">
+      <c r="I319" s="22">
         <v>0.34278163850430987</v>
       </c>
-      <c r="J319" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K319" s="23" t="s">
+      <c r="J319" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K319" s="18" t="s">
         <v>52</v>
       </c>
       <c r="L319" s="5" t="s">
@@ -17265,37 +17352,37 @@
         <v>19</v>
       </c>
       <c r="R319" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="320" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A320" s="22">
+      <c r="A320">
         <v>2</v>
       </c>
-      <c r="B320" s="22" t="s">
+      <c r="B320" t="s">
         <v>57</v>
       </c>
       <c r="C320" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D320" s="25">
+      <c r="D320" s="21">
         <v>3082.6881368352124</v>
       </c>
-      <c r="E320" s="25">
+      <c r="E320" s="21">
         <v>3.4889295911221199</v>
       </c>
-      <c r="F320" s="25"/>
+      <c r="F320" s="21"/>
       <c r="G320" s="5"/>
-      <c r="H320" s="22" t="s">
+      <c r="H320" t="s">
         <v>51</v>
       </c>
-      <c r="I320" s="25">
+      <c r="I320" s="21">
         <v>1.8182974495262398</v>
       </c>
       <c r="J320" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K320" s="22" t="s">
+      <c r="K320" t="s">
         <v>52</v>
       </c>
       <c r="L320" s="8" t="s">
@@ -17317,37 +17404,37 @@
         <v>19</v>
       </c>
       <c r="R320" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="321" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A321" s="22">
+      <c r="A321">
         <v>3</v>
       </c>
-      <c r="B321" s="22" t="s">
+      <c r="B321" t="s">
         <v>57</v>
       </c>
       <c r="C321" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D321" s="25">
+      <c r="D321" s="21">
         <v>16880.13218681989</v>
       </c>
-      <c r="E321" s="25">
+      <c r="E321" s="21">
         <v>4.2273758432245696</v>
       </c>
-      <c r="F321" s="25"/>
+      <c r="F321" s="21"/>
       <c r="G321" s="5"/>
-      <c r="H321" s="22" t="s">
+      <c r="H321" t="s">
         <v>51</v>
       </c>
-      <c r="I321" s="25">
+      <c r="I321" s="21">
         <v>0.85697654234528953</v>
       </c>
       <c r="J321" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K321" s="22" t="s">
+      <c r="K321" t="s">
         <v>52</v>
       </c>
       <c r="L321" s="8" t="s">
@@ -17369,37 +17456,37 @@
         <v>19</v>
       </c>
       <c r="R321" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="322" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A322" s="23">
+      <c r="A322" s="18">
         <v>4</v>
       </c>
-      <c r="B322" s="23" t="s">
+      <c r="B322" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C322" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D322" s="26">
+      <c r="C322" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D322" s="22">
         <v>16906.325480665259</v>
       </c>
-      <c r="E322" s="26">
+      <c r="E322" s="22">
         <v>4.2280492257597198</v>
       </c>
-      <c r="F322" s="26"/>
+      <c r="F322" s="22"/>
       <c r="G322" s="5"/>
-      <c r="H322" s="23" t="s">
+      <c r="H322" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I322" s="26">
+      <c r="I322" s="22">
         <v>0.46948230350696996</v>
       </c>
-      <c r="J322" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K322" s="23" t="s">
+      <c r="J322" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K322" s="18" t="s">
         <v>52</v>
       </c>
       <c r="L322" s="5" t="s">
@@ -17421,37 +17508,37 @@
         <v>19</v>
       </c>
       <c r="R322" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="323" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A323" s="23">
+      <c r="A323" s="18">
         <v>5</v>
       </c>
-      <c r="B323" s="23" t="s">
+      <c r="B323" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C323" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D323" s="26">
+      <c r="C323" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D323" s="22">
         <v>1948.7584048508834</v>
       </c>
-      <c r="E323" s="26">
+      <c r="E323" s="22">
         <v>3.2897580012809202</v>
       </c>
-      <c r="F323" s="26"/>
+      <c r="F323" s="22"/>
       <c r="G323" s="5"/>
-      <c r="H323" s="23" t="s">
+      <c r="H323" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I323" s="26">
+      <c r="I323" s="22">
         <v>1.0060185434586102</v>
       </c>
-      <c r="J323" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K323" s="23" t="s">
+      <c r="J323" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K323" s="18" t="s">
         <v>52</v>
       </c>
       <c r="L323" s="5" t="s">
@@ -17473,37 +17560,37 @@
         <v>19</v>
       </c>
       <c r="R323" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="324" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A324" s="23">
+      <c r="A324" s="18">
         <v>6</v>
       </c>
-      <c r="B324" s="23" t="s">
+      <c r="B324" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C324" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D324" s="26">
+      <c r="C324" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D324" s="22">
         <v>47481.233646657769</v>
       </c>
-      <c r="E324" s="26">
+      <c r="E324" s="22">
         <v>4.6765219941699998</v>
       </c>
-      <c r="F324" s="26"/>
+      <c r="F324" s="22"/>
       <c r="G324" s="5"/>
-      <c r="H324" s="23" t="s">
+      <c r="H324" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I324" s="26">
+      <c r="I324" s="22">
         <v>1.0060185434586097</v>
       </c>
-      <c r="J324" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K324" s="23" t="s">
+      <c r="J324" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K324" s="18" t="s">
         <v>52</v>
       </c>
       <c r="L324" s="5" t="s">
@@ -17525,37 +17612,37 @@
         <v>19</v>
       </c>
       <c r="R324" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="325" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A325" s="22">
+      <c r="A325">
         <v>7</v>
       </c>
-      <c r="B325" s="22" t="s">
+      <c r="B325" t="s">
         <v>57</v>
       </c>
       <c r="C325" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D325" s="25">
+      <c r="D325" s="21">
         <v>2401.9275036040444</v>
       </c>
-      <c r="E325" s="25">
+      <c r="E325" s="21">
         <v>3.3805598951318898</v>
       </c>
-      <c r="F325" s="25"/>
+      <c r="F325" s="21"/>
       <c r="G325" s="5"/>
-      <c r="H325" s="22" t="s">
+      <c r="H325" t="s">
         <v>51</v>
       </c>
-      <c r="I325" s="25">
+      <c r="I325" s="21">
         <v>0.87936277062495982</v>
       </c>
       <c r="J325" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K325" s="22" t="s">
+      <c r="K325" t="s">
         <v>52</v>
       </c>
       <c r="L325" s="8" t="s">
@@ -17577,37 +17664,37 @@
         <v>19</v>
       </c>
       <c r="R325" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="326" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A326" s="22">
+      <c r="A326">
         <v>8</v>
       </c>
-      <c r="B326" s="22" t="s">
+      <c r="B326" t="s">
         <v>57</v>
       </c>
       <c r="C326" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D326" s="25">
+      <c r="D326" s="21">
         <v>1274.9864685107586</v>
       </c>
-      <c r="E326" s="25">
+      <c r="E326" s="21">
         <v>3.1055055756073902</v>
       </c>
-      <c r="F326" s="25"/>
+      <c r="F326" s="21"/>
       <c r="G326" s="5"/>
-      <c r="H326" s="22" t="s">
+      <c r="H326" t="s">
         <v>51</v>
       </c>
-      <c r="I326" s="25">
+      <c r="I326" s="21">
         <v>1.4382553107436002</v>
       </c>
       <c r="J326" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K326" s="22" t="s">
+      <c r="K326" t="s">
         <v>52</v>
       </c>
       <c r="L326" s="8" t="s">
@@ -17629,37 +17716,37 @@
         <v>19</v>
       </c>
       <c r="R326" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="327" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A327" s="23">
+      <c r="A327" s="18">
         <v>9</v>
       </c>
-      <c r="B327" s="23" t="s">
+      <c r="B327" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C327" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D327" s="26">
+      <c r="C327" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D327" s="22">
         <v>267.9401851121255</v>
       </c>
-      <c r="E327" s="26">
+      <c r="E327" s="22">
         <v>2.4280378530769098</v>
       </c>
-      <c r="F327" s="26"/>
+      <c r="F327" s="22"/>
       <c r="G327" s="5"/>
-      <c r="H327" s="23" t="s">
+      <c r="H327" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I327" s="26">
+      <c r="I327" s="22">
         <v>0.32789240244931994</v>
       </c>
-      <c r="J327" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K327" s="23" t="s">
+      <c r="J327" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K327" s="18" t="s">
         <v>52</v>
       </c>
       <c r="L327" s="5" t="s">
@@ -17681,37 +17768,37 @@
         <v>19</v>
       </c>
       <c r="R327" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="328" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A328" s="22">
+      <c r="A328">
         <v>10</v>
       </c>
-      <c r="B328" s="22" t="s">
+      <c r="B328" t="s">
         <v>57</v>
       </c>
       <c r="C328" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D328" s="22">
+      <c r="D328">
         <v>0</v>
       </c>
-      <c r="E328" s="25">
+      <c r="E328" s="21">
         <v>0</v>
       </c>
-      <c r="F328" s="25"/>
+      <c r="F328" s="21"/>
       <c r="G328" s="5"/>
-      <c r="H328" s="22" t="s">
+      <c r="H328" t="s">
         <v>51</v>
       </c>
-      <c r="I328" s="25">
+      <c r="I328" s="21">
         <v>0.77503336984563098</v>
       </c>
       <c r="J328" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K328" s="22" t="s">
+      <c r="K328" t="s">
         <v>52</v>
       </c>
       <c r="L328" s="8" t="s">
@@ -17733,37 +17820,36 @@
         <v>19</v>
       </c>
       <c r="R328" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="329" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A329" s="22">
+      <c r="A329">
         <v>1</v>
       </c>
-      <c r="B329" s="22" t="s">
+      <c r="B329" t="s">
         <v>57</v>
       </c>
       <c r="C329" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D329" s="22">
+      <c r="D329">
         <v>1122.948171278714</v>
       </c>
-      <c r="E329" s="22">
+      <c r="E329">
         <v>3.0503597122302102</v>
       </c>
-      <c r="F329" s="22"/>
       <c r="G329" s="5"/>
-      <c r="H329" s="27" t="s">
+      <c r="H329" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I329" s="27">
+      <c r="I329" s="23">
         <v>0.22302158273380979</v>
       </c>
       <c r="J329" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K329" s="22" t="s">
+      <c r="K329" t="s">
         <v>59</v>
       </c>
       <c r="L329" s="8" t="s">
@@ -17789,33 +17875,32 @@
       </c>
     </row>
     <row r="330" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A330" s="22">
+      <c r="A330">
         <v>1</v>
       </c>
-      <c r="B330" s="22" t="s">
+      <c r="B330" t="s">
         <v>57</v>
       </c>
       <c r="C330" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D330" s="22">
+      <c r="D330">
         <v>0</v>
       </c>
-      <c r="E330" s="22">
+      <c r="E330">
         <v>0</v>
       </c>
-      <c r="F330" s="22"/>
       <c r="G330" s="5"/>
-      <c r="H330" s="27" t="s">
+      <c r="H330" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I330" s="22">
+      <c r="I330">
         <v>0</v>
       </c>
       <c r="J330" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K330" s="22" t="s">
+      <c r="K330" t="s">
         <v>59</v>
       </c>
       <c r="L330" s="8" t="s">
@@ -17841,33 +17926,33 @@
       </c>
     </row>
     <row r="331" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A331" s="23">
+      <c r="A331" s="18">
         <v>2</v>
       </c>
-      <c r="B331" s="23" t="s">
+      <c r="B331" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C331" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D331" s="23">
+      <c r="C331" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D331" s="18">
         <v>4515.192378428178</v>
       </c>
-      <c r="E331" s="23">
+      <c r="E331" s="18">
         <v>3.6546762589927999</v>
       </c>
-      <c r="F331" s="23"/>
+      <c r="F331" s="18"/>
       <c r="G331" s="5"/>
-      <c r="H331" s="28" t="s">
+      <c r="H331" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I331" s="28">
+      <c r="I331" s="19">
         <v>0.24460431654676018</v>
       </c>
-      <c r="J331" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K331" s="23" t="s">
+      <c r="J331" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K331" s="18" t="s">
         <v>59</v>
       </c>
       <c r="L331" s="5" t="s">
@@ -17893,33 +17978,33 @@
       </c>
     </row>
     <row r="332" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A332" s="23">
+      <c r="A332" s="18">
         <v>2</v>
       </c>
-      <c r="B332" s="23" t="s">
+      <c r="B332" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C332" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D332" s="23">
+      <c r="C332" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D332" s="18">
         <v>248.704391122673</v>
       </c>
-      <c r="E332" s="23">
+      <c r="E332" s="18">
         <v>2.3956834532374098</v>
       </c>
-      <c r="F332" s="23"/>
+      <c r="F332" s="18"/>
       <c r="G332" s="5"/>
-      <c r="H332" s="28" t="s">
+      <c r="H332" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I332" s="23">
+      <c r="I332" s="18">
         <v>0.25179856115107002</v>
       </c>
-      <c r="J332" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K332" s="23" t="s">
+      <c r="J332" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K332" s="18" t="s">
         <v>59</v>
       </c>
       <c r="L332" s="5" t="s">
@@ -17945,33 +18030,32 @@
       </c>
     </row>
     <row r="333" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A333" s="22">
+      <c r="A333">
         <v>3</v>
       </c>
-      <c r="B333" s="22" t="s">
+      <c r="B333" t="s">
         <v>57</v>
       </c>
       <c r="C333" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D333" s="22">
+      <c r="D333">
         <v>14397.045636220895</v>
       </c>
-      <c r="E333" s="22">
+      <c r="E333">
         <v>4.1582733812949604</v>
       </c>
-      <c r="F333" s="22"/>
       <c r="G333" s="5"/>
-      <c r="H333" s="27" t="s">
+      <c r="H333" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I333" s="27">
+      <c r="I333" s="23">
         <v>0.22302158273380979</v>
       </c>
       <c r="J333" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K333" s="22" t="s">
+      <c r="K333" t="s">
         <v>59</v>
       </c>
       <c r="L333" s="8" t="s">
@@ -17997,33 +18081,33 @@
       </c>
     </row>
     <row r="334" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A334" s="23">
+      <c r="A334" s="18">
         <v>3</v>
       </c>
-      <c r="B334" s="23" t="s">
+      <c r="B334" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C334" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D334" s="23">
+      <c r="C334" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D334" s="18">
         <v>6083.7682475720385</v>
       </c>
-      <c r="E334" s="23">
+      <c r="E334" s="18">
         <v>3.7841726618705001</v>
       </c>
-      <c r="F334" s="23"/>
+      <c r="F334" s="18"/>
       <c r="G334" s="5"/>
-      <c r="H334" s="28" t="s">
+      <c r="H334" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I334" s="23">
+      <c r="I334" s="18">
         <v>2.158273381294995E-2</v>
       </c>
-      <c r="J334" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K334" s="23" t="s">
+      <c r="J334" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K334" s="18" t="s">
         <v>59</v>
       </c>
       <c r="L334" s="5" t="s">
@@ -18049,33 +18133,33 @@
       </c>
     </row>
     <row r="335" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A335" s="23">
+      <c r="A335" s="18">
         <v>4</v>
       </c>
-      <c r="B335" s="23" t="s">
+      <c r="B335" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C335" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D335" s="23">
+      <c r="C335" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D335" s="18">
         <v>19398.573030675019</v>
       </c>
-      <c r="E335" s="23">
+      <c r="E335" s="18">
         <v>4.2877697841726601</v>
       </c>
-      <c r="F335" s="23"/>
+      <c r="F335" s="18"/>
       <c r="G335" s="5"/>
-      <c r="H335" s="28" t="s">
+      <c r="H335" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I335" s="28">
+      <c r="I335" s="19">
         <v>0.23021582733812984</v>
       </c>
-      <c r="J335" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K335" s="23" t="s">
+      <c r="J335" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K335" s="18" t="s">
         <v>59</v>
       </c>
       <c r="L335" s="5" t="s">
@@ -18101,33 +18185,32 @@
       </c>
     </row>
     <row r="336" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A336" s="22">
+      <c r="A336">
         <v>4</v>
       </c>
-      <c r="B336" s="22" t="s">
+      <c r="B336" t="s">
         <v>57</v>
       </c>
       <c r="C336" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D336" s="22">
+      <c r="D336">
         <v>139.27876015629599</v>
       </c>
-      <c r="E336" s="22">
+      <c r="E336">
         <v>2.14388489208633</v>
       </c>
-      <c r="F336" s="22"/>
       <c r="G336" s="5"/>
-      <c r="H336" s="27" t="s">
+      <c r="H336" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I336" s="22">
+      <c r="I336">
         <v>0.30215827338128998</v>
       </c>
       <c r="J336" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K336" s="22" t="s">
+      <c r="K336" t="s">
         <v>59</v>
       </c>
       <c r="L336" s="8" t="s">
@@ -18153,33 +18236,33 @@
       </c>
     </row>
     <row r="337" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A337" s="23">
+      <c r="A337" s="18">
         <v>5</v>
       </c>
-      <c r="B337" s="23" t="s">
+      <c r="B337" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C337" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D337" s="23">
+      <c r="C337" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D337" s="18">
         <v>9053.8757952982342</v>
       </c>
-      <c r="E337" s="23">
+      <c r="E337" s="18">
         <v>3.9568345323741001</v>
       </c>
-      <c r="F337" s="23"/>
+      <c r="F337" s="18"/>
       <c r="G337" s="5"/>
-      <c r="H337" s="28" t="s">
+      <c r="H337" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I337" s="28">
+      <c r="I337" s="19">
         <v>0.19424460431654023</v>
       </c>
-      <c r="J337" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K337" s="23" t="s">
+      <c r="J337" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K337" s="18" t="s">
         <v>59</v>
       </c>
       <c r="L337" s="5" t="s">
@@ -18205,33 +18288,32 @@
       </c>
     </row>
     <row r="338" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A338" s="22">
+      <c r="A338">
         <v>5</v>
       </c>
-      <c r="B338" s="22" t="s">
+      <c r="B338" t="s">
         <v>57</v>
       </c>
       <c r="C338" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D338" s="22">
+      <c r="D338">
         <v>187.6641408787614</v>
       </c>
-      <c r="E338" s="22">
+      <c r="E338">
         <v>2.27338129496402</v>
       </c>
-      <c r="F338" s="22"/>
       <c r="G338" s="5"/>
-      <c r="H338" s="27" t="s">
+      <c r="H338" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I338" s="22">
+      <c r="I338">
         <v>0.29496402877698014</v>
       </c>
       <c r="J338" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K338" s="22" t="s">
+      <c r="K338" t="s">
         <v>59</v>
       </c>
       <c r="L338" s="8" t="s">
@@ -18257,33 +18339,32 @@
       </c>
     </row>
     <row r="339" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A339" s="22">
+      <c r="A339">
         <v>6</v>
       </c>
-      <c r="B339" s="22" t="s">
+      <c r="B339" t="s">
         <v>57</v>
       </c>
       <c r="C339" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D339" s="22">
+      <c r="D339">
         <v>13.927876015629595</v>
       </c>
-      <c r="E339" s="22">
+      <c r="E339">
         <v>1.14388489208633</v>
       </c>
-      <c r="F339" s="22"/>
       <c r="G339" s="5"/>
-      <c r="H339" s="27" t="s">
+      <c r="H339" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I339" s="22">
+      <c r="I339">
         <v>0.25899280575538985</v>
       </c>
       <c r="J339" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K339" s="22" t="s">
+      <c r="K339" t="s">
         <v>59</v>
       </c>
       <c r="L339" s="8" t="s">
@@ -18309,33 +18390,32 @@
       </c>
     </row>
     <row r="340" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A340" s="22">
+      <c r="A340">
         <v>6</v>
       </c>
-      <c r="B340" s="22" t="s">
+      <c r="B340" t="s">
         <v>57</v>
       </c>
       <c r="C340" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D340" s="22">
+      <c r="D340">
         <v>1240.2955338330044</v>
       </c>
-      <c r="E340" s="22">
+      <c r="E340">
         <v>3.0935251798561101</v>
       </c>
-      <c r="F340" s="22"/>
       <c r="G340" s="5"/>
-      <c r="H340" s="27" t="s">
+      <c r="H340" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I340" s="27">
+      <c r="I340" s="23">
         <v>0.28776978417266008</v>
       </c>
       <c r="J340" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K340" s="22" t="s">
+      <c r="K340" t="s">
         <v>59</v>
       </c>
       <c r="L340" s="8" t="s">
@@ -18361,33 +18441,33 @@
       </c>
     </row>
     <row r="341" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A341" s="23">
+      <c r="A341" s="18">
         <v>7</v>
       </c>
-      <c r="B341" s="23" t="s">
+      <c r="B341" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C341" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D341" s="23">
+      <c r="C341" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D341" s="18">
         <v>0</v>
       </c>
-      <c r="E341" s="23">
+      <c r="E341" s="18">
         <v>0</v>
       </c>
-      <c r="F341" s="23"/>
+      <c r="F341" s="18"/>
       <c r="G341" s="5"/>
-      <c r="H341" s="28" t="s">
+      <c r="H341" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I341" s="23">
+      <c r="I341" s="18">
         <v>0.25179856115107002</v>
       </c>
-      <c r="J341" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K341" s="23" t="s">
+      <c r="J341" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K341" s="18" t="s">
         <v>59</v>
       </c>
       <c r="L341" s="5" t="s">
@@ -18413,33 +18493,33 @@
       </c>
     </row>
     <row r="342" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A342" s="23">
+      <c r="A342" s="18">
         <v>7</v>
       </c>
-      <c r="B342" s="23" t="s">
+      <c r="B342" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C342" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D342" s="23">
+      <c r="C342" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D342" s="18">
         <v>541.7675012235203</v>
       </c>
-      <c r="E342" s="23">
+      <c r="E342" s="18">
         <v>2.7338129496402801</v>
       </c>
-      <c r="F342" s="23"/>
+      <c r="F342" s="18"/>
       <c r="G342" s="5"/>
-      <c r="H342" s="28" t="s">
+      <c r="H342" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I342" s="28">
+      <c r="I342" s="19">
         <v>0.2361870503597201</v>
       </c>
-      <c r="J342" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K342" s="23" t="s">
+      <c r="J342" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K342" s="18" t="s">
         <v>59</v>
       </c>
       <c r="L342" s="5" t="s">
@@ -18465,33 +18545,33 @@
       </c>
     </row>
     <row r="343" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A343" s="23">
+      <c r="A343" s="18">
         <v>8</v>
       </c>
-      <c r="B343" s="23" t="s">
+      <c r="B343" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C343" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D343" s="23">
+      <c r="C343" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D343" s="18">
         <v>5417.6750122352041</v>
       </c>
-      <c r="E343" s="23">
+      <c r="E343" s="18">
         <v>3.7338129496402801</v>
       </c>
-      <c r="F343" s="23"/>
+      <c r="F343" s="18"/>
       <c r="G343" s="5"/>
-      <c r="H343" s="28" t="s">
+      <c r="H343" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I343" s="28">
+      <c r="I343" s="19">
         <v>0.30935251798561003</v>
       </c>
-      <c r="J343" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K343" s="23" t="s">
+      <c r="J343" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K343" s="18" t="s">
         <v>59</v>
       </c>
       <c r="L343" s="5" t="s">
@@ -18517,33 +18597,32 @@
       </c>
     </row>
     <row r="344" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A344" s="22">
+      <c r="A344">
         <v>9</v>
       </c>
-      <c r="B344" s="22" t="s">
+      <c r="B344" t="s">
         <v>57</v>
       </c>
       <c r="C344" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D344" s="22">
+      <c r="D344">
         <v>43.680516977211418</v>
       </c>
-      <c r="E344" s="22">
+      <c r="E344">
         <v>1.64028776978417</v>
       </c>
-      <c r="F344" s="22"/>
       <c r="G344" s="5"/>
-      <c r="H344" s="27" t="s">
+      <c r="H344" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I344" s="27">
+      <c r="I344" s="23">
         <v>0.30871223021583005</v>
       </c>
       <c r="J344" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K344" s="22" t="s">
+      <c r="K344" t="s">
         <v>59</v>
       </c>
       <c r="L344" s="8" t="s">
@@ -18569,33 +18648,33 @@
       </c>
     </row>
     <row r="345" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A345" s="23">
+      <c r="A345" s="18">
         <v>10</v>
       </c>
-      <c r="B345" s="23" t="s">
+      <c r="B345" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C345" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D345" s="23">
+      <c r="C345" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D345" s="18">
         <v>0</v>
       </c>
-      <c r="E345" s="23">
+      <c r="E345" s="18">
         <v>0</v>
       </c>
-      <c r="F345" s="23"/>
+      <c r="F345" s="18"/>
       <c r="G345" s="5"/>
-      <c r="H345" s="28" t="s">
+      <c r="H345" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I345" s="28">
+      <c r="I345" s="19">
         <v>0</v>
       </c>
-      <c r="J345" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K345" s="23" t="s">
+      <c r="J345" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K345" s="18" t="s">
         <v>59</v>
       </c>
       <c r="L345" s="5" t="s">
@@ -18621,31 +18700,31 @@
       </c>
     </row>
     <row r="346" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A346" s="23">
+      <c r="A346" s="18">
         <v>1</v>
       </c>
-      <c r="B346" s="23" t="s">
+      <c r="B346" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C346" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D346" s="23">
+      <c r="C346" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D346" s="18">
         <v>1.19047619047619</v>
       </c>
-      <c r="E346" s="23">
+      <c r="E346" s="18">
         <v>7.5720713938118175E-2</v>
       </c>
-      <c r="F346" s="23"/>
+      <c r="F346" s="18"/>
       <c r="G346" s="5"/>
-      <c r="H346" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="I346" s="23"/>
-      <c r="J346" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K346" s="23" t="s">
+      <c r="H346" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I346" s="18"/>
+      <c r="J346" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K346" s="18" t="s">
         <v>61</v>
       </c>
       <c r="L346" s="14" t="s">
@@ -18666,36 +18745,34 @@
       <c r="Q346" s="5">
         <v>32</v>
       </c>
-      <c r="R346" s="6" t="s">
-        <v>26</v>
+      <c r="R346" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="347" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A347" s="22">
+      <c r="A347">
         <v>2</v>
       </c>
-      <c r="B347" s="22" t="s">
+      <c r="B347" t="s">
         <v>45</v>
       </c>
       <c r="C347" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D347" s="22">
+      <c r="D347">
         <v>18.095238095237999</v>
       </c>
-      <c r="E347" s="22">
+      <c r="E347">
         <v>1.2575643018828886</v>
       </c>
-      <c r="F347" s="22"/>
       <c r="G347" s="5"/>
-      <c r="H347" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I347" s="22"/>
+      <c r="H347" t="s">
+        <v>26</v>
+      </c>
       <c r="J347" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K347" s="22" t="s">
+      <c r="K347" t="s">
         <v>61</v>
       </c>
       <c r="L347" s="15" t="s">
@@ -18717,35 +18794,35 @@
         <v>32</v>
       </c>
       <c r="R347" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="348" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A348" s="23">
+      <c r="A348" s="18">
         <v>3</v>
       </c>
-      <c r="B348" s="23" t="s">
+      <c r="B348" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C348" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D348" s="23">
+      <c r="C348" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D348" s="18">
         <v>30.238095238095202</v>
       </c>
-      <c r="E348" s="23">
+      <c r="E348" s="18">
         <v>1.4805544305580558</v>
       </c>
-      <c r="F348" s="23"/>
+      <c r="F348" s="18"/>
       <c r="G348" s="5"/>
-      <c r="H348" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="I348" s="23"/>
-      <c r="J348" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K348" s="23" t="s">
+      <c r="H348" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I348" s="18"/>
+      <c r="J348" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K348" s="18" t="s">
         <v>61</v>
       </c>
       <c r="L348" s="14" t="s">
@@ -18766,36 +18843,36 @@
       <c r="Q348" s="5">
         <v>32</v>
       </c>
-      <c r="R348" s="6" t="s">
-        <v>26</v>
+      <c r="R348" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="349" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A349" s="23">
+      <c r="A349" s="18">
         <v>4</v>
       </c>
-      <c r="B349" s="23" t="s">
+      <c r="B349" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C349" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D349" s="23">
+      <c r="C349" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D349" s="18">
         <v>28.571428571428498</v>
       </c>
-      <c r="E349" s="23">
+      <c r="E349" s="18">
         <v>1.4559319556497232</v>
       </c>
-      <c r="F349" s="23"/>
+      <c r="F349" s="18"/>
       <c r="G349" s="5"/>
-      <c r="H349" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="I349" s="23"/>
-      <c r="J349" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K349" s="23" t="s">
+      <c r="H349" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I349" s="18"/>
+      <c r="J349" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K349" s="18" t="s">
         <v>61</v>
       </c>
       <c r="L349" s="14" t="s">
@@ -18816,36 +18893,36 @@
       <c r="Q349" s="5">
         <v>32</v>
       </c>
-      <c r="R349" s="6" t="s">
-        <v>26</v>
+      <c r="R349" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="350" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A350" s="23">
+      <c r="A350" s="18">
         <v>5</v>
       </c>
-      <c r="B350" s="23" t="s">
+      <c r="B350" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C350" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D350" s="23">
+      <c r="C350" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D350" s="18">
         <v>28.095238095237999</v>
       </c>
-      <c r="E350" s="23">
+      <c r="E350" s="18">
         <v>1.4486327169082234</v>
       </c>
-      <c r="F350" s="23"/>
+      <c r="F350" s="18"/>
       <c r="G350" s="5"/>
-      <c r="H350" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="I350" s="23"/>
-      <c r="J350" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K350" s="23" t="s">
+      <c r="H350" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I350" s="18"/>
+      <c r="J350" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K350" s="18" t="s">
         <v>61</v>
       </c>
       <c r="L350" s="14" t="s">
@@ -18866,36 +18943,36 @@
       <c r="Q350" s="5">
         <v>32</v>
       </c>
-      <c r="R350" s="6" t="s">
-        <v>26</v>
+      <c r="R350" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="351" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A351" s="23">
+      <c r="A351" s="18">
         <v>6</v>
       </c>
-      <c r="B351" s="23" t="s">
+      <c r="B351" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C351" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D351" s="23">
+      <c r="C351" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D351" s="18">
         <v>15</v>
       </c>
-      <c r="E351" s="23">
+      <c r="E351" s="18">
         <v>1.1760912590556813</v>
       </c>
-      <c r="F351" s="23"/>
+      <c r="F351" s="18"/>
       <c r="G351" s="5"/>
-      <c r="H351" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="I351" s="23"/>
-      <c r="J351" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K351" s="23" t="s">
+      <c r="H351" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I351" s="18"/>
+      <c r="J351" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K351" s="18" t="s">
         <v>61</v>
       </c>
       <c r="L351" s="14" t="s">
@@ -18916,36 +18993,36 @@
       <c r="Q351" s="5">
         <v>32</v>
       </c>
-      <c r="R351" s="6" t="s">
-        <v>26</v>
+      <c r="R351" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="352" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A352" s="23">
+      <c r="A352" s="18">
         <v>7</v>
       </c>
-      <c r="B352" s="23" t="s">
+      <c r="B352" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C352" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D352" s="23">
+      <c r="C352" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D352" s="18">
         <v>5.71428571428571</v>
       </c>
-      <c r="E352" s="23">
+      <c r="E352" s="18">
         <v>0.75696195131370525</v>
       </c>
-      <c r="F352" s="23"/>
+      <c r="F352" s="18"/>
       <c r="G352" s="5"/>
-      <c r="H352" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="I352" s="23"/>
-      <c r="J352" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K352" s="23" t="s">
+      <c r="H352" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I352" s="18"/>
+      <c r="J352" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K352" s="18" t="s">
         <v>61</v>
       </c>
       <c r="L352" s="14" t="s">
@@ -18966,36 +19043,34 @@
       <c r="Q352" s="5">
         <v>32</v>
       </c>
-      <c r="R352" s="6" t="s">
-        <v>26</v>
+      <c r="R352" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="353" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A353" s="22">
+      <c r="A353">
         <v>1</v>
       </c>
-      <c r="B353" s="22" t="s">
+      <c r="B353" t="s">
         <v>28</v>
       </c>
       <c r="C353" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D353" s="22">
+      <c r="D353">
         <v>135.57692307692301</v>
       </c>
-      <c r="E353" s="22">
+      <c r="E353">
         <v>2.1321857733565994</v>
       </c>
-      <c r="F353" s="22"/>
       <c r="G353" s="5"/>
-      <c r="H353" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I353" s="22"/>
+      <c r="H353" t="s">
+        <v>26</v>
+      </c>
       <c r="J353" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K353" s="22" t="s">
+      <c r="K353" t="s">
         <v>61</v>
       </c>
       <c r="L353" s="15" t="s">
@@ -19017,35 +19092,35 @@
         <v>32</v>
       </c>
       <c r="R353" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="354" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A354" s="23">
+      <c r="A354" s="18">
         <v>2</v>
       </c>
-      <c r="B354" s="23" t="s">
+      <c r="B354" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C354" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D354" s="23">
+      <c r="C354" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D354" s="18">
         <v>138.461538461538</v>
       </c>
-      <c r="E354" s="23">
+      <c r="E354" s="18">
         <v>2.1413291527964677</v>
       </c>
-      <c r="F354" s="23"/>
+      <c r="F354" s="18"/>
       <c r="G354" s="5"/>
-      <c r="H354" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="I354" s="23"/>
-      <c r="J354" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K354" s="23" t="s">
+      <c r="H354" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I354" s="18"/>
+      <c r="J354" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K354" s="18" t="s">
         <v>61</v>
       </c>
       <c r="L354" s="14" t="s">
@@ -19066,36 +19141,34 @@
       <c r="Q354" s="5">
         <v>32</v>
       </c>
-      <c r="R354" s="6" t="s">
-        <v>26</v>
+      <c r="R354" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="355" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A355" s="22">
+      <c r="A355">
         <v>3</v>
       </c>
-      <c r="B355" s="22" t="s">
+      <c r="B355" t="s">
         <v>28</v>
       </c>
       <c r="C355" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D355" s="22">
+      <c r="D355">
         <v>282.692307692307</v>
       </c>
-      <c r="E355" s="22">
+      <c r="E355">
         <v>2.4513139911133757</v>
       </c>
-      <c r="F355" s="22"/>
       <c r="G355" s="5"/>
-      <c r="H355" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I355" s="22"/>
+      <c r="H355" t="s">
+        <v>26</v>
+      </c>
       <c r="J355" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K355" s="22" t="s">
+      <c r="K355" t="s">
         <v>61</v>
       </c>
       <c r="L355" s="15" t="s">
@@ -19117,35 +19190,33 @@
         <v>32</v>
       </c>
       <c r="R355" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="356" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A356" s="22">
+      <c r="A356">
         <v>4</v>
       </c>
-      <c r="B356" s="22" t="s">
+      <c r="B356" t="s">
         <v>28</v>
       </c>
       <c r="C356" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D356" s="22">
+      <c r="D356">
         <v>415.38461538461502</v>
       </c>
-      <c r="E356" s="22">
+      <c r="E356">
         <v>2.6184504075161312</v>
       </c>
-      <c r="F356" s="22"/>
       <c r="G356" s="5"/>
-      <c r="H356" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I356" s="22"/>
+      <c r="H356" t="s">
+        <v>26</v>
+      </c>
       <c r="J356" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K356" s="22" t="s">
+      <c r="K356" t="s">
         <v>61</v>
       </c>
       <c r="L356" s="15" t="s">
@@ -19167,35 +19238,33 @@
         <v>32</v>
       </c>
       <c r="R356" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="357" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A357" s="22">
+      <c r="A357">
         <v>5</v>
       </c>
-      <c r="B357" s="22" t="s">
+      <c r="B357" t="s">
         <v>28</v>
       </c>
       <c r="C357" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D357" s="22">
+      <c r="D357">
         <v>473.07692307692298</v>
       </c>
-      <c r="E357" s="22">
+      <c r="E357">
         <v>2.6749317634685799</v>
       </c>
-      <c r="F357" s="22"/>
       <c r="G357" s="5"/>
-      <c r="H357" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I357" s="22"/>
+      <c r="H357" t="s">
+        <v>26</v>
+      </c>
       <c r="J357" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K357" s="22" t="s">
+      <c r="K357" t="s">
         <v>61</v>
       </c>
       <c r="L357" s="15" t="s">
@@ -19217,35 +19286,33 @@
         <v>32</v>
       </c>
       <c r="R357" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="358" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A358" s="22">
+      <c r="A358">
         <v>6</v>
       </c>
-      <c r="B358" s="22" t="s">
+      <c r="B358" t="s">
         <v>28</v>
       </c>
       <c r="C358" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D358" s="22">
+      <c r="D358">
         <v>320.192307692307</v>
       </c>
-      <c r="E358" s="22">
+      <c r="E358">
         <v>2.5054108942075386</v>
       </c>
-      <c r="F358" s="22"/>
       <c r="G358" s="5"/>
-      <c r="H358" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I358" s="22"/>
+      <c r="H358" t="s">
+        <v>26</v>
+      </c>
       <c r="J358" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K358" s="22" t="s">
+      <c r="K358" t="s">
         <v>61</v>
       </c>
       <c r="L358" s="15" t="s">
@@ -19267,35 +19334,33 @@
         <v>32</v>
       </c>
       <c r="R358" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="359" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A359" s="22">
+      <c r="A359">
         <v>7</v>
       </c>
-      <c r="B359" s="22" t="s">
+      <c r="B359" t="s">
         <v>28</v>
       </c>
       <c r="C359" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D359" s="22">
+      <c r="D359">
         <v>175.961538461538</v>
       </c>
-      <c r="E359" s="22">
+      <c r="E359">
         <v>2.2454177504316482</v>
       </c>
-      <c r="F359" s="22"/>
       <c r="G359" s="5"/>
-      <c r="H359" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I359" s="22"/>
+      <c r="H359" t="s">
+        <v>26</v>
+      </c>
       <c r="J359" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K359" s="22" t="s">
+      <c r="K359" t="s">
         <v>61</v>
       </c>
       <c r="L359" s="15" t="s">
@@ -19317,7 +19382,7 @@
         <v>32</v>
       </c>
       <c r="R359" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="360" spans="1:18" x14ac:dyDescent="0.25">
@@ -19345,7 +19410,7 @@
       <c r="J360" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K360" s="23" t="s">
+      <c r="K360" s="18" t="s">
         <v>61</v>
       </c>
       <c r="L360" s="14" t="s">
@@ -19366,8 +19431,8 @@
       <c r="Q360" s="5">
         <v>32</v>
       </c>
-      <c r="R360" s="6" t="s">
-        <v>26</v>
+      <c r="R360" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="361" spans="1:18" x14ac:dyDescent="0.25">
@@ -19395,7 +19460,7 @@
       <c r="J361" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K361" s="23" t="s">
+      <c r="K361" s="18" t="s">
         <v>61</v>
       </c>
       <c r="L361" s="14" t="s">
@@ -19416,8 +19481,8 @@
       <c r="Q361" s="5">
         <v>32</v>
       </c>
-      <c r="R361" s="6" t="s">
-        <v>26</v>
+      <c r="R361" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="362" spans="1:18" x14ac:dyDescent="0.25">
@@ -19466,8 +19531,8 @@
       <c r="Q362" s="5">
         <v>32</v>
       </c>
-      <c r="R362" s="6" t="s">
-        <v>26</v>
+      <c r="R362" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="363" spans="1:18" x14ac:dyDescent="0.25">
@@ -19516,8 +19581,8 @@
       <c r="Q363" s="5">
         <v>32</v>
       </c>
-      <c r="R363" s="6" t="s">
-        <v>26</v>
+      <c r="R363" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="364" spans="1:18" x14ac:dyDescent="0.25">
@@ -19566,8 +19631,8 @@
       <c r="Q364" s="5">
         <v>32</v>
       </c>
-      <c r="R364" s="6" t="s">
-        <v>26</v>
+      <c r="R364" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="365" spans="1:18" x14ac:dyDescent="0.25">
@@ -19616,8 +19681,8 @@
       <c r="Q365" s="5">
         <v>32</v>
       </c>
-      <c r="R365" s="6" t="s">
-        <v>26</v>
+      <c r="R365" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="366" spans="1:18" x14ac:dyDescent="0.25">
@@ -19666,8 +19731,8 @@
       <c r="Q366" s="5">
         <v>32</v>
       </c>
-      <c r="R366" s="6" t="s">
-        <v>26</v>
+      <c r="R366" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="367" spans="1:18" x14ac:dyDescent="0.25">
@@ -19716,8 +19781,8 @@
       <c r="Q367" s="5">
         <v>32</v>
       </c>
-      <c r="R367" s="6" t="s">
-        <v>26</v>
+      <c r="R367" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="368" spans="1:18" x14ac:dyDescent="0.25">
@@ -19766,8 +19831,8 @@
       <c r="Q368" s="5">
         <v>32</v>
       </c>
-      <c r="R368" s="6" t="s">
-        <v>26</v>
+      <c r="R368" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="369" spans="1:18" x14ac:dyDescent="0.25">
@@ -19816,8 +19881,8 @@
       <c r="Q369" s="5">
         <v>32</v>
       </c>
-      <c r="R369" s="6" t="s">
-        <v>26</v>
+      <c r="R369" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="370" spans="1:18" x14ac:dyDescent="0.25">
@@ -19866,8 +19931,8 @@
       <c r="Q370" s="5">
         <v>32</v>
       </c>
-      <c r="R370" s="6" t="s">
-        <v>26</v>
+      <c r="R370" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="371" spans="1:18" x14ac:dyDescent="0.25">
@@ -19916,8 +19981,8 @@
       <c r="Q371" s="5">
         <v>32</v>
       </c>
-      <c r="R371" s="6" t="s">
-        <v>26</v>
+      <c r="R371" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="372" spans="1:18" x14ac:dyDescent="0.25">
@@ -19966,8 +20031,8 @@
       <c r="Q372" s="5">
         <v>32</v>
       </c>
-      <c r="R372" s="6" t="s">
-        <v>26</v>
+      <c r="R372" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="373" spans="1:18" x14ac:dyDescent="0.25">
@@ -20016,8 +20081,8 @@
       <c r="Q373" s="5">
         <v>32</v>
       </c>
-      <c r="R373" s="6" t="s">
-        <v>26</v>
+      <c r="R373" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="374" spans="1:18" x14ac:dyDescent="0.25">
@@ -20066,8 +20131,8 @@
       <c r="Q374" s="5">
         <v>32</v>
       </c>
-      <c r="R374" s="6" t="s">
-        <v>26</v>
+      <c r="R374" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="375" spans="1:18" x14ac:dyDescent="0.25">
@@ -20116,8 +20181,8 @@
       <c r="Q375" s="5">
         <v>32</v>
       </c>
-      <c r="R375" s="6" t="s">
-        <v>26</v>
+      <c r="R375" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="376" spans="1:18" x14ac:dyDescent="0.25">
@@ -20166,8 +20231,8 @@
       <c r="Q376" s="5">
         <v>32</v>
       </c>
-      <c r="R376" s="6" t="s">
-        <v>26</v>
+      <c r="R376" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="377" spans="1:18" x14ac:dyDescent="0.25">
@@ -20216,8 +20281,8 @@
       <c r="Q377" s="5">
         <v>32</v>
       </c>
-      <c r="R377" s="6" t="s">
-        <v>26</v>
+      <c r="R377" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="378" spans="1:18" x14ac:dyDescent="0.25">
@@ -20266,8 +20331,8 @@
       <c r="Q378" s="5">
         <v>32</v>
       </c>
-      <c r="R378" s="6" t="s">
-        <v>26</v>
+      <c r="R378" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="379" spans="1:18" x14ac:dyDescent="0.25">
@@ -20316,8 +20381,8 @@
       <c r="Q379" s="5">
         <v>32</v>
       </c>
-      <c r="R379" s="6" t="s">
-        <v>26</v>
+      <c r="R379" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="380" spans="1:18" x14ac:dyDescent="0.25">
@@ -20366,8 +20431,8 @@
       <c r="Q380" s="5">
         <v>32</v>
       </c>
-      <c r="R380" s="6" t="s">
-        <v>26</v>
+      <c r="R380" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="381" spans="1:18" x14ac:dyDescent="0.25">
@@ -20417,7 +20482,7 @@
         <v>14</v>
       </c>
       <c r="R381" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="382" spans="1:18" x14ac:dyDescent="0.25">
@@ -20467,7 +20532,7 @@
         <v>24</v>
       </c>
       <c r="R382" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="383" spans="1:18" x14ac:dyDescent="0.25">
@@ -20517,7 +20582,7 @@
         <v>14</v>
       </c>
       <c r="R383" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="384" spans="1:18" x14ac:dyDescent="0.25">
@@ -20567,7 +20632,7 @@
         <v>24</v>
       </c>
       <c r="R384" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="385" spans="1:18" x14ac:dyDescent="0.25">
@@ -20617,7 +20682,7 @@
         <v>14</v>
       </c>
       <c r="R385" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="386" spans="1:18" x14ac:dyDescent="0.25">
@@ -20667,7 +20732,7 @@
         <v>24</v>
       </c>
       <c r="R386" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="387" spans="1:18" x14ac:dyDescent="0.25">
@@ -20717,7 +20782,7 @@
         <v>14</v>
       </c>
       <c r="R387" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="388" spans="1:18" x14ac:dyDescent="0.25">
@@ -20767,7 +20832,7 @@
         <v>24</v>
       </c>
       <c r="R388" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="389" spans="1:18" x14ac:dyDescent="0.25">
@@ -20817,7 +20882,7 @@
         <v>14</v>
       </c>
       <c r="R389" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="390" spans="1:18" x14ac:dyDescent="0.25">
@@ -20867,7 +20932,7 @@
         <v>24</v>
       </c>
       <c r="R390" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="391" spans="1:18" x14ac:dyDescent="0.25">
@@ -20917,7 +20982,7 @@
         <v>14</v>
       </c>
       <c r="R391" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="392" spans="1:18" x14ac:dyDescent="0.25">
@@ -20967,7 +21032,7 @@
         <v>24</v>
       </c>
       <c r="R392" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="393" spans="1:18" x14ac:dyDescent="0.25">
@@ -21017,7 +21082,7 @@
         <v>14</v>
       </c>
       <c r="R393" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="394" spans="1:18" x14ac:dyDescent="0.25">
@@ -21067,7 +21132,7 @@
         <v>24</v>
       </c>
       <c r="R394" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="395" spans="1:18" x14ac:dyDescent="0.25">
@@ -21117,7 +21182,7 @@
         <v>14</v>
       </c>
       <c r="R395" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="396" spans="1:18" x14ac:dyDescent="0.25">
@@ -21167,7 +21232,7 @@
         <v>24</v>
       </c>
       <c r="R396" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="397" spans="1:18" x14ac:dyDescent="0.25">
@@ -21217,7 +21282,7 @@
         <v>14</v>
       </c>
       <c r="R397" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="398" spans="1:18" x14ac:dyDescent="0.25">
@@ -21267,7 +21332,7 @@
         <v>24</v>
       </c>
       <c r="R398" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="399" spans="1:18" x14ac:dyDescent="0.25">
@@ -21317,7 +21382,7 @@
         <v>14</v>
       </c>
       <c r="R399" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="400" spans="1:18" x14ac:dyDescent="0.25">
@@ -21367,7 +21432,7 @@
         <v>24</v>
       </c>
       <c r="R400" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="401" spans="1:18" x14ac:dyDescent="0.25">
@@ -21417,7 +21482,7 @@
         <v>14</v>
       </c>
       <c r="R401" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="402" spans="1:18" x14ac:dyDescent="0.25">
@@ -21467,7 +21532,7 @@
         <v>24</v>
       </c>
       <c r="R402" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="403" spans="1:18" x14ac:dyDescent="0.25">
@@ -21517,7 +21582,7 @@
         <v>14</v>
       </c>
       <c r="R403" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="404" spans="1:18" x14ac:dyDescent="0.25">
@@ -21567,7 +21632,7 @@
         <v>24</v>
       </c>
       <c r="R404" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="405" spans="1:18" x14ac:dyDescent="0.25">
@@ -21617,7 +21682,7 @@
         <v>14</v>
       </c>
       <c r="R405" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="406" spans="1:18" x14ac:dyDescent="0.25">
@@ -21667,7 +21732,7 @@
         <v>24</v>
       </c>
       <c r="R406" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="407" spans="1:18" x14ac:dyDescent="0.25">
@@ -21717,7 +21782,7 @@
         <v>14</v>
       </c>
       <c r="R407" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="408" spans="1:18" x14ac:dyDescent="0.25">
@@ -21767,7 +21832,7 @@
         <v>24</v>
       </c>
       <c r="R408" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="409" spans="1:18" x14ac:dyDescent="0.25">
@@ -21817,7 +21882,7 @@
         <v>14</v>
       </c>
       <c r="R409" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="410" spans="1:18" x14ac:dyDescent="0.25">
@@ -21867,7 +21932,7 @@
         <v>24</v>
       </c>
       <c r="R410" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="411" spans="1:18" x14ac:dyDescent="0.25">
@@ -21917,7 +21982,7 @@
         <v>14</v>
       </c>
       <c r="R411" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="412" spans="1:18" x14ac:dyDescent="0.25">
@@ -21967,7 +22032,7 @@
         <v>24</v>
       </c>
       <c r="R412" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="413" spans="1:18" x14ac:dyDescent="0.25">
@@ -22017,7 +22082,7 @@
         <v>14</v>
       </c>
       <c r="R413" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="414" spans="1:18" x14ac:dyDescent="0.25">
@@ -22067,7 +22132,7 @@
         <v>24</v>
       </c>
       <c r="R414" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="415" spans="1:18" x14ac:dyDescent="0.25">
@@ -22117,7 +22182,7 @@
         <v>14</v>
       </c>
       <c r="R415" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="416" spans="1:18" x14ac:dyDescent="0.25">
@@ -22167,7 +22232,7 @@
         <v>24</v>
       </c>
       <c r="R416" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="417" spans="1:18" x14ac:dyDescent="0.25">
@@ -22217,7 +22282,7 @@
         <v>14</v>
       </c>
       <c r="R417" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="418" spans="1:18" x14ac:dyDescent="0.25">
@@ -22267,7 +22332,7 @@
         <v>24</v>
       </c>
       <c r="R418" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="419" spans="1:18" x14ac:dyDescent="0.25">
@@ -22317,7 +22382,7 @@
         <v>14</v>
       </c>
       <c r="R419" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="420" spans="1:18" x14ac:dyDescent="0.25">
@@ -22367,7 +22432,7 @@
         <v>24</v>
       </c>
       <c r="R420" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="421" spans="1:18" x14ac:dyDescent="0.25">
@@ -22417,7 +22482,7 @@
         <v>14</v>
       </c>
       <c r="R421" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="422" spans="1:18" x14ac:dyDescent="0.25">
@@ -22467,7 +22532,7 @@
         <v>24</v>
       </c>
       <c r="R422" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="423" spans="1:18" x14ac:dyDescent="0.25">
@@ -22517,7 +22582,7 @@
         <v>14</v>
       </c>
       <c r="R423" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="424" spans="1:18" x14ac:dyDescent="0.25">
@@ -22567,7 +22632,7 @@
         <v>24</v>
       </c>
       <c r="R424" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="425" spans="1:18" x14ac:dyDescent="0.25">
@@ -22617,7 +22682,7 @@
         <v>14</v>
       </c>
       <c r="R425" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="426" spans="1:18" x14ac:dyDescent="0.25">
@@ -22667,7 +22732,7 @@
         <v>24</v>
       </c>
       <c r="R426" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="427" spans="1:18" x14ac:dyDescent="0.25">
@@ -22717,7 +22782,7 @@
         <v>14</v>
       </c>
       <c r="R427" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="428" spans="1:18" x14ac:dyDescent="0.25">
@@ -22767,7 +22832,7 @@
         <v>24</v>
       </c>
       <c r="R428" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="429" spans="1:18" x14ac:dyDescent="0.25">
@@ -22817,7 +22882,7 @@
         <v>14</v>
       </c>
       <c r="R429" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="430" spans="1:18" x14ac:dyDescent="0.25">
@@ -22867,7 +22932,7 @@
         <v>24</v>
       </c>
       <c r="R430" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="431" spans="1:18" x14ac:dyDescent="0.25">
@@ -22917,7 +22982,7 @@
         <v>14</v>
       </c>
       <c r="R431" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="432" spans="1:18" x14ac:dyDescent="0.25">
@@ -22967,7 +23032,7 @@
         <v>24</v>
       </c>
       <c r="R432" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="433" spans="1:18" x14ac:dyDescent="0.25">
@@ -23017,7 +23082,7 @@
         <v>14</v>
       </c>
       <c r="R433" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="434" spans="1:18" x14ac:dyDescent="0.25">
@@ -23067,7 +23132,7 @@
         <v>24</v>
       </c>
       <c r="R434" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="435" spans="1:18" x14ac:dyDescent="0.25">
@@ -23117,7 +23182,7 @@
         <v>14</v>
       </c>
       <c r="R435" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="436" spans="1:18" x14ac:dyDescent="0.25">
@@ -23167,7 +23232,7 @@
         <v>24</v>
       </c>
       <c r="R436" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="437" spans="1:18" x14ac:dyDescent="0.25">
@@ -23217,7 +23282,7 @@
         <v>14</v>
       </c>
       <c r="R437" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="438" spans="1:18" x14ac:dyDescent="0.25">
@@ -23267,7 +23332,7 @@
         <v>24</v>
       </c>
       <c r="R438" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="439" spans="1:18" x14ac:dyDescent="0.25">
@@ -23317,7 +23382,7 @@
         <v>14</v>
       </c>
       <c r="R439" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="440" spans="1:18" x14ac:dyDescent="0.25">
@@ -23367,7 +23432,7 @@
         <v>24</v>
       </c>
       <c r="R440" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="441" spans="1:18" x14ac:dyDescent="0.25">
@@ -23417,7 +23482,7 @@
         <v>14</v>
       </c>
       <c r="R441" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="442" spans="1:18" x14ac:dyDescent="0.25">
@@ -23467,7 +23532,7 @@
         <v>24</v>
       </c>
       <c r="R442" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="443" spans="1:18" x14ac:dyDescent="0.25">
@@ -23517,7 +23582,7 @@
         <v>14</v>
       </c>
       <c r="R443" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="444" spans="1:18" x14ac:dyDescent="0.25">
@@ -23567,34 +23632,34 @@
         <v>24</v>
       </c>
       <c r="R444" s="9" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="445" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A445" s="23">
+      <c r="A445" s="18">
         <v>1</v>
       </c>
-      <c r="B445" s="23" t="s">
+      <c r="B445" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C445" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D445" s="26">
+      <c r="C445" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D445" s="22">
         <v>31.214713396013384</v>
       </c>
-      <c r="E445" s="26">
+      <c r="E445" s="22">
         <v>1.4943593517260201</v>
       </c>
-      <c r="F445" s="26"/>
+      <c r="F445" s="22"/>
       <c r="G445" s="5"/>
-      <c r="H445" s="23" t="s">
+      <c r="H445" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I445" s="26">
+      <c r="I445" s="22">
         <v>0</v>
       </c>
-      <c r="J445" s="24" t="s">
+      <c r="J445" s="20" t="s">
         <v>19</v>
       </c>
       <c r="K445" s="5" t="s">
@@ -23619,31 +23684,31 @@
         <v>9</v>
       </c>
       <c r="R445" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="446" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A446" s="22">
+      <c r="A446">
         <v>1</v>
       </c>
-      <c r="B446" s="22" t="s">
+      <c r="B446" t="s">
         <v>35</v>
       </c>
       <c r="C446" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D446" s="25">
+      <c r="D446" s="21">
         <v>46.247905848755813</v>
       </c>
-      <c r="E446" s="25">
+      <c r="E446" s="21">
         <v>1.6650920722335301</v>
       </c>
-      <c r="F446" s="25"/>
+      <c r="F446" s="21"/>
       <c r="G446" s="5"/>
-      <c r="H446" s="22" t="s">
+      <c r="H446" t="s">
         <v>18</v>
       </c>
-      <c r="I446" s="25">
+      <c r="I446" s="21">
         <v>0.24824201928649003</v>
       </c>
       <c r="J446" s="17" t="s">
@@ -23662,7 +23727,7 @@
         <v>23</v>
       </c>
       <c r="O446" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P446" s="8" t="s">
         <v>78</v>
@@ -23671,31 +23736,31 @@
         <v>14</v>
       </c>
       <c r="R446" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="447" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A447" s="22">
+      <c r="A447">
         <v>2</v>
       </c>
-      <c r="B447" s="22" t="s">
+      <c r="B447" t="s">
         <v>35</v>
       </c>
       <c r="C447" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D447" s="25">
+      <c r="D447" s="21">
         <v>45.703235499295978</v>
       </c>
-      <c r="E447" s="25">
+      <c r="E447" s="21">
         <v>1.6599469464539001</v>
       </c>
-      <c r="F447" s="25"/>
+      <c r="F447" s="21"/>
       <c r="G447" s="5"/>
-      <c r="H447" s="22" t="s">
+      <c r="H447" t="s">
         <v>18</v>
       </c>
-      <c r="I447" s="25">
+      <c r="I447" s="21">
         <v>0</v>
       </c>
       <c r="J447" s="17" t="s">
@@ -23723,34 +23788,34 @@
         <v>9</v>
       </c>
       <c r="R447" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="448" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A448" s="23">
+      <c r="A448" s="18">
         <v>2</v>
       </c>
-      <c r="B448" s="23" t="s">
+      <c r="B448" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C448" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D448" s="26">
+      <c r="C448" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D448" s="22">
         <v>1003.2505818197349</v>
       </c>
-      <c r="E448" s="26">
+      <c r="E448" s="22">
         <v>3.0014094202683501</v>
       </c>
-      <c r="F448" s="26"/>
+      <c r="F448" s="22"/>
       <c r="G448" s="5"/>
-      <c r="H448" s="23" t="s">
+      <c r="H448" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I448" s="26">
+      <c r="I448" s="22">
         <v>0.49768592515460996</v>
       </c>
-      <c r="J448" s="24" t="s">
+      <c r="J448" s="20" t="s">
         <v>19</v>
       </c>
       <c r="K448" s="5" t="s">
@@ -23766,7 +23831,7 @@
         <v>23</v>
       </c>
       <c r="O448" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P448" s="8" t="s">
         <v>78</v>
@@ -23775,34 +23840,34 @@
         <v>14</v>
       </c>
       <c r="R448" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="449" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A449" s="23">
+      <c r="A449" s="18">
         <v>3</v>
       </c>
-      <c r="B449" s="23" t="s">
+      <c r="B449" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C449" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D449" s="26">
+      <c r="C449" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D449" s="22">
         <v>42.10221389220105</v>
       </c>
-      <c r="E449" s="26">
+      <c r="E449" s="22">
         <v>1.62430493326766</v>
       </c>
-      <c r="F449" s="26"/>
+      <c r="F449" s="22"/>
       <c r="G449" s="5"/>
-      <c r="H449" s="23" t="s">
+      <c r="H449" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I449" s="26">
+      <c r="I449" s="22">
         <v>0</v>
       </c>
-      <c r="J449" s="24" t="s">
+      <c r="J449" s="20" t="s">
         <v>19</v>
       </c>
       <c r="K449" s="5" t="s">
@@ -23827,31 +23892,31 @@
         <v>9</v>
       </c>
       <c r="R449" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="450" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A450" s="22">
+      <c r="A450">
         <v>3</v>
       </c>
-      <c r="B450" s="22" t="s">
+      <c r="B450" t="s">
         <v>35</v>
       </c>
       <c r="C450" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D450" s="25">
+      <c r="D450" s="21">
         <v>284.16994757730993</v>
       </c>
-      <c r="E450" s="25">
+      <c r="E450" s="21">
         <v>2.4535781471612799</v>
       </c>
-      <c r="F450" s="25"/>
+      <c r="F450" s="21"/>
       <c r="G450" s="5"/>
-      <c r="H450" s="22" t="s">
+      <c r="H450" t="s">
         <v>18</v>
       </c>
-      <c r="I450" s="25">
+      <c r="I450" s="21">
         <v>0.38673739635518034</v>
       </c>
       <c r="J450" s="17" t="s">
@@ -23870,7 +23935,7 @@
         <v>23</v>
       </c>
       <c r="O450" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P450" s="8" t="s">
         <v>78</v>
@@ -23879,31 +23944,31 @@
         <v>14</v>
       </c>
       <c r="R450" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="451" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A451" s="22">
+      <c r="A451">
         <v>4</v>
       </c>
-      <c r="B451" s="22" t="s">
+      <c r="B451" t="s">
         <v>35</v>
       </c>
       <c r="C451" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D451" s="25">
+      <c r="D451" s="21">
         <v>31.420121801448062</v>
       </c>
-      <c r="E451" s="25">
+      <c r="E451" s="21">
         <v>1.4972078642683799</v>
       </c>
-      <c r="F451" s="25"/>
+      <c r="F451" s="21"/>
       <c r="G451" s="5"/>
-      <c r="H451" s="22" t="s">
+      <c r="H451" t="s">
         <v>18</v>
       </c>
-      <c r="I451" s="25">
+      <c r="I451" s="21">
         <v>0</v>
       </c>
       <c r="J451" s="17" t="s">
@@ -23931,34 +23996,34 @@
         <v>9</v>
       </c>
       <c r="R451" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="452" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A452" s="23">
+      <c r="A452" s="18">
         <v>4</v>
       </c>
-      <c r="B452" s="23" t="s">
+      <c r="B452" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C452" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D452" s="26">
+      <c r="C452" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D452" s="22">
         <v>37.710971936855017</v>
       </c>
-      <c r="E452" s="26">
+      <c r="E452" s="22">
         <v>1.5764677257594599</v>
       </c>
-      <c r="F452" s="26"/>
+      <c r="F452" s="22"/>
       <c r="G452" s="5"/>
-      <c r="H452" s="23" t="s">
+      <c r="H452" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I452" s="26">
+      <c r="I452" s="22">
         <v>0.13973954869722016</v>
       </c>
-      <c r="J452" s="24" t="s">
+      <c r="J452" s="20" t="s">
         <v>19</v>
       </c>
       <c r="K452" s="5" t="s">
@@ -23974,7 +24039,7 @@
         <v>23</v>
       </c>
       <c r="O452" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P452" s="8" t="s">
         <v>78</v>
@@ -23983,31 +24048,31 @@
         <v>14</v>
       </c>
       <c r="R452" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="453" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A453" s="22">
+      <c r="A453">
         <v>5</v>
       </c>
-      <c r="B453" s="22" t="s">
+      <c r="B453" t="s">
         <v>35</v>
       </c>
       <c r="C453" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D453" s="25">
+      <c r="D453" s="21">
         <v>48.659545086633671</v>
       </c>
-      <c r="E453" s="25">
+      <c r="E453" s="21">
         <v>1.6871680444368</v>
       </c>
-      <c r="F453" s="25"/>
+      <c r="F453" s="21"/>
       <c r="G453" s="5"/>
-      <c r="H453" s="22" t="s">
+      <c r="H453" t="s">
         <v>18</v>
       </c>
-      <c r="I453" s="25">
+      <c r="I453" s="21">
         <v>0</v>
       </c>
       <c r="J453" s="17" t="s">
@@ -24035,34 +24100,34 @@
         <v>9</v>
       </c>
       <c r="R453" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="454" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A454" s="23">
+      <c r="A454" s="18">
         <v>5</v>
       </c>
-      <c r="B454" s="23" t="s">
+      <c r="B454" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C454" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D454" s="26">
+      <c r="C454" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D454" s="22">
         <v>39.418862429406332</v>
       </c>
-      <c r="E454" s="26">
+      <c r="E454" s="22">
         <v>1.59570408702206</v>
       </c>
-      <c r="F454" s="26"/>
+      <c r="F454" s="22"/>
       <c r="G454" s="5"/>
-      <c r="H454" s="23" t="s">
+      <c r="H454" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I454" s="26">
+      <c r="I454" s="22">
         <v>0.26646791107557988</v>
       </c>
-      <c r="J454" s="24" t="s">
+      <c r="J454" s="20" t="s">
         <v>19</v>
       </c>
       <c r="K454" s="5" t="s">
@@ -24078,7 +24143,7 @@
         <v>23</v>
       </c>
       <c r="O454" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P454" s="8" t="s">
         <v>78</v>
@@ -24087,34 +24152,34 @@
         <v>14</v>
       </c>
       <c r="R454" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="455" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A455" s="23">
+      <c r="A455" s="18">
         <v>6</v>
       </c>
-      <c r="B455" s="23" t="s">
+      <c r="B455" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C455" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D455" s="26">
+      <c r="C455" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D455" s="22">
         <v>45.456597358366736</v>
       </c>
-      <c r="E455" s="26">
+      <c r="E455" s="22">
         <v>1.65759692360646</v>
       </c>
-      <c r="F455" s="26"/>
+      <c r="F455" s="22"/>
       <c r="G455" s="5"/>
-      <c r="H455" s="23" t="s">
+      <c r="H455" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I455" s="26">
+      <c r="I455" s="22">
         <v>0</v>
       </c>
-      <c r="J455" s="24" t="s">
+      <c r="J455" s="20" t="s">
         <v>19</v>
       </c>
       <c r="K455" s="5" t="s">
@@ -24139,31 +24204,31 @@
         <v>9</v>
       </c>
       <c r="R455" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="456" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A456" s="22">
+      <c r="A456">
         <v>6</v>
       </c>
-      <c r="B456" s="22" t="s">
+      <c r="B456" t="s">
         <v>35</v>
       </c>
       <c r="C456" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D456" s="25">
+      <c r="D456" s="21">
         <v>46.098375285624485</v>
       </c>
-      <c r="E456" s="25">
+      <c r="E456" s="21">
         <v>1.6636856191657401</v>
       </c>
-      <c r="F456" s="25"/>
+      <c r="F456" s="21"/>
       <c r="G456" s="5"/>
-      <c r="H456" s="22" t="s">
+      <c r="H456" t="s">
         <v>18</v>
       </c>
-      <c r="I456" s="25">
+      <c r="I456" s="21">
         <v>0.19671842541563</v>
       </c>
       <c r="J456" s="17" t="s">
@@ -24182,7 +24247,7 @@
         <v>23</v>
       </c>
       <c r="O456" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P456" s="8" t="s">
         <v>78</v>
@@ -24191,34 +24256,34 @@
         <v>14</v>
       </c>
       <c r="R456" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="457" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A457" s="23">
+      <c r="A457" s="18">
         <v>7</v>
       </c>
-      <c r="B457" s="23" t="s">
+      <c r="B457" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C457" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D457" s="26">
+      <c r="C457" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D457" s="22">
         <v>0</v>
       </c>
-      <c r="E457" s="26">
+      <c r="E457" s="22">
         <v>0</v>
       </c>
-      <c r="F457" s="26"/>
+      <c r="F457" s="22"/>
       <c r="G457" s="5"/>
-      <c r="H457" s="23" t="s">
+      <c r="H457" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I457" s="26">
+      <c r="I457" s="22">
         <v>0</v>
       </c>
-      <c r="J457" s="24" t="s">
+      <c r="J457" s="20" t="s">
         <v>19</v>
       </c>
       <c r="K457" s="5" t="s">
@@ -24243,31 +24308,31 @@
         <v>9</v>
       </c>
       <c r="R457" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="458" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A458" s="22">
+      <c r="A458">
         <v>7</v>
       </c>
-      <c r="B458" s="22" t="s">
+      <c r="B458" t="s">
         <v>35</v>
       </c>
       <c r="C458" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D458" s="25">
+      <c r="D458" s="21">
         <v>0</v>
       </c>
-      <c r="E458" s="25">
+      <c r="E458" s="21">
         <v>0</v>
       </c>
-      <c r="F458" s="25"/>
+      <c r="F458" s="21"/>
       <c r="G458" s="5"/>
-      <c r="H458" s="22" t="s">
+      <c r="H458" t="s">
         <v>18</v>
       </c>
-      <c r="I458" s="25">
+      <c r="I458" s="21">
         <v>0</v>
       </c>
       <c r="J458" s="17" t="s">
@@ -24286,7 +24351,7 @@
         <v>23</v>
       </c>
       <c r="O458" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P458" s="8" t="s">
         <v>78</v>
@@ -24295,300 +24360,14 @@
         <v>14</v>
       </c>
       <c r="R458" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A459" s="20"/>
-      <c r="H459" s="21"/>
-      <c r="J459" s="19"/>
-      <c r="K459" s="5"/>
-      <c r="L459" s="5"/>
-      <c r="M459" s="5"/>
-      <c r="N459" s="5"/>
-      <c r="O459" s="5"/>
-      <c r="P459" s="5"/>
-      <c r="Q459" s="5"/>
-      <c r="R459" s="9"/>
-    </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A460" s="20"/>
-      <c r="H460" s="21"/>
-      <c r="J460" s="19"/>
-      <c r="K460" s="5"/>
-      <c r="L460" s="5"/>
-      <c r="M460" s="5"/>
-      <c r="N460" s="5"/>
-      <c r="O460" s="5"/>
-      <c r="P460" s="5"/>
-      <c r="Q460" s="5"/>
-      <c r="R460" s="9"/>
-    </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A461" s="20"/>
-      <c r="H461" s="21"/>
-      <c r="J461" s="19"/>
-      <c r="K461" s="5"/>
-      <c r="L461" s="5"/>
-      <c r="M461" s="5"/>
-      <c r="N461" s="5"/>
-      <c r="O461" s="5"/>
-      <c r="P461" s="5"/>
-      <c r="Q461" s="5"/>
-      <c r="R461" s="9"/>
-    </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A462" s="20"/>
-      <c r="H462" s="21"/>
-      <c r="J462" s="19"/>
-      <c r="K462" s="5"/>
-      <c r="L462" s="5"/>
-      <c r="M462" s="5"/>
-      <c r="N462" s="5"/>
-      <c r="O462" s="5"/>
-      <c r="P462" s="5"/>
-      <c r="Q462" s="5"/>
-      <c r="R462" s="9"/>
-    </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A463" s="20"/>
-      <c r="H463" s="21"/>
-      <c r="J463" s="19"/>
-      <c r="K463" s="5"/>
-      <c r="L463" s="5"/>
-      <c r="M463" s="5"/>
-      <c r="N463" s="5"/>
-      <c r="O463" s="5"/>
-      <c r="P463" s="5"/>
-      <c r="Q463" s="5"/>
-      <c r="R463" s="9"/>
-    </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A464" s="20"/>
-      <c r="H464" s="21"/>
-      <c r="J464" s="19"/>
-      <c r="K464" s="5"/>
-      <c r="L464" s="5"/>
-      <c r="M464" s="5"/>
-      <c r="N464" s="5"/>
-      <c r="O464" s="5"/>
-      <c r="P464" s="5"/>
-      <c r="Q464" s="5"/>
-      <c r="R464" s="9"/>
-    </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A465" s="20"/>
-      <c r="H465" s="21"/>
-      <c r="J465" s="19"/>
-      <c r="K465" s="5"/>
-      <c r="L465" s="5"/>
-      <c r="M465" s="5"/>
-      <c r="N465" s="5"/>
-      <c r="O465" s="5"/>
-      <c r="P465" s="5"/>
-      <c r="Q465" s="5"/>
-      <c r="R465" s="9"/>
-    </row>
-    <row r="466" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A466" s="20"/>
-      <c r="H466" s="21"/>
-      <c r="J466" s="19"/>
-      <c r="K466" s="5"/>
-      <c r="L466" s="5"/>
-      <c r="M466" s="5"/>
-      <c r="N466" s="5"/>
-      <c r="O466" s="5"/>
-      <c r="P466" s="5"/>
-      <c r="Q466" s="5"/>
-      <c r="R466" s="9"/>
-    </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A467" s="20"/>
-      <c r="H467" s="21"/>
-      <c r="J467" s="19"/>
-      <c r="K467" s="5"/>
-      <c r="L467" s="5"/>
-      <c r="M467" s="5"/>
-      <c r="N467" s="5"/>
-      <c r="O467" s="5"/>
-      <c r="P467" s="5"/>
-      <c r="Q467" s="5"/>
-      <c r="R467" s="9"/>
-    </row>
-    <row r="468" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A468" s="20"/>
-      <c r="H468" s="21"/>
-      <c r="J468" s="19"/>
-      <c r="K468" s="5"/>
-      <c r="L468" s="5"/>
-      <c r="M468" s="5"/>
-      <c r="N468" s="5"/>
-      <c r="O468" s="5"/>
-      <c r="P468" s="5"/>
-      <c r="Q468" s="5"/>
-      <c r="R468" s="9"/>
-    </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A469" s="20"/>
-      <c r="H469" s="21"/>
-      <c r="J469" s="19"/>
-      <c r="K469" s="5"/>
-      <c r="L469" s="5"/>
-      <c r="M469" s="5"/>
-      <c r="N469" s="5"/>
-      <c r="O469" s="5"/>
-      <c r="P469" s="5"/>
-      <c r="Q469" s="5"/>
-      <c r="R469" s="9"/>
-    </row>
-    <row r="470" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A470" s="20"/>
-      <c r="H470" s="21"/>
-      <c r="J470" s="19"/>
-      <c r="K470" s="5"/>
-      <c r="L470" s="5"/>
-      <c r="M470" s="5"/>
-      <c r="N470" s="5"/>
-      <c r="O470" s="5"/>
-      <c r="P470" s="5"/>
-      <c r="Q470" s="5"/>
-      <c r="R470" s="9"/>
-    </row>
-    <row r="471" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A471" s="20"/>
-      <c r="H471" s="21"/>
-      <c r="J471" s="19"/>
-      <c r="K471" s="5"/>
-      <c r="L471" s="5"/>
-      <c r="M471" s="5"/>
-      <c r="N471" s="5"/>
-      <c r="O471" s="5"/>
-      <c r="P471" s="5"/>
-      <c r="Q471" s="5"/>
-      <c r="R471" s="9"/>
-    </row>
-    <row r="472" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A472" s="20"/>
-      <c r="H472" s="21"/>
-      <c r="J472" s="19"/>
-      <c r="K472" s="5"/>
-      <c r="L472" s="5"/>
-      <c r="M472" s="5"/>
-      <c r="N472" s="5"/>
-      <c r="O472" s="5"/>
-      <c r="P472" s="5"/>
-      <c r="Q472" s="5"/>
-      <c r="R472" s="9"/>
-    </row>
-    <row r="473" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A473" s="20"/>
-      <c r="H473" s="21"/>
-      <c r="J473" s="19"/>
-      <c r="K473" s="5"/>
-      <c r="L473" s="5"/>
-      <c r="M473" s="5"/>
-      <c r="N473" s="5"/>
-      <c r="O473" s="5"/>
-      <c r="P473" s="5"/>
-      <c r="Q473" s="5"/>
-      <c r="R473" s="9"/>
-    </row>
-    <row r="474" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A474" s="20"/>
-      <c r="H474" s="21"/>
-      <c r="J474" s="19"/>
-      <c r="K474" s="5"/>
-      <c r="L474" s="5"/>
-      <c r="M474" s="5"/>
-      <c r="N474" s="5"/>
-      <c r="O474" s="5"/>
-      <c r="P474" s="5"/>
-      <c r="Q474" s="5"/>
-      <c r="R474" s="9"/>
-    </row>
-    <row r="475" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A475" s="20"/>
-      <c r="H475" s="21"/>
-      <c r="J475" s="19"/>
-      <c r="K475" s="5"/>
-      <c r="L475" s="5"/>
-      <c r="M475" s="5"/>
-      <c r="N475" s="5"/>
-      <c r="O475" s="5"/>
-      <c r="P475" s="5"/>
-      <c r="Q475" s="5"/>
-      <c r="R475" s="9"/>
-    </row>
-    <row r="476" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A476" s="20"/>
-      <c r="H476" s="21"/>
-      <c r="J476" s="19"/>
-      <c r="K476" s="5"/>
-      <c r="L476" s="5"/>
-      <c r="M476" s="5"/>
-      <c r="N476" s="5"/>
-      <c r="O476" s="5"/>
-      <c r="P476" s="5"/>
-      <c r="Q476" s="5"/>
-      <c r="R476" s="9"/>
-    </row>
-    <row r="477" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A477" s="20"/>
-      <c r="H477" s="21"/>
-      <c r="J477" s="19"/>
-      <c r="K477" s="5"/>
-      <c r="L477" s="5"/>
-      <c r="M477" s="5"/>
-      <c r="N477" s="5"/>
-      <c r="O477" s="5"/>
-      <c r="P477" s="5"/>
-      <c r="Q477" s="5"/>
-      <c r="R477" s="9"/>
-    </row>
-    <row r="478" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A478" s="20"/>
-      <c r="H478" s="21"/>
-      <c r="J478" s="19"/>
-      <c r="K478" s="5"/>
-      <c r="L478" s="5"/>
-      <c r="M478" s="5"/>
-      <c r="N478" s="5"/>
-      <c r="O478" s="5"/>
-      <c r="P478" s="5"/>
-      <c r="Q478" s="5"/>
-      <c r="R478" s="9"/>
-    </row>
-    <row r="479" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A479" s="20"/>
-      <c r="H479" s="21"/>
-      <c r="J479" s="19"/>
-      <c r="K479" s="5"/>
-      <c r="L479" s="5"/>
-      <c r="M479" s="5"/>
-      <c r="N479" s="5"/>
-      <c r="O479" s="5"/>
-      <c r="P479" s="5"/>
-      <c r="Q479" s="5"/>
-      <c r="R479" s="9"/>
-    </row>
-    <row r="480" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A480" s="20"/>
-      <c r="H480" s="21"/>
-      <c r="J480" s="19"/>
-      <c r="K480" s="5"/>
-      <c r="L480" s="5"/>
-      <c r="M480" s="5"/>
-      <c r="N480" s="5"/>
-      <c r="O480" s="5"/>
-      <c r="P480" s="5"/>
-      <c r="Q480" s="5"/>
-      <c r="R480" s="9"/>
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R480">
-    <sortCondition ref="K2:K480"/>
-    <sortCondition ref="B2:B480"/>
-    <sortCondition ref="A2:A480"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R458">
+    <sortCondition ref="K2:K458"/>
+    <sortCondition ref="B2:B458"/>
+    <sortCondition ref="A2:A458"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Human Voluntary Data.xlsx
+++ b/Data/Human Voluntary Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorda\OneDrive - University of Tennessee\VPC\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveutk-my.sharepoint.com/personal/jweave49_uthsc_edu/Documents/VPC/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D4F087-91DD-436D-9737-5D44B12A759D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{78D4F087-91DD-436D-9737-5D44B12A759D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68B48B6C-64B0-4270-9742-AE1F33198D1D}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-2490" windowWidth="16440" windowHeight="29040" xr2:uid="{BB102C53-C3E1-4D54-83D1-542FA604C574}"/>
+    <workbookView xWindow="-16320" yWindow="-1920" windowWidth="16440" windowHeight="29040" xr2:uid="{BB102C53-C3E1-4D54-83D1-542FA604C574}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5080" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5080" uniqueCount="85">
   <si>
     <t>State</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>DAY</t>
+  </si>
+  <si>
+    <t>1E3-7 H1N1</t>
   </si>
 </sst>
 </file>
@@ -794,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77C534B-1212-4161-8C68-A242F4FEFD13}">
   <dimension ref="A1:S458"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="G276" workbookViewId="0">
+      <selection activeCell="O329" sqref="O329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17343,7 +17346,7 @@
         <v>22</v>
       </c>
       <c r="O319" s="5" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="P319" s="5" t="s">
         <v>53</v>
@@ -17394,8 +17397,8 @@
       <c r="N320" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O320" s="8" t="s">
-        <v>23</v>
+      <c r="O320" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="P320" s="8" t="s">
         <v>53</v>
@@ -17446,8 +17449,8 @@
       <c r="N321" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O321" s="8" t="s">
-        <v>23</v>
+      <c r="O321" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="P321" s="8" t="s">
         <v>53</v>
@@ -17499,7 +17502,7 @@
         <v>22</v>
       </c>
       <c r="O322" s="5" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="P322" s="5" t="s">
         <v>53</v>
@@ -17551,7 +17554,7 @@
         <v>22</v>
       </c>
       <c r="O323" s="5" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="P323" s="5" t="s">
         <v>53</v>
@@ -17603,7 +17606,7 @@
         <v>22</v>
       </c>
       <c r="O324" s="5" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="P324" s="5" t="s">
         <v>53</v>
@@ -17654,8 +17657,8 @@
       <c r="N325" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O325" s="8" t="s">
-        <v>23</v>
+      <c r="O325" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="P325" s="8" t="s">
         <v>53</v>
@@ -17706,8 +17709,8 @@
       <c r="N326" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O326" s="8" t="s">
-        <v>23</v>
+      <c r="O326" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="P326" s="8" t="s">
         <v>53</v>
@@ -17759,7 +17762,7 @@
         <v>22</v>
       </c>
       <c r="O327" s="5" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="P327" s="5" t="s">
         <v>53</v>
@@ -17810,8 +17813,8 @@
       <c r="N328" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O328" s="8" t="s">
-        <v>23</v>
+      <c r="O328" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="P328" s="8" t="s">
         <v>53</v>

--- a/Data/Human Voluntary Data.xlsx
+++ b/Data/Human Voluntary Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveutk-my.sharepoint.com/personal/jweave49_uthsc_edu/Documents/VPC/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorda\OneDrive\Documents\GitHub\VPC\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{78D4F087-91DD-436D-9737-5D44B12A759D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68B48B6C-64B0-4270-9742-AE1F33198D1D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E27AAE-9120-42A6-BCBC-F759C1035505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-1920" windowWidth="16440" windowHeight="29040" xr2:uid="{BB102C53-C3E1-4D54-83D1-542FA604C574}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{BB102C53-C3E1-4D54-83D1-542FA604C574}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5080" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5080" uniqueCount="84">
   <si>
     <t>State</t>
   </si>
@@ -291,9 +291,6 @@
   </si>
   <si>
     <t>DAY</t>
-  </si>
-  <si>
-    <t>1E3-7 H1N1</t>
   </si>
 </sst>
 </file>
@@ -795,10 +792,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77C534B-1212-4161-8C68-A242F4FEFD13}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G276" workbookViewId="0">
-      <selection activeCell="O329" sqref="O329"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O462" sqref="O462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,7 +863,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -915,7 +913,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -965,7 +963,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1.5</v>
       </c>
@@ -1018,7 +1016,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1.5</v>
       </c>
@@ -1071,7 +1069,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -1121,7 +1119,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -1171,7 +1169,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2.5</v>
       </c>
@@ -1224,7 +1222,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2.5</v>
       </c>
@@ -1277,7 +1275,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>3</v>
       </c>
@@ -1327,7 +1325,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -1377,7 +1375,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3.5</v>
       </c>
@@ -1430,7 +1428,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>3.5</v>
       </c>
@@ -1483,7 +1481,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>4</v>
       </c>
@@ -1533,7 +1531,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>4</v>
       </c>
@@ -1583,7 +1581,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>5</v>
       </c>
@@ -1633,7 +1631,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>5</v>
       </c>
@@ -1683,7 +1681,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>6</v>
       </c>
@@ -1733,7 +1731,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>6</v>
       </c>
@@ -1783,7 +1781,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>7</v>
       </c>
@@ -1833,7 +1831,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>7</v>
       </c>
@@ -1883,7 +1881,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>0</v>
       </c>
@@ -1935,7 +1933,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>0.5</v>
       </c>
@@ -1987,7 +1985,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>1</v>
       </c>
@@ -2039,7 +2037,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>1.5</v>
       </c>
@@ -2091,7 +2089,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>2</v>
       </c>
@@ -2143,7 +2141,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>2.5</v>
       </c>
@@ -2195,7 +2193,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>3</v>
       </c>
@@ -2247,7 +2245,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>3.5</v>
       </c>
@@ -2299,7 +2297,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>4</v>
       </c>
@@ -2351,7 +2349,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>4.5</v>
       </c>
@@ -2403,7 +2401,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>5</v>
       </c>
@@ -2455,7 +2453,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>5.5</v>
       </c>
@@ -2507,7 +2505,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>6</v>
       </c>
@@ -2559,7 +2557,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>1</v>
       </c>
@@ -2609,7 +2607,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>2</v>
       </c>
@@ -2659,7 +2657,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>3</v>
       </c>
@@ -2709,7 +2707,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>4</v>
       </c>
@@ -2759,7 +2757,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>5</v>
       </c>
@@ -2809,7 +2807,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>6</v>
       </c>
@@ -2859,7 +2857,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>7</v>
       </c>
@@ -2909,7 +2907,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>1</v>
       </c>
@@ -2961,7 +2959,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>2</v>
       </c>
@@ -3013,7 +3011,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>3</v>
       </c>
@@ -3065,7 +3063,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>4</v>
       </c>
@@ -3117,7 +3115,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>5</v>
       </c>
@@ -3169,7 +3167,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>6</v>
       </c>
@@ -3221,7 +3219,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>7</v>
       </c>
@@ -3273,7 +3271,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>0</v>
       </c>
@@ -3325,7 +3323,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>1</v>
       </c>
@@ -3377,7 +3375,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>2</v>
       </c>
@@ -3429,7 +3427,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>3</v>
       </c>
@@ -3481,7 +3479,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>4</v>
       </c>
@@ -3533,7 +3531,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>5</v>
       </c>
@@ -3585,7 +3583,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>6</v>
       </c>
@@ -3637,7 +3635,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>7</v>
       </c>
@@ -3689,7 +3687,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>1</v>
       </c>
@@ -3741,7 +3739,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>2</v>
       </c>
@@ -3793,7 +3791,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>3</v>
       </c>
@@ -3845,7 +3843,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>4</v>
       </c>
@@ -3897,7 +3895,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>5</v>
       </c>
@@ -3949,7 +3947,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>6</v>
       </c>
@@ -4001,7 +3999,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>7</v>
       </c>
@@ -4053,7 +4051,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>0</v>
       </c>
@@ -4107,7 +4105,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>1</v>
       </c>
@@ -4161,7 +4159,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>2</v>
       </c>
@@ -4215,7 +4213,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>3</v>
       </c>
@@ -4269,7 +4267,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>4</v>
       </c>
@@ -4323,7 +4321,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>5</v>
       </c>
@@ -4377,7 +4375,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>6</v>
       </c>
@@ -4431,7 +4429,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>7</v>
       </c>
@@ -4485,7 +4483,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>1</v>
       </c>
@@ -4537,7 +4535,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>2</v>
       </c>
@@ -4589,7 +4587,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>3</v>
       </c>
@@ -4641,7 +4639,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>4</v>
       </c>
@@ -4693,7 +4691,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>5</v>
       </c>
@@ -4745,7 +4743,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>6</v>
       </c>
@@ -4797,7 +4795,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>7</v>
       </c>
@@ -4849,7 +4847,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>1</v>
       </c>
@@ -4901,7 +4899,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>2</v>
       </c>
@@ -4953,7 +4951,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>3</v>
       </c>
@@ -5005,7 +5003,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>4</v>
       </c>
@@ -5057,7 +5055,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>5</v>
       </c>
@@ -5109,7 +5107,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>6</v>
       </c>
@@ -5161,7 +5159,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>7</v>
       </c>
@@ -5213,7 +5211,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>1</v>
       </c>
@@ -5265,7 +5263,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>2</v>
       </c>
@@ -5317,7 +5315,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>3</v>
       </c>
@@ -5369,7 +5367,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>4</v>
       </c>
@@ -5421,7 +5419,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>5</v>
       </c>
@@ -5473,7 +5471,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>6</v>
       </c>
@@ -5525,7 +5523,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>7</v>
       </c>
@@ -5577,7 +5575,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>0</v>
       </c>
@@ -5629,7 +5627,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>1</v>
       </c>
@@ -5681,7 +5679,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>2</v>
       </c>
@@ -5733,7 +5731,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>3</v>
       </c>
@@ -5785,7 +5783,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>4</v>
       </c>
@@ -5837,7 +5835,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>5</v>
       </c>
@@ -5889,7 +5887,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>6</v>
       </c>
@@ -5941,7 +5939,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>7</v>
       </c>
@@ -5993,7 +5991,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>0</v>
       </c>
@@ -6045,7 +6043,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>1</v>
       </c>
@@ -6097,7 +6095,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>2</v>
       </c>
@@ -6149,7 +6147,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>3</v>
       </c>
@@ -6201,7 +6199,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>4</v>
       </c>
@@ -6253,7 +6251,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>5</v>
       </c>
@@ -6305,7 +6303,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>6</v>
       </c>
@@ -6357,7 +6355,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>7</v>
       </c>
@@ -6409,7 +6407,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>0</v>
       </c>
@@ -6463,7 +6461,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>1</v>
       </c>
@@ -6517,7 +6515,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>2</v>
       </c>
@@ -6571,7 +6569,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>3</v>
       </c>
@@ -6625,7 +6623,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>4</v>
       </c>
@@ -6679,7 +6677,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>5</v>
       </c>
@@ -6733,7 +6731,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>6</v>
       </c>
@@ -6787,7 +6785,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>7</v>
       </c>
@@ -6841,7 +6839,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>1</v>
       </c>
@@ -6893,7 +6891,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>2</v>
       </c>
@@ -6945,7 +6943,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>3</v>
       </c>
@@ -6997,7 +6995,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>4</v>
       </c>
@@ -7049,7 +7047,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>5</v>
       </c>
@@ -7101,7 +7099,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>6</v>
       </c>
@@ -7153,7 +7151,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>7</v>
       </c>
@@ -7205,7 +7203,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>0</v>
       </c>
@@ -7259,7 +7257,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>1</v>
       </c>
@@ -7313,7 +7311,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>2</v>
       </c>
@@ -7367,7 +7365,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>3</v>
       </c>
@@ -7421,7 +7419,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>4</v>
       </c>
@@ -7475,7 +7473,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>5</v>
       </c>
@@ -7529,7 +7527,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>6</v>
       </c>
@@ -7583,7 +7581,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>7</v>
       </c>
@@ -7637,7 +7635,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>0</v>
       </c>
@@ -7691,7 +7689,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>1</v>
       </c>
@@ -7745,7 +7743,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>2</v>
       </c>
@@ -7799,7 +7797,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>3</v>
       </c>
@@ -7853,7 +7851,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>4</v>
       </c>
@@ -7907,7 +7905,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <v>5</v>
       </c>
@@ -7961,7 +7959,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <v>6</v>
       </c>
@@ -8015,7 +8013,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <v>7</v>
       </c>
@@ -8069,7 +8067,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>1</v>
       </c>
@@ -8121,7 +8119,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>2</v>
       </c>
@@ -8173,7 +8171,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
         <v>3</v>
       </c>
@@ -8225,7 +8223,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>4</v>
       </c>
@@ -8277,7 +8275,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>5</v>
       </c>
@@ -8329,7 +8327,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <v>6</v>
       </c>
@@ -8381,7 +8379,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <v>7</v>
       </c>
@@ -8433,7 +8431,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>1</v>
       </c>
@@ -8483,7 +8481,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>2</v>
       </c>
@@ -8533,7 +8531,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <v>3</v>
       </c>
@@ -8583,7 +8581,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <v>4</v>
       </c>
@@ -8633,7 +8631,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
         <v>5</v>
       </c>
@@ -8683,7 +8681,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>6</v>
       </c>
@@ -8733,7 +8731,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>1</v>
       </c>
@@ -8783,7 +8781,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7">
         <v>2</v>
       </c>
@@ -8833,7 +8831,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>3</v>
       </c>
@@ -8883,7 +8881,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>4</v>
       </c>
@@ -8933,7 +8931,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>5</v>
       </c>
@@ -8983,7 +8981,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>6</v>
       </c>
@@ -9033,7 +9031,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <v>7</v>
       </c>
@@ -9083,7 +9081,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <v>1</v>
       </c>
@@ -9133,7 +9131,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <v>1</v>
       </c>
@@ -9183,7 +9181,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>1.5</v>
       </c>
@@ -9236,7 +9234,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
         <v>2</v>
       </c>
@@ -9286,7 +9284,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>2</v>
       </c>
@@ -9336,7 +9334,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>2.5</v>
       </c>
@@ -9389,7 +9387,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>3</v>
       </c>
@@ -9439,7 +9437,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
         <v>3</v>
       </c>
@@ -9489,7 +9487,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <v>4</v>
       </c>
@@ -9539,7 +9537,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <v>4</v>
       </c>
@@ -9589,7 +9587,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <v>5</v>
       </c>
@@ -9639,7 +9637,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <v>6</v>
       </c>
@@ -9689,7 +9687,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>7</v>
       </c>
@@ -9739,7 +9737,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <v>8</v>
       </c>
@@ -9789,7 +9787,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>0</v>
       </c>
@@ -9839,7 +9837,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>1</v>
       </c>
@@ -9889,7 +9887,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <v>2</v>
       </c>
@@ -9939,7 +9937,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>3</v>
       </c>
@@ -9989,7 +9987,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>4</v>
       </c>
@@ -10039,7 +10037,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>5</v>
       </c>
@@ -10089,7 +10087,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>6</v>
       </c>
@@ -10139,7 +10137,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <v>7</v>
       </c>
@@ -10189,7 +10187,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
         <v>8</v>
       </c>
@@ -10239,7 +10237,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
         <v>0</v>
       </c>
@@ -10291,7 +10289,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>1</v>
       </c>
@@ -10343,7 +10341,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
         <v>2</v>
       </c>
@@ -10395,7 +10393,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>3</v>
       </c>
@@ -10447,7 +10445,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="7">
         <v>4</v>
       </c>
@@ -10499,7 +10497,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>5</v>
       </c>
@@ -10551,7 +10549,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="7">
         <v>6</v>
       </c>
@@ -10603,7 +10601,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>7</v>
       </c>
@@ -10655,7 +10653,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="7">
         <v>8</v>
       </c>
@@ -10707,7 +10705,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="7">
         <v>0</v>
       </c>
@@ -10755,7 +10753,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>1</v>
       </c>
@@ -10803,7 +10801,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="7">
         <v>2</v>
       </c>
@@ -10851,7 +10849,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>3</v>
       </c>
@@ -10899,7 +10897,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="7">
         <v>4</v>
       </c>
@@ -10947,7 +10945,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>5</v>
       </c>
@@ -10995,7 +10993,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="7">
         <v>6</v>
       </c>
@@ -11043,7 +11041,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>7</v>
       </c>
@@ -11091,7 +11089,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="7">
         <v>8</v>
       </c>
@@ -11139,7 +11137,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>0</v>
       </c>
@@ -11191,7 +11189,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="7">
         <v>1</v>
       </c>
@@ -11243,7 +11241,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>2</v>
       </c>
@@ -11295,7 +11293,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="7">
         <v>3</v>
       </c>
@@ -11347,7 +11345,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>4</v>
       </c>
@@ -11399,7 +11397,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="7">
         <v>5</v>
       </c>
@@ -11451,7 +11449,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>6</v>
       </c>
@@ -11503,7 +11501,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="7">
         <v>7</v>
       </c>
@@ -11555,7 +11553,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>8</v>
       </c>
@@ -11607,7 +11605,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
         <v>1</v>
       </c>
@@ -11657,7 +11655,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>1.5</v>
       </c>
@@ -11710,7 +11708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="7">
         <v>2</v>
       </c>
@@ -11760,7 +11758,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>2</v>
       </c>
@@ -11810,7 +11808,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="7">
         <v>2.5</v>
       </c>
@@ -11863,7 +11861,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>3</v>
       </c>
@@ -11913,7 +11911,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="7">
         <v>3</v>
       </c>
@@ -11963,7 +11961,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>4</v>
       </c>
@@ -12013,7 +12011,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="7">
         <v>4</v>
       </c>
@@ -12063,7 +12061,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="7">
         <v>5</v>
       </c>
@@ -12113,7 +12111,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="7">
         <v>6</v>
       </c>
@@ -12163,7 +12161,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>7</v>
       </c>
@@ -12213,7 +12211,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>8</v>
       </c>
@@ -12263,7 +12261,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>0</v>
       </c>
@@ -12315,7 +12313,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
         <v>1</v>
       </c>
@@ -12367,7 +12365,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>2</v>
       </c>
@@ -12419,7 +12417,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="7">
         <v>3</v>
       </c>
@@ -12471,7 +12469,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>4</v>
       </c>
@@ -12523,7 +12521,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="7">
         <v>5</v>
       </c>
@@ -12575,7 +12573,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>6</v>
       </c>
@@ -12627,7 +12625,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="7">
         <v>7</v>
       </c>
@@ -12679,7 +12677,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>8</v>
       </c>
@@ -12731,7 +12729,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="7">
         <v>0</v>
       </c>
@@ -12783,7 +12781,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>1</v>
       </c>
@@ -12835,7 +12833,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="7">
         <v>2</v>
       </c>
@@ -12887,7 +12885,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>3</v>
       </c>
@@ -12939,7 +12937,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="7">
         <v>4</v>
       </c>
@@ -12991,7 +12989,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>5</v>
       </c>
@@ -13043,7 +13041,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="7">
         <v>6</v>
       </c>
@@ -13095,7 +13093,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>7</v>
       </c>
@@ -13147,7 +13145,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="7">
         <v>8</v>
       </c>
@@ -13199,7 +13197,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="7">
         <v>1</v>
       </c>
@@ -13249,7 +13247,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>2</v>
       </c>
@@ -13299,7 +13297,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>3</v>
       </c>
@@ -13349,7 +13347,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="7">
         <v>4</v>
       </c>
@@ -13399,7 +13397,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="7">
         <v>5</v>
       </c>
@@ -13449,7 +13447,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="7">
         <v>6</v>
       </c>
@@ -13499,7 +13497,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="7">
         <v>7</v>
       </c>
@@ -13549,7 +13547,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>8</v>
       </c>
@@ -13599,7 +13597,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="7">
         <v>0</v>
       </c>
@@ -13652,7 +13650,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>2</v>
       </c>
@@ -13705,7 +13703,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>3.5</v>
       </c>
@@ -13758,7 +13756,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>7.5</v>
       </c>
@@ -13811,7 +13809,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="7">
         <v>2</v>
       </c>
@@ -13864,7 +13862,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>3.5</v>
       </c>
@@ -13917,7 +13915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>7.5</v>
       </c>
@@ -13970,7 +13968,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>2</v>
       </c>
@@ -14023,7 +14021,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>3.5</v>
       </c>
@@ -14076,7 +14074,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="7">
         <v>7.5</v>
       </c>
@@ -14129,7 +14127,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="7">
         <v>0</v>
       </c>
@@ -14182,7 +14180,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="7">
         <v>0</v>
       </c>
@@ -14235,7 +14233,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="7">
         <v>0.5</v>
       </c>
@@ -14291,7 +14289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="7">
         <v>0.5</v>
       </c>
@@ -14347,7 +14345,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="7">
         <v>1</v>
       </c>
@@ -14400,7 +14398,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="7">
         <v>1</v>
       </c>
@@ -14453,7 +14451,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="16">
         <v>1.5</v>
       </c>
@@ -14509,7 +14507,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="7">
         <v>1.5</v>
       </c>
@@ -14565,7 +14563,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="7">
         <v>2</v>
       </c>
@@ -14618,7 +14616,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="7">
         <v>2</v>
       </c>
@@ -14671,7 +14669,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="7">
         <v>2.5</v>
       </c>
@@ -14727,7 +14725,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="7">
         <v>2.5</v>
       </c>
@@ -14783,7 +14781,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="7">
         <v>3</v>
       </c>
@@ -14836,7 +14834,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="7">
         <v>3</v>
       </c>
@@ -14889,7 +14887,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="7">
         <v>3.5</v>
       </c>
@@ -14945,7 +14943,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="7">
         <v>3.5</v>
       </c>
@@ -15001,7 +14999,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="7">
         <v>4</v>
       </c>
@@ -15054,7 +15052,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="7">
         <v>4</v>
       </c>
@@ -15107,7 +15105,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="7">
         <v>4.5</v>
       </c>
@@ -15163,7 +15161,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="7">
         <v>4.5</v>
       </c>
@@ -15219,7 +15217,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="7">
         <v>5</v>
       </c>
@@ -15272,7 +15270,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="7">
         <v>5</v>
       </c>
@@ -15325,7 +15323,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="7">
         <v>5.5</v>
       </c>
@@ -15381,7 +15379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="7">
         <v>5.5</v>
       </c>
@@ -15437,7 +15435,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="16">
         <v>6</v>
       </c>
@@ -15490,7 +15488,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="18">
         <v>0.5</v>
       </c>
@@ -15543,7 +15541,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="18">
         <v>1</v>
       </c>
@@ -15593,7 +15591,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="18">
         <v>1.5</v>
       </c>
@@ -15646,7 +15644,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2</v>
       </c>
@@ -15696,7 +15694,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>3</v>
       </c>
@@ -15746,7 +15744,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="18">
         <v>4</v>
       </c>
@@ -15796,7 +15794,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="18">
         <v>5</v>
       </c>
@@ -15846,7 +15844,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1</v>
       </c>
@@ -15897,7 +15895,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="18">
         <v>2</v>
       </c>
@@ -15949,7 +15947,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>4</v>
       </c>
@@ -16000,7 +15998,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>6</v>
       </c>
@@ -16051,7 +16049,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="18">
         <v>1</v>
       </c>
@@ -16103,7 +16101,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2</v>
       </c>
@@ -16154,7 +16152,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="18">
         <v>4</v>
       </c>
@@ -16206,7 +16204,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="18">
         <v>6</v>
       </c>
@@ -16258,7 +16256,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="18">
         <v>1</v>
       </c>
@@ -16310,7 +16308,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>2</v>
       </c>
@@ -16361,7 +16359,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="18">
         <v>4</v>
       </c>
@@ -16413,7 +16411,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="18">
         <v>6</v>
       </c>
@@ -16465,7 +16463,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1</v>
       </c>
@@ -16516,7 +16514,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="18">
         <v>2</v>
       </c>
@@ -16568,7 +16566,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>4</v>
       </c>
@@ -16619,7 +16617,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>6</v>
       </c>
@@ -16670,7 +16668,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>0</v>
       </c>
@@ -16723,7 +16721,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1</v>
       </c>
@@ -16776,7 +16774,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>2</v>
       </c>
@@ -16829,7 +16827,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>3</v>
       </c>
@@ -16882,7 +16880,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>4</v>
       </c>
@@ -16935,7 +16933,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>5</v>
       </c>
@@ -16988,7 +16986,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>6</v>
       </c>
@@ -17041,7 +17039,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>7</v>
       </c>
@@ -17094,7 +17092,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>8</v>
       </c>
@@ -17147,7 +17145,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>9</v>
       </c>
@@ -17200,7 +17198,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>10</v>
       </c>
@@ -17253,7 +17251,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>11</v>
       </c>
@@ -17346,7 +17344,7 @@
         <v>22</v>
       </c>
       <c r="O319" s="5" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="P319" s="5" t="s">
         <v>53</v>
@@ -17398,7 +17396,7 @@
         <v>22</v>
       </c>
       <c r="O320" s="5" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="P320" s="8" t="s">
         <v>53</v>
@@ -17450,7 +17448,7 @@
         <v>22</v>
       </c>
       <c r="O321" s="5" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="P321" s="8" t="s">
         <v>53</v>
@@ -17502,7 +17500,7 @@
         <v>22</v>
       </c>
       <c r="O322" s="5" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="P322" s="5" t="s">
         <v>53</v>
@@ -17554,7 +17552,7 @@
         <v>22</v>
       </c>
       <c r="O323" s="5" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="P323" s="5" t="s">
         <v>53</v>
@@ -17606,7 +17604,7 @@
         <v>22</v>
       </c>
       <c r="O324" s="5" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="P324" s="5" t="s">
         <v>53</v>
@@ -17658,7 +17656,7 @@
         <v>22</v>
       </c>
       <c r="O325" s="5" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="P325" s="8" t="s">
         <v>53</v>
@@ -17710,7 +17708,7 @@
         <v>22</v>
       </c>
       <c r="O326" s="5" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="P326" s="8" t="s">
         <v>53</v>
@@ -17762,7 +17760,7 @@
         <v>22</v>
       </c>
       <c r="O327" s="5" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="P327" s="5" t="s">
         <v>53</v>
@@ -17814,7 +17812,7 @@
         <v>22</v>
       </c>
       <c r="O328" s="5" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="P328" s="8" t="s">
         <v>53</v>
@@ -17826,7 +17824,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1</v>
       </c>
@@ -17877,7 +17875,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1</v>
       </c>
@@ -17928,7 +17926,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="18">
         <v>2</v>
       </c>
@@ -17980,7 +17978,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="18">
         <v>2</v>
       </c>
@@ -18032,7 +18030,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>3</v>
       </c>
@@ -18083,7 +18081,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="18">
         <v>3</v>
       </c>
@@ -18135,7 +18133,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="18">
         <v>4</v>
       </c>
@@ -18187,7 +18185,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>4</v>
       </c>
@@ -18238,7 +18236,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="18">
         <v>5</v>
       </c>
@@ -18290,7 +18288,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>5</v>
       </c>
@@ -18341,7 +18339,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>6</v>
       </c>
@@ -18392,7 +18390,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>6</v>
       </c>
@@ -18443,7 +18441,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="18">
         <v>7</v>
       </c>
@@ -18495,7 +18493,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="18">
         <v>7</v>
       </c>
@@ -18547,7 +18545,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="18">
         <v>8</v>
       </c>
@@ -18599,7 +18597,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>9</v>
       </c>
@@ -18650,7 +18648,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="18">
         <v>10</v>
       </c>
@@ -18702,7 +18700,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="18">
         <v>1</v>
       </c>
@@ -18752,7 +18750,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>2</v>
       </c>
@@ -18800,7 +18798,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="18">
         <v>3</v>
       </c>
@@ -18850,7 +18848,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="18">
         <v>4</v>
       </c>
@@ -18900,7 +18898,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="18">
         <v>5</v>
       </c>
@@ -18950,7 +18948,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="18">
         <v>6</v>
       </c>
@@ -19000,7 +18998,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="18">
         <v>7</v>
       </c>
@@ -19050,7 +19048,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1</v>
       </c>
@@ -19098,7 +19096,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="18">
         <v>2</v>
       </c>
@@ -19148,7 +19146,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>3</v>
       </c>
@@ -19196,7 +19194,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>4</v>
       </c>
@@ -19244,7 +19242,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>5</v>
       </c>
@@ -19292,7 +19290,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>6</v>
       </c>
@@ -19340,7 +19338,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>7</v>
       </c>
@@ -19388,7 +19386,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1</v>
       </c>
@@ -19438,7 +19436,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>2</v>
       </c>
@@ -19488,7 +19486,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>3</v>
       </c>
@@ -19538,7 +19536,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>4</v>
       </c>
@@ -19588,7 +19586,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>5</v>
       </c>
@@ -19638,7 +19636,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>6</v>
       </c>
@@ -19688,7 +19686,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>7</v>
       </c>
@@ -19738,7 +19736,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1</v>
       </c>
@@ -19788,7 +19786,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>2</v>
       </c>
@@ -19838,7 +19836,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>3</v>
       </c>
@@ -19888,7 +19886,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>4</v>
       </c>
@@ -19938,7 +19936,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>5</v>
       </c>
@@ -19988,7 +19986,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>6</v>
       </c>
@@ -20038,7 +20036,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>7</v>
       </c>
@@ -20088,7 +20086,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1</v>
       </c>
@@ -20138,7 +20136,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2</v>
       </c>
@@ -20188,7 +20186,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>3</v>
       </c>
@@ -20238,7 +20236,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>4</v>
       </c>
@@ -20288,7 +20286,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>5</v>
       </c>
@@ -20338,7 +20336,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>6</v>
       </c>
@@ -20388,7 +20386,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>7</v>
       </c>
@@ -20438,7 +20436,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>0</v>
       </c>
@@ -20488,7 +20486,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>0</v>
       </c>
@@ -20538,7 +20536,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1</v>
       </c>
@@ -20588,7 +20586,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1</v>
       </c>
@@ -20638,7 +20636,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>2</v>
       </c>
@@ -20688,7 +20686,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2</v>
       </c>
@@ -20738,7 +20736,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>3</v>
       </c>
@@ -20788,7 +20786,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>3</v>
       </c>
@@ -20838,7 +20836,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>4</v>
       </c>
@@ -20888,7 +20886,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>4</v>
       </c>
@@ -20938,7 +20936,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>5</v>
       </c>
@@ -20988,7 +20986,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>5</v>
       </c>
@@ -21038,7 +21036,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>6</v>
       </c>
@@ -21088,7 +21086,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>6</v>
       </c>
@@ -21138,7 +21136,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>7</v>
       </c>
@@ -21188,7 +21186,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>7</v>
       </c>
@@ -21238,7 +21236,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>0</v>
       </c>
@@ -21288,7 +21286,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>0</v>
       </c>
@@ -21338,7 +21336,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1</v>
       </c>
@@ -21388,7 +21386,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1</v>
       </c>
@@ -21438,7 +21436,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>2</v>
       </c>
@@ -21488,7 +21486,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>2</v>
       </c>
@@ -21538,7 +21536,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>3</v>
       </c>
@@ -21588,7 +21586,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>3</v>
       </c>
@@ -21638,7 +21636,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>4</v>
       </c>
@@ -21688,7 +21686,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>4</v>
       </c>
@@ -21738,7 +21736,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>5</v>
       </c>
@@ -21788,7 +21786,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>5</v>
       </c>
@@ -21838,7 +21836,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>6</v>
       </c>
@@ -21888,7 +21886,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>6</v>
       </c>
@@ -21938,7 +21936,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>7</v>
       </c>
@@ -21988,7 +21986,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>7</v>
       </c>
@@ -22038,7 +22036,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>0</v>
       </c>
@@ -22088,7 +22086,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>0</v>
       </c>
@@ -22138,7 +22136,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>1</v>
       </c>
@@ -22188,7 +22186,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1</v>
       </c>
@@ -22238,7 +22236,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2</v>
       </c>
@@ -22288,7 +22286,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>2</v>
       </c>
@@ -22338,7 +22336,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>3</v>
       </c>
@@ -22388,7 +22386,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>3</v>
       </c>
@@ -22438,7 +22436,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>4</v>
       </c>
@@ -22488,7 +22486,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>4</v>
       </c>
@@ -22538,7 +22536,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>5</v>
       </c>
@@ -22588,7 +22586,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>5</v>
       </c>
@@ -22638,7 +22636,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>6</v>
       </c>
@@ -22688,7 +22686,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>6</v>
       </c>
@@ -22738,7 +22736,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>7</v>
       </c>
@@ -22788,7 +22786,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>7</v>
       </c>
@@ -22838,7 +22836,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>0</v>
       </c>
@@ -22888,7 +22886,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>0</v>
       </c>
@@ -22938,7 +22936,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>1</v>
       </c>
@@ -22988,7 +22986,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>1</v>
       </c>
@@ -23038,7 +23036,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>2</v>
       </c>
@@ -23088,7 +23086,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>2</v>
       </c>
@@ -23138,7 +23136,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>3</v>
       </c>
@@ -23188,7 +23186,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>3</v>
       </c>
@@ -23238,7 +23236,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>4</v>
       </c>
@@ -23288,7 +23286,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>4</v>
       </c>
@@ -23338,7 +23336,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>5</v>
       </c>
@@ -23388,7 +23386,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>5</v>
       </c>
@@ -23438,7 +23436,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>6</v>
       </c>
@@ -23488,7 +23486,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>6</v>
       </c>
@@ -23538,7 +23536,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>7</v>
       </c>
@@ -23588,7 +23586,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>7</v>
       </c>
@@ -23638,7 +23636,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="18">
         <v>1</v>
       </c>
@@ -23690,7 +23688,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>1</v>
       </c>
@@ -23742,7 +23740,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>2</v>
       </c>
@@ -23794,7 +23792,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="18">
         <v>2</v>
       </c>
@@ -23846,7 +23844,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="18">
         <v>3</v>
       </c>
@@ -23898,7 +23896,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>3</v>
       </c>
@@ -23950,7 +23948,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>4</v>
       </c>
@@ -24002,7 +24000,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="18">
         <v>4</v>
       </c>
@@ -24054,7 +24052,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>5</v>
       </c>
@@ -24106,7 +24104,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="18">
         <v>5</v>
       </c>
@@ -24158,7 +24156,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="18">
         <v>6</v>
       </c>
@@ -24210,7 +24208,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>6</v>
       </c>
@@ -24262,7 +24260,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="18">
         <v>7</v>
       </c>
@@ -24314,7 +24312,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>7</v>
       </c>
@@ -24367,6 +24365,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S458" xr:uid="{D77C534B-1212-4161-8C68-A242F4FEFD13}">
+    <filterColumn colId="14">
+      <filters>
+        <filter val="1E3-7 H1N1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R458">
     <sortCondition ref="K2:K458"/>
     <sortCondition ref="B2:B458"/>

--- a/Data/Human Voluntary Data.xlsx
+++ b/Data/Human Voluntary Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorda\OneDrive\Documents\GitHub\VPC\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorda\Documents\GitHub\VPC\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E27AAE-9120-42A6-BCBC-F759C1035505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A81EF4-DAF6-48A7-AD99-258585AA6656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{BB102C53-C3E1-4D54-83D1-542FA604C574}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27945" windowHeight="16440" xr2:uid="{BB102C53-C3E1-4D54-83D1-542FA604C574}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -792,11 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77C534B-1212-4161-8C68-A242F4FEFD13}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:S458"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O462" sqref="O462"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +862,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -913,7 +912,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -963,7 +962,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1.5</v>
       </c>
@@ -1016,7 +1015,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1.5</v>
       </c>
@@ -1069,7 +1068,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -1119,7 +1118,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -1169,7 +1168,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2.5</v>
       </c>
@@ -1222,7 +1221,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2.5</v>
       </c>
@@ -1275,7 +1274,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>3</v>
       </c>
@@ -1325,7 +1324,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -1375,7 +1374,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>3.5</v>
       </c>
@@ -1428,7 +1427,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>3.5</v>
       </c>
@@ -1481,7 +1480,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>4</v>
       </c>
@@ -1531,7 +1530,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>4</v>
       </c>
@@ -1581,7 +1580,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>5</v>
       </c>
@@ -1631,7 +1630,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>5</v>
       </c>
@@ -1681,7 +1680,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>6</v>
       </c>
@@ -1731,7 +1730,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>6</v>
       </c>
@@ -1781,7 +1780,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>7</v>
       </c>
@@ -1831,7 +1830,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>7</v>
       </c>
@@ -1881,7 +1880,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>0</v>
       </c>
@@ -1933,7 +1932,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>0.5</v>
       </c>
@@ -1985,7 +1984,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>1</v>
       </c>
@@ -2037,7 +2036,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>1.5</v>
       </c>
@@ -2089,7 +2088,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>2</v>
       </c>
@@ -2141,7 +2140,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>2.5</v>
       </c>
@@ -2193,7 +2192,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>3</v>
       </c>
@@ -2245,7 +2244,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>3.5</v>
       </c>
@@ -2297,7 +2296,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>4</v>
       </c>
@@ -2349,7 +2348,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>4.5</v>
       </c>
@@ -2401,7 +2400,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>5</v>
       </c>
@@ -2453,7 +2452,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>5.5</v>
       </c>
@@ -2505,7 +2504,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>6</v>
       </c>
@@ -2557,7 +2556,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>1</v>
       </c>
@@ -2607,7 +2606,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>2</v>
       </c>
@@ -2657,7 +2656,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>3</v>
       </c>
@@ -2707,7 +2706,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>4</v>
       </c>
@@ -2757,7 +2756,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>5</v>
       </c>
@@ -2807,7 +2806,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>6</v>
       </c>
@@ -2857,7 +2856,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>7</v>
       </c>
@@ -2907,7 +2906,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>1</v>
       </c>
@@ -2959,7 +2958,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>2</v>
       </c>
@@ -3011,7 +3010,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>3</v>
       </c>
@@ -3063,7 +3062,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>4</v>
       </c>
@@ -3115,7 +3114,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>5</v>
       </c>
@@ -3167,7 +3166,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>6</v>
       </c>
@@ -3219,7 +3218,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>7</v>
       </c>
@@ -3271,7 +3270,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>0</v>
       </c>
@@ -3323,7 +3322,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>1</v>
       </c>
@@ -3375,7 +3374,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>2</v>
       </c>
@@ -3427,7 +3426,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>3</v>
       </c>
@@ -3479,7 +3478,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>4</v>
       </c>
@@ -3531,7 +3530,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>5</v>
       </c>
@@ -3583,7 +3582,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>6</v>
       </c>
@@ -3635,7 +3634,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>7</v>
       </c>
@@ -3687,7 +3686,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>1</v>
       </c>
@@ -3739,7 +3738,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>2</v>
       </c>
@@ -3791,7 +3790,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>3</v>
       </c>
@@ -3843,7 +3842,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>4</v>
       </c>
@@ -3895,7 +3894,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>5</v>
       </c>
@@ -3947,7 +3946,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>6</v>
       </c>
@@ -3999,7 +3998,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>7</v>
       </c>
@@ -4051,7 +4050,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>0</v>
       </c>
@@ -4105,7 +4104,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>1</v>
       </c>
@@ -4159,7 +4158,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>2</v>
       </c>
@@ -4213,7 +4212,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>3</v>
       </c>
@@ -4267,7 +4266,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>4</v>
       </c>
@@ -4321,7 +4320,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>5</v>
       </c>
@@ -4375,7 +4374,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>6</v>
       </c>
@@ -4429,7 +4428,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>7</v>
       </c>
@@ -4483,7 +4482,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>1</v>
       </c>
@@ -4535,7 +4534,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>2</v>
       </c>
@@ -4587,7 +4586,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>3</v>
       </c>
@@ -4639,7 +4638,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>4</v>
       </c>
@@ -4691,7 +4690,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>5</v>
       </c>
@@ -4743,7 +4742,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>6</v>
       </c>
@@ -4795,7 +4794,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>7</v>
       </c>
@@ -4847,7 +4846,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>1</v>
       </c>
@@ -4899,7 +4898,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>2</v>
       </c>
@@ -4951,7 +4950,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>3</v>
       </c>
@@ -5003,7 +5002,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>4</v>
       </c>
@@ -5055,7 +5054,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>5</v>
       </c>
@@ -5107,7 +5106,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>6</v>
       </c>
@@ -5159,7 +5158,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>7</v>
       </c>
@@ -5211,7 +5210,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>1</v>
       </c>
@@ -5263,7 +5262,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>2</v>
       </c>
@@ -5315,7 +5314,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>3</v>
       </c>
@@ -5367,7 +5366,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>4</v>
       </c>
@@ -5419,7 +5418,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>5</v>
       </c>
@@ -5471,7 +5470,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>6</v>
       </c>
@@ -5523,7 +5522,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>7</v>
       </c>
@@ -5575,7 +5574,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>0</v>
       </c>
@@ -5627,7 +5626,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>1</v>
       </c>
@@ -5679,7 +5678,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>2</v>
       </c>
@@ -5731,7 +5730,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>3</v>
       </c>
@@ -5783,7 +5782,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>4</v>
       </c>
@@ -5835,7 +5834,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>5</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>6</v>
       </c>
@@ -5939,7 +5938,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>7</v>
       </c>
@@ -5991,7 +5990,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>0</v>
       </c>
@@ -6043,7 +6042,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>1</v>
       </c>
@@ -6095,7 +6094,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>2</v>
       </c>
@@ -6147,7 +6146,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>3</v>
       </c>
@@ -6199,7 +6198,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>4</v>
       </c>
@@ -6251,7 +6250,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>5</v>
       </c>
@@ -6303,7 +6302,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>6</v>
       </c>
@@ -6355,7 +6354,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>7</v>
       </c>
@@ -6407,7 +6406,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>0</v>
       </c>
@@ -6461,7 +6460,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>1</v>
       </c>
@@ -6515,7 +6514,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>2</v>
       </c>
@@ -6569,7 +6568,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>3</v>
       </c>
@@ -6623,7 +6622,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>4</v>
       </c>
@@ -6677,7 +6676,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>5</v>
       </c>
@@ -6731,7 +6730,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>6</v>
       </c>
@@ -6785,7 +6784,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>7</v>
       </c>
@@ -6839,7 +6838,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>1</v>
       </c>
@@ -6891,7 +6890,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>2</v>
       </c>
@@ -6943,7 +6942,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>3</v>
       </c>
@@ -6995,7 +6994,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>4</v>
       </c>
@@ -7047,7 +7046,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>5</v>
       </c>
@@ -7099,7 +7098,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>6</v>
       </c>
@@ -7151,7 +7150,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>7</v>
       </c>
@@ -7203,7 +7202,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>0</v>
       </c>
@@ -7257,7 +7256,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>1</v>
       </c>
@@ -7311,7 +7310,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>2</v>
       </c>
@@ -7365,7 +7364,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>3</v>
       </c>
@@ -7419,7 +7418,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>4</v>
       </c>
@@ -7473,7 +7472,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>5</v>
       </c>
@@ -7527,7 +7526,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>6</v>
       </c>
@@ -7581,7 +7580,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>7</v>
       </c>
@@ -7635,7 +7634,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>0</v>
       </c>
@@ -7689,7 +7688,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>1</v>
       </c>
@@ -7743,7 +7742,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>2</v>
       </c>
@@ -7797,7 +7796,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>3</v>
       </c>
@@ -7851,7 +7850,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>4</v>
       </c>
@@ -7905,7 +7904,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <v>5</v>
       </c>
@@ -7959,7 +7958,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <v>6</v>
       </c>
@@ -8013,7 +8012,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <v>7</v>
       </c>
@@ -8067,7 +8066,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>1</v>
       </c>
@@ -8119,7 +8118,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>2</v>
       </c>
@@ -8171,7 +8170,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
         <v>3</v>
       </c>
@@ -8223,7 +8222,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>4</v>
       </c>
@@ -8275,7 +8274,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>5</v>
       </c>
@@ -8327,7 +8326,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <v>6</v>
       </c>
@@ -8379,7 +8378,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <v>7</v>
       </c>
@@ -8431,7 +8430,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>1</v>
       </c>
@@ -8481,7 +8480,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>2</v>
       </c>
@@ -8531,7 +8530,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <v>3</v>
       </c>
@@ -8581,7 +8580,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <v>4</v>
       </c>
@@ -8631,7 +8630,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
         <v>5</v>
       </c>
@@ -8681,7 +8680,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>6</v>
       </c>
@@ -8731,7 +8730,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>1</v>
       </c>
@@ -8781,7 +8780,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="7">
         <v>2</v>
       </c>
@@ -8831,7 +8830,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>3</v>
       </c>
@@ -8881,7 +8880,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>4</v>
       </c>
@@ -8931,7 +8930,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>5</v>
       </c>
@@ -8981,7 +8980,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>6</v>
       </c>
@@ -9031,7 +9030,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <v>7</v>
       </c>
@@ -9081,7 +9080,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <v>1</v>
       </c>
@@ -9131,7 +9130,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <v>1</v>
       </c>
@@ -9181,7 +9180,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>1.5</v>
       </c>
@@ -9234,7 +9233,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
         <v>2</v>
       </c>
@@ -9284,7 +9283,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>2</v>
       </c>
@@ -9334,7 +9333,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>2.5</v>
       </c>
@@ -9387,7 +9386,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>3</v>
       </c>
@@ -9437,7 +9436,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
         <v>3</v>
       </c>
@@ -9487,7 +9486,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <v>4</v>
       </c>
@@ -9537,7 +9536,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <v>4</v>
       </c>
@@ -9587,7 +9586,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <v>5</v>
       </c>
@@ -9637,7 +9636,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <v>6</v>
       </c>
@@ -9687,7 +9686,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>7</v>
       </c>
@@ -9737,7 +9736,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <v>8</v>
       </c>
@@ -9787,7 +9786,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>0</v>
       </c>
@@ -9837,7 +9836,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>1</v>
       </c>
@@ -9887,7 +9886,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <v>2</v>
       </c>
@@ -9937,7 +9936,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>3</v>
       </c>
@@ -9987,7 +9986,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>4</v>
       </c>
@@ -10037,7 +10036,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>5</v>
       </c>
@@ -10087,7 +10086,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>6</v>
       </c>
@@ -10137,7 +10136,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <v>7</v>
       </c>
@@ -10187,7 +10186,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
         <v>8</v>
       </c>
@@ -10237,7 +10236,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
         <v>0</v>
       </c>
@@ -10289,7 +10288,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>1</v>
       </c>
@@ -10341,7 +10340,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
         <v>2</v>
       </c>
@@ -10393,7 +10392,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>3</v>
       </c>
@@ -10445,7 +10444,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="7">
         <v>4</v>
       </c>
@@ -10497,7 +10496,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>5</v>
       </c>
@@ -10549,7 +10548,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="7">
         <v>6</v>
       </c>
@@ -10601,7 +10600,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>7</v>
       </c>
@@ -10653,7 +10652,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="7">
         <v>8</v>
       </c>
@@ -10705,7 +10704,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="7">
         <v>0</v>
       </c>
@@ -10753,7 +10752,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>1</v>
       </c>
@@ -10801,7 +10800,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="7">
         <v>2</v>
       </c>
@@ -10849,7 +10848,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>3</v>
       </c>
@@ -10897,7 +10896,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="7">
         <v>4</v>
       </c>
@@ -10945,7 +10944,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>5</v>
       </c>
@@ -10993,7 +10992,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="7">
         <v>6</v>
       </c>
@@ -11041,7 +11040,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>7</v>
       </c>
@@ -11089,7 +11088,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="7">
         <v>8</v>
       </c>
@@ -11137,7 +11136,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>0</v>
       </c>
@@ -11189,7 +11188,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="7">
         <v>1</v>
       </c>
@@ -11241,7 +11240,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>2</v>
       </c>
@@ -11293,7 +11292,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="7">
         <v>3</v>
       </c>
@@ -11345,7 +11344,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>4</v>
       </c>
@@ -11397,7 +11396,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="7">
         <v>5</v>
       </c>
@@ -11449,7 +11448,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>6</v>
       </c>
@@ -11501,7 +11500,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="7">
         <v>7</v>
       </c>
@@ -11553,7 +11552,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>8</v>
       </c>
@@ -11605,7 +11604,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
         <v>1</v>
       </c>
@@ -11655,7 +11654,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>1.5</v>
       </c>
@@ -11708,7 +11707,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" s="7">
         <v>2</v>
       </c>
@@ -11758,7 +11757,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>2</v>
       </c>
@@ -11808,7 +11807,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" s="7">
         <v>2.5</v>
       </c>
@@ -11861,7 +11860,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>3</v>
       </c>
@@ -11911,7 +11910,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="7">
         <v>3</v>
       </c>
@@ -11961,7 +11960,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>4</v>
       </c>
@@ -12011,7 +12010,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="7">
         <v>4</v>
       </c>
@@ -12061,7 +12060,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="7">
         <v>5</v>
       </c>
@@ -12111,7 +12110,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" s="7">
         <v>6</v>
       </c>
@@ -12161,7 +12160,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>7</v>
       </c>
@@ -12211,7 +12210,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>8</v>
       </c>
@@ -12261,7 +12260,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>0</v>
       </c>
@@ -12313,7 +12312,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
         <v>1</v>
       </c>
@@ -12365,7 +12364,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>2</v>
       </c>
@@ -12417,7 +12416,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="7">
         <v>3</v>
       </c>
@@ -12469,7 +12468,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>4</v>
       </c>
@@ -12521,7 +12520,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="7">
         <v>5</v>
       </c>
@@ -12573,7 +12572,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>6</v>
       </c>
@@ -12625,7 +12624,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" s="7">
         <v>7</v>
       </c>
@@ -12677,7 +12676,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="231" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>8</v>
       </c>
@@ -12729,7 +12728,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" s="7">
         <v>0</v>
       </c>
@@ -12781,7 +12780,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="233" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>1</v>
       </c>
@@ -12833,7 +12832,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" s="7">
         <v>2</v>
       </c>
@@ -12885,7 +12884,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>3</v>
       </c>
@@ -12937,7 +12936,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" s="7">
         <v>4</v>
       </c>
@@ -12989,7 +12988,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="237" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>5</v>
       </c>
@@ -13041,7 +13040,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" s="7">
         <v>6</v>
       </c>
@@ -13093,7 +13092,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>7</v>
       </c>
@@ -13145,7 +13144,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" s="7">
         <v>8</v>
       </c>
@@ -13197,7 +13196,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="7">
         <v>1</v>
       </c>
@@ -13247,7 +13246,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>2</v>
       </c>
@@ -13297,7 +13296,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>3</v>
       </c>
@@ -13347,7 +13346,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="7">
         <v>4</v>
       </c>
@@ -13397,7 +13396,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="7">
         <v>5</v>
       </c>
@@ -13447,7 +13446,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" s="7">
         <v>6</v>
       </c>
@@ -13497,7 +13496,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" s="7">
         <v>7</v>
       </c>
@@ -13547,7 +13546,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>8</v>
       </c>
@@ -13597,7 +13596,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="249" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" s="7">
         <v>0</v>
       </c>
@@ -13650,7 +13649,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="250" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>2</v>
       </c>
@@ -13703,7 +13702,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>3.5</v>
       </c>
@@ -13756,7 +13755,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>7.5</v>
       </c>
@@ -13809,7 +13808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" s="7">
         <v>2</v>
       </c>
@@ -13862,7 +13861,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>3.5</v>
       </c>
@@ -13915,7 +13914,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>7.5</v>
       </c>
@@ -13968,7 +13967,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>2</v>
       </c>
@@ -14021,7 +14020,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>3.5</v>
       </c>
@@ -14074,7 +14073,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="258" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" s="7">
         <v>7.5</v>
       </c>
@@ -14127,7 +14126,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" s="7">
         <v>0</v>
       </c>
@@ -14180,7 +14179,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" s="7">
         <v>0</v>
       </c>
@@ -14233,7 +14232,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" s="7">
         <v>0.5</v>
       </c>
@@ -14289,7 +14288,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" s="7">
         <v>0.5</v>
       </c>
@@ -14345,7 +14344,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" s="7">
         <v>1</v>
       </c>
@@ -14398,7 +14397,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" s="7">
         <v>1</v>
       </c>
@@ -14451,7 +14450,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" s="16">
         <v>1.5</v>
       </c>
@@ -14507,7 +14506,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" s="7">
         <v>1.5</v>
       </c>
@@ -14563,7 +14562,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" s="7">
         <v>2</v>
       </c>
@@ -14616,7 +14615,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" s="7">
         <v>2</v>
       </c>
@@ -14669,7 +14668,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" s="7">
         <v>2.5</v>
       </c>
@@ -14725,7 +14724,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="270" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" s="7">
         <v>2.5</v>
       </c>
@@ -14781,7 +14780,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" s="7">
         <v>3</v>
       </c>
@@ -14834,7 +14833,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="272" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" s="7">
         <v>3</v>
       </c>
@@ -14887,7 +14886,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" s="7">
         <v>3.5</v>
       </c>
@@ -14943,7 +14942,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" s="7">
         <v>3.5</v>
       </c>
@@ -14999,7 +14998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" s="7">
         <v>4</v>
       </c>
@@ -15052,7 +15051,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="276" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" s="7">
         <v>4</v>
       </c>
@@ -15105,7 +15104,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="277" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" s="7">
         <v>4.5</v>
       </c>
@@ -15161,7 +15160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="278" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" s="7">
         <v>4.5</v>
       </c>
@@ -15217,7 +15216,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="279" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" s="7">
         <v>5</v>
       </c>
@@ -15270,7 +15269,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" s="7">
         <v>5</v>
       </c>
@@ -15323,7 +15322,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" s="7">
         <v>5.5</v>
       </c>
@@ -15379,7 +15378,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" s="7">
         <v>5.5</v>
       </c>
@@ -15435,7 +15434,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="283" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" s="16">
         <v>6</v>
       </c>
@@ -15488,7 +15487,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="284" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" s="18">
         <v>0.5</v>
       </c>
@@ -15541,7 +15540,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="285" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" s="18">
         <v>1</v>
       </c>
@@ -15591,7 +15590,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" s="18">
         <v>1.5</v>
       </c>
@@ -15644,7 +15643,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2</v>
       </c>
@@ -15694,7 +15693,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>3</v>
       </c>
@@ -15744,7 +15743,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="289" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A289" s="18">
         <v>4</v>
       </c>
@@ -15794,7 +15793,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="290" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A290" s="18">
         <v>5</v>
       </c>
@@ -15844,7 +15843,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="291" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1</v>
       </c>
@@ -15895,7 +15894,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="292" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A292" s="18">
         <v>2</v>
       </c>
@@ -15947,7 +15946,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="293" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>4</v>
       </c>
@@ -15998,7 +15997,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="294" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>6</v>
       </c>
@@ -16049,7 +16048,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="295" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A295" s="18">
         <v>1</v>
       </c>
@@ -16101,7 +16100,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="296" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2</v>
       </c>
@@ -16152,7 +16151,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="297" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A297" s="18">
         <v>4</v>
       </c>
@@ -16204,7 +16203,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="298" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A298" s="18">
         <v>6</v>
       </c>
@@ -16256,7 +16255,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="299" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A299" s="18">
         <v>1</v>
       </c>
@@ -16308,7 +16307,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="300" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>2</v>
       </c>
@@ -16359,7 +16358,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="301" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A301" s="18">
         <v>4</v>
       </c>
@@ -16411,7 +16410,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="302" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A302" s="18">
         <v>6</v>
       </c>
@@ -16463,7 +16462,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="303" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1</v>
       </c>
@@ -16514,7 +16513,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="304" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A304" s="18">
         <v>2</v>
       </c>
@@ -16566,7 +16565,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="305" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>4</v>
       </c>
@@ -16617,7 +16616,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="306" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>6</v>
       </c>
@@ -16668,7 +16667,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="307" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>0</v>
       </c>
@@ -16721,7 +16720,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="308" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1</v>
       </c>
@@ -16774,7 +16773,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="309" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>2</v>
       </c>
@@ -16827,7 +16826,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="310" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>3</v>
       </c>
@@ -16880,7 +16879,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="311" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>4</v>
       </c>
@@ -16933,7 +16932,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="312" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>5</v>
       </c>
@@ -16986,7 +16985,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="313" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>6</v>
       </c>
@@ -17039,7 +17038,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="314" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>7</v>
       </c>
@@ -17092,7 +17091,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="315" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>8</v>
       </c>
@@ -17145,7 +17144,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="316" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>9</v>
       </c>
@@ -17198,7 +17197,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="317" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>10</v>
       </c>
@@ -17251,7 +17250,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="318" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>11</v>
       </c>
@@ -17824,7 +17823,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="329" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1</v>
       </c>
@@ -17875,7 +17874,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="330" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1</v>
       </c>
@@ -17926,7 +17925,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="331" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A331" s="18">
         <v>2</v>
       </c>
@@ -17978,7 +17977,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="332" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A332" s="18">
         <v>2</v>
       </c>
@@ -18030,7 +18029,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="333" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>3</v>
       </c>
@@ -18081,7 +18080,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="334" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A334" s="18">
         <v>3</v>
       </c>
@@ -18133,7 +18132,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="335" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A335" s="18">
         <v>4</v>
       </c>
@@ -18185,7 +18184,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="336" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>4</v>
       </c>
@@ -18236,7 +18235,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="337" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A337" s="18">
         <v>5</v>
       </c>
@@ -18288,7 +18287,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="338" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>5</v>
       </c>
@@ -18339,7 +18338,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="339" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>6</v>
       </c>
@@ -18390,7 +18389,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="340" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>6</v>
       </c>
@@ -18441,7 +18440,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="341" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A341" s="18">
         <v>7</v>
       </c>
@@ -18493,7 +18492,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="342" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A342" s="18">
         <v>7</v>
       </c>
@@ -18545,7 +18544,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="343" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A343" s="18">
         <v>8</v>
       </c>
@@ -18597,7 +18596,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="344" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>9</v>
       </c>
@@ -18648,7 +18647,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="345" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A345" s="18">
         <v>10</v>
       </c>
@@ -18700,7 +18699,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="346" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A346" s="18">
         <v>1</v>
       </c>
@@ -18750,7 +18749,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="347" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>2</v>
       </c>
@@ -18798,7 +18797,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="348" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A348" s="18">
         <v>3</v>
       </c>
@@ -18848,7 +18847,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="349" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A349" s="18">
         <v>4</v>
       </c>
@@ -18898,7 +18897,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="350" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A350" s="18">
         <v>5</v>
       </c>
@@ -18948,7 +18947,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="351" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A351" s="18">
         <v>6</v>
       </c>
@@ -18998,7 +18997,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="352" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A352" s="18">
         <v>7</v>
       </c>
@@ -19048,7 +19047,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="353" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1</v>
       </c>
@@ -19096,7 +19095,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="354" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A354" s="18">
         <v>2</v>
       </c>
@@ -19146,7 +19145,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="355" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>3</v>
       </c>
@@ -19194,7 +19193,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="356" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>4</v>
       </c>
@@ -19242,7 +19241,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="357" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>5</v>
       </c>
@@ -19290,7 +19289,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="358" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>6</v>
       </c>
@@ -19338,7 +19337,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="359" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>7</v>
       </c>
@@ -19386,7 +19385,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="360" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1</v>
       </c>
@@ -19436,7 +19435,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="361" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>2</v>
       </c>
@@ -19486,7 +19485,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="362" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>3</v>
       </c>
@@ -19536,7 +19535,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="363" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>4</v>
       </c>
@@ -19586,7 +19585,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="364" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>5</v>
       </c>
@@ -19636,7 +19635,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="365" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>6</v>
       </c>
@@ -19686,7 +19685,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="366" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>7</v>
       </c>
@@ -19736,7 +19735,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="367" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1</v>
       </c>
@@ -19786,7 +19785,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="368" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>2</v>
       </c>
@@ -19836,7 +19835,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="369" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>3</v>
       </c>
@@ -19886,7 +19885,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="370" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>4</v>
       </c>
@@ -19936,7 +19935,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="371" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>5</v>
       </c>
@@ -19986,7 +19985,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="372" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>6</v>
       </c>
@@ -20036,7 +20035,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="373" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>7</v>
       </c>
@@ -20086,7 +20085,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="374" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1</v>
       </c>
@@ -20136,7 +20135,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="375" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2</v>
       </c>
@@ -20186,7 +20185,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="376" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>3</v>
       </c>
@@ -20236,7 +20235,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="377" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>4</v>
       </c>
@@ -20286,7 +20285,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="378" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>5</v>
       </c>
@@ -20336,7 +20335,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="379" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>6</v>
       </c>
@@ -20386,7 +20385,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="380" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>7</v>
       </c>
@@ -20436,7 +20435,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="381" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>0</v>
       </c>
@@ -20486,7 +20485,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="382" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>0</v>
       </c>
@@ -20536,7 +20535,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="383" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1</v>
       </c>
@@ -20586,7 +20585,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="384" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1</v>
       </c>
@@ -20636,7 +20635,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="385" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>2</v>
       </c>
@@ -20686,7 +20685,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="386" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2</v>
       </c>
@@ -20736,7 +20735,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="387" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>3</v>
       </c>
@@ -20786,7 +20785,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="388" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>3</v>
       </c>
@@ -20836,7 +20835,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="389" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>4</v>
       </c>
@@ -20886,7 +20885,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="390" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>4</v>
       </c>
@@ -20936,7 +20935,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="391" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>5</v>
       </c>
@@ -20986,7 +20985,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="392" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>5</v>
       </c>
@@ -21036,7 +21035,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="393" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>6</v>
       </c>
@@ -21086,7 +21085,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="394" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>6</v>
       </c>
@@ -21136,7 +21135,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="395" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>7</v>
       </c>
@@ -21186,7 +21185,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="396" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>7</v>
       </c>
@@ -21236,7 +21235,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="397" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>0</v>
       </c>
@@ -21286,7 +21285,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="398" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>0</v>
       </c>
@@ -21336,7 +21335,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="399" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1</v>
       </c>
@@ -21386,7 +21385,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="400" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1</v>
       </c>
@@ -21436,7 +21435,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="401" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>2</v>
       </c>
@@ -21486,7 +21485,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="402" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>2</v>
       </c>
@@ -21536,7 +21535,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="403" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>3</v>
       </c>
@@ -21586,7 +21585,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="404" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>3</v>
       </c>
@@ -21636,7 +21635,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="405" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>4</v>
       </c>
@@ -21686,7 +21685,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="406" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>4</v>
       </c>
@@ -21736,7 +21735,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="407" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>5</v>
       </c>
@@ -21786,7 +21785,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="408" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>5</v>
       </c>
@@ -21836,7 +21835,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="409" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>6</v>
       </c>
@@ -21886,7 +21885,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="410" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>6</v>
       </c>
@@ -21936,7 +21935,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="411" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>7</v>
       </c>
@@ -21986,7 +21985,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="412" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>7</v>
       </c>
@@ -22036,7 +22035,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="413" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>0</v>
       </c>
@@ -22086,7 +22085,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="414" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>0</v>
       </c>
@@ -22136,7 +22135,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="415" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>1</v>
       </c>
@@ -22186,7 +22185,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="416" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1</v>
       </c>
@@ -22236,7 +22235,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="417" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2</v>
       </c>
@@ -22286,7 +22285,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="418" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>2</v>
       </c>
@@ -22336,7 +22335,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="419" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>3</v>
       </c>
@@ -22386,7 +22385,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="420" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>3</v>
       </c>
@@ -22436,7 +22435,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="421" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>4</v>
       </c>
@@ -22486,7 +22485,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="422" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>4</v>
       </c>
@@ -22536,7 +22535,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="423" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>5</v>
       </c>
@@ -22586,7 +22585,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="424" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>5</v>
       </c>
@@ -22636,7 +22635,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="425" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>6</v>
       </c>
@@ -22686,7 +22685,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="426" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>6</v>
       </c>
@@ -22736,7 +22735,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="427" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>7</v>
       </c>
@@ -22786,7 +22785,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="428" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>7</v>
       </c>
@@ -22836,7 +22835,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="429" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>0</v>
       </c>
@@ -22886,7 +22885,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="430" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>0</v>
       </c>
@@ -22936,7 +22935,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="431" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>1</v>
       </c>
@@ -22986,7 +22985,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="432" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>1</v>
       </c>
@@ -23036,7 +23035,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="433" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>2</v>
       </c>
@@ -23086,7 +23085,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="434" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>2</v>
       </c>
@@ -23136,7 +23135,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="435" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>3</v>
       </c>
@@ -23186,7 +23185,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="436" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>3</v>
       </c>
@@ -23236,7 +23235,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="437" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>4</v>
       </c>
@@ -23286,7 +23285,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="438" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>4</v>
       </c>
@@ -23336,7 +23335,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="439" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>5</v>
       </c>
@@ -23386,7 +23385,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="440" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>5</v>
       </c>
@@ -23436,7 +23435,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="441" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>6</v>
       </c>
@@ -23486,7 +23485,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="442" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>6</v>
       </c>
@@ -23536,7 +23535,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="443" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>7</v>
       </c>
@@ -23586,7 +23585,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="444" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>7</v>
       </c>
@@ -23636,7 +23635,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="445" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A445" s="18">
         <v>1</v>
       </c>
@@ -23688,7 +23687,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="446" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>1</v>
       </c>
@@ -23740,7 +23739,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="447" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>2</v>
       </c>
@@ -23792,7 +23791,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="448" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A448" s="18">
         <v>2</v>
       </c>
@@ -23844,7 +23843,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="449" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A449" s="18">
         <v>3</v>
       </c>
@@ -23896,7 +23895,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="450" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>3</v>
       </c>
@@ -23948,7 +23947,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="451" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>4</v>
       </c>
@@ -24000,7 +23999,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="452" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A452" s="18">
         <v>4</v>
       </c>
@@ -24052,7 +24051,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="453" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>5</v>
       </c>
@@ -24104,7 +24103,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="454" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A454" s="18">
         <v>5</v>
       </c>
@@ -24156,7 +24155,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="455" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A455" s="18">
         <v>6</v>
       </c>
@@ -24208,7 +24207,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="456" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>6</v>
       </c>
@@ -24260,7 +24259,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="457" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A457" s="18">
         <v>7</v>
       </c>
@@ -24312,7 +24311,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="458" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>7</v>
       </c>
@@ -24365,13 +24364,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S458" xr:uid="{D77C534B-1212-4161-8C68-A242F4FEFD13}">
-    <filterColumn colId="14">
-      <filters>
-        <filter val="1E3-7 H1N1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:S458" xr:uid="{D77C534B-1212-4161-8C68-A242F4FEFD13}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R458">
     <sortCondition ref="K2:K458"/>
     <sortCondition ref="B2:B458"/>
